--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_11_13.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_11_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1238731.842651876</v>
+        <v>-1239530.087685533</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2483774.929486434</v>
+        <v>2483774.929486431</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736553</v>
+        <v>504792.0292736555</v>
       </c>
     </row>
     <row r="9">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1139,67 +1139,67 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>107.607508220824</v>
+      </c>
+      <c r="G8" t="n">
+        <v>11.94294668035388</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="F8" t="n">
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>135.7293992974318</v>
-      </c>
-      <c r="G8" t="n">
-        <v>119.5504549011779</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>135.7293992974318</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1215,13 +1215,13 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,19 +1257,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>59.18642621600367</v>
+        <v>54.23453167214566</v>
       </c>
       <c r="S9" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>60.36402868517423</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1333,31 +1333,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="S10" t="n">
+      <c r="W10" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="T10" t="n">
+      <c r="X10" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="U10" t="n">
-        <v>81.39848696832989</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0</v>
-      </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>119.5504549011779</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>306.9184284283103</v>
+        <v>306.9184284283104</v>
       </c>
       <c r="C11" t="n">
-        <v>294.929745385992</v>
+        <v>294.9297453859921</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>285.9110494305201</v>
       </c>
       <c r="E11" t="n">
-        <v>307.6531870004255</v>
+        <v>301.8700594511848</v>
       </c>
       <c r="F11" t="n">
-        <v>326.8250030884027</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>328.2706518781363</v>
+        <v>328.2706518781364</v>
       </c>
       <c r="H11" t="n">
-        <v>241.3145567775165</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>69.10541545958802</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>91.06038950496075</v>
       </c>
       <c r="T11" t="n">
-        <v>136.7961284678622</v>
+        <v>136.7961284678623</v>
       </c>
       <c r="U11" t="n">
-        <v>116.5641784195598</v>
+        <v>169.1127977000022</v>
       </c>
       <c r="V11" t="n">
-        <v>250.4248056684894</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>275.7249051464463</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>295.025163379193</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>306.4217611753918</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>127.1803157534334</v>
       </c>
       <c r="H12" t="n">
-        <v>96.41874164113864</v>
+        <v>96.41874164113862</v>
       </c>
       <c r="I12" t="n">
-        <v>58.71574796301679</v>
+        <v>58.71574796301677</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>42.98778846128317</v>
+        <v>42.98778846128315</v>
       </c>
       <c r="S12" t="n">
         <v>146.4254034700827</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>98.53513930300737</v>
+        <v>98.53513930300745</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>84.73513414840794</v>
       </c>
       <c r="D13" t="n">
-        <v>68.35649854598624</v>
+        <v>68.35649854598633</v>
       </c>
       <c r="E13" t="n">
-        <v>67.30424840176569</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>67.77117272995208</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>83.827146306478</v>
       </c>
       <c r="H13" t="n">
-        <v>72.64954213184632</v>
+        <v>72.6495421318464</v>
       </c>
       <c r="I13" t="n">
-        <v>52.99855633999329</v>
+        <v>52.99855633999336</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>55.00703014733517</v>
+        <v>55.00703014733524</v>
       </c>
       <c r="S13" t="n">
-        <v>76.81407204366496</v>
+        <v>81.71657399583543</v>
       </c>
       <c r="T13" t="n">
-        <v>146.7279179755284</v>
+        <v>146.7279179755285</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>201.1217307406359</v>
       </c>
       <c r="V13" t="n">
-        <v>174.9432757026329</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>200.1101617732462</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>145.7552637690493</v>
+        <v>145.7552637690494</v>
       </c>
       <c r="Y13" t="n">
-        <v>136.630131525117</v>
+        <v>136.6301315251171</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>306.9184284283103</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>294.9297453859921</v>
       </c>
       <c r="D14" t="n">
         <v>285.9110494305201</v>
       </c>
       <c r="E14" t="n">
-        <v>307.6531870004255</v>
+        <v>117.0491254334896</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>328.2706518781364</v>
       </c>
       <c r="H14" t="n">
         <v>241.3145567775165</v>
       </c>
       <c r="I14" t="n">
-        <v>69.10541545958797</v>
+        <v>69.105415459588</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>91.06038950496071</v>
+        <v>91.06038950496075</v>
       </c>
       <c r="T14" t="n">
-        <v>136.7961284678622</v>
+        <v>136.7961284678623</v>
       </c>
       <c r="U14" t="n">
-        <v>19.06579982243761</v>
+        <v>169.1127977000022</v>
       </c>
       <c r="V14" t="n">
-        <v>250.4248056684894</v>
+        <v>250.4248056684895</v>
       </c>
       <c r="W14" t="n">
-        <v>275.7249051464463</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>295.0251633791929</v>
+        <v>295.025163379193</v>
       </c>
       <c r="Y14" t="n">
-        <v>306.4217611753917</v>
+        <v>306.4217611753918</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>127.1803157534334</v>
       </c>
       <c r="H15" t="n">
-        <v>96.41874164113864</v>
+        <v>96.41874164113862</v>
       </c>
       <c r="I15" t="n">
-        <v>58.71574796301679</v>
+        <v>58.71574796301677</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>42.98778846128317</v>
+        <v>42.98778846128315</v>
       </c>
       <c r="S15" t="n">
         <v>146.4254034700827</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>98.53513930300738</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>84.73513414840787</v>
+        <v>46.41009840969598</v>
       </c>
       <c r="D16" t="n">
-        <v>68.35649854598626</v>
+        <v>68.35649854598633</v>
       </c>
       <c r="E16" t="n">
-        <v>64.19886931403907</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>67.77117272995201</v>
+        <v>67.77117272995208</v>
       </c>
       <c r="G16" t="n">
-        <v>83.82714630647793</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>72.64954213184635</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>52.99855633999336</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>55.00703014733519</v>
+        <v>55.00703014733524</v>
       </c>
       <c r="S16" t="n">
-        <v>124.576136815606</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>146.7279179755284</v>
       </c>
       <c r="U16" t="n">
-        <v>201.1217307406358</v>
+        <v>201.1217307406359</v>
       </c>
       <c r="V16" t="n">
-        <v>174.943275702633</v>
+        <v>174.9432757026331</v>
       </c>
       <c r="W16" t="n">
-        <v>200.1101617732462</v>
+        <v>200.1101617732463</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>145.7552637690494</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>136.6301315251171</v>
       </c>
     </row>
     <row r="17">
@@ -1841,22 +1841,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>233.2779296589883</v>
+        <v>233.2779296589894</v>
       </c>
       <c r="C17" t="n">
-        <v>221.28924661667</v>
+        <v>221.2892466166701</v>
       </c>
       <c r="D17" t="n">
-        <v>212.270550661198</v>
+        <v>212.2705506611981</v>
       </c>
       <c r="E17" t="n">
-        <v>234.0126882311035</v>
+        <v>234.0126882311036</v>
       </c>
       <c r="F17" t="n">
-        <v>253.1845043190807</v>
+        <v>253.1845043190808</v>
       </c>
       <c r="G17" t="n">
-        <v>254.6301531088143</v>
+        <v>254.6301531088144</v>
       </c>
       <c r="H17" t="n">
         <v>167.6740580081945</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>17.41989073563869</v>
+        <v>17.41989073563872</v>
       </c>
       <c r="T17" t="n">
-        <v>63.15562969854022</v>
+        <v>63.15562969854028</v>
       </c>
       <c r="U17" t="n">
-        <v>95.47229893068102</v>
+        <v>95.47229893068018</v>
       </c>
       <c r="V17" t="n">
-        <v>176.7843068991674</v>
+        <v>176.7843068991675</v>
       </c>
       <c r="W17" t="n">
-        <v>202.0844063771243</v>
+        <v>202.0844063771244</v>
       </c>
       <c r="X17" t="n">
-        <v>221.3846646098709</v>
+        <v>221.384664609871</v>
       </c>
       <c r="Y17" t="n">
         <v>232.7812624060697</v>
@@ -1938,10 +1938,10 @@
         <v>127.1803157534334</v>
       </c>
       <c r="H18" t="n">
-        <v>96.41874164113864</v>
+        <v>96.41874164113862</v>
       </c>
       <c r="I18" t="n">
-        <v>58.71574796301679</v>
+        <v>58.71574796301677</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>42.98778846128317</v>
+        <v>42.98778846128315</v>
       </c>
       <c r="S18" t="n">
         <v>146.4254034700827</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>24.89464053368536</v>
+        <v>24.89464053368542</v>
       </c>
       <c r="C19" t="n">
-        <v>11.09463537908584</v>
+        <v>11.0946353790859</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>10.18664753715591</v>
+        <v>55.78573491174284</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>96.53472542087127</v>
+        <v>50.93563804628405</v>
       </c>
       <c r="T19" t="n">
-        <v>73.08741920620638</v>
+        <v>73.08741920620643</v>
       </c>
       <c r="U19" t="n">
-        <v>127.4812319713138</v>
+        <v>127.4812319713139</v>
       </c>
       <c r="V19" t="n">
         <v>101.302776933311</v>
       </c>
       <c r="W19" t="n">
-        <v>126.4696630039242</v>
+        <v>126.4696630039243</v>
       </c>
       <c r="X19" t="n">
-        <v>72.11476499972733</v>
+        <v>72.11476499972738</v>
       </c>
       <c r="Y19" t="n">
-        <v>62.98963275579501</v>
+        <v>62.98963275579507</v>
       </c>
     </row>
     <row r="20">
@@ -2081,19 +2081,19 @@
         <v>233.2779296589883</v>
       </c>
       <c r="C20" t="n">
-        <v>221.28924661667</v>
+        <v>221.2892466166701</v>
       </c>
       <c r="D20" t="n">
-        <v>212.270550661198</v>
+        <v>212.2705506611981</v>
       </c>
       <c r="E20" t="n">
-        <v>234.0126882311035</v>
+        <v>234.0126882311036</v>
       </c>
       <c r="F20" t="n">
-        <v>253.1845043190807</v>
+        <v>253.1845043190808</v>
       </c>
       <c r="G20" t="n">
-        <v>254.6301531088143</v>
+        <v>254.6301531088144</v>
       </c>
       <c r="H20" t="n">
         <v>167.6740580081945</v>
@@ -2129,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>17.41989073563869</v>
+        <v>17.41989073563872</v>
       </c>
       <c r="T20" t="n">
-        <v>63.15562969854023</v>
+        <v>63.15562969854028</v>
       </c>
       <c r="U20" t="n">
-        <v>95.47229893068013</v>
+        <v>95.47229893068018</v>
       </c>
       <c r="V20" t="n">
-        <v>176.7843068991674</v>
+        <v>176.7843068991675</v>
       </c>
       <c r="W20" t="n">
-        <v>202.0844063771243</v>
+        <v>202.0844063771244</v>
       </c>
       <c r="X20" t="n">
-        <v>221.3846646098709</v>
+        <v>221.384664609871</v>
       </c>
       <c r="Y20" t="n">
         <v>232.7812624060697</v>
@@ -2175,10 +2175,10 @@
         <v>127.1803157534334</v>
       </c>
       <c r="H21" t="n">
-        <v>96.41874164113864</v>
+        <v>96.41874164113862</v>
       </c>
       <c r="I21" t="n">
-        <v>58.71574796301679</v>
+        <v>58.71574796301677</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>42.98778846128317</v>
+        <v>42.98778846128315</v>
       </c>
       <c r="S21" t="n">
         <v>146.4254034700827</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>24.89464053368536</v>
+        <v>24.89464053368542</v>
       </c>
       <c r="C22" t="n">
-        <v>11.09463537908584</v>
+        <v>11.0946353790859</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>10.18664753715591</v>
+        <v>10.18664753715597</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2260,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>43.9925156610596</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2281,31 +2281,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>19.83638472416909</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>50.93563804628401</v>
+        <v>50.93563804628405</v>
       </c>
       <c r="T22" t="n">
-        <v>73.08741920620638</v>
+        <v>98.85012185662436</v>
       </c>
       <c r="U22" t="n">
-        <v>127.4812319713138</v>
+        <v>127.4812319713139</v>
       </c>
       <c r="V22" t="n">
         <v>101.302776933311</v>
       </c>
       <c r="W22" t="n">
-        <v>126.4696630039242</v>
+        <v>126.4696630039243</v>
       </c>
       <c r="X22" t="n">
-        <v>72.11476499972733</v>
+        <v>72.11476499972738</v>
       </c>
       <c r="Y22" t="n">
-        <v>64.59620446932271</v>
+        <v>62.98963275579507</v>
       </c>
     </row>
     <row r="23">
@@ -2318,19 +2318,19 @@
         <v>233.2779296589883</v>
       </c>
       <c r="C23" t="n">
-        <v>221.28924661667</v>
+        <v>221.2892466166701</v>
       </c>
       <c r="D23" t="n">
-        <v>212.270550661198</v>
+        <v>212.2705506611981</v>
       </c>
       <c r="E23" t="n">
-        <v>234.0126882311035</v>
+        <v>234.0126882311036</v>
       </c>
       <c r="F23" t="n">
-        <v>253.1845043190807</v>
+        <v>253.1845043190808</v>
       </c>
       <c r="G23" t="n">
-        <v>254.6301531088143</v>
+        <v>254.6301531088144</v>
       </c>
       <c r="H23" t="n">
         <v>167.6740580081945</v>
@@ -2366,22 +2366,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>17.41989073563869</v>
+        <v>17.41989073563875</v>
       </c>
       <c r="T23" t="n">
-        <v>63.15562969854022</v>
+        <v>63.15562969854029</v>
       </c>
       <c r="U23" t="n">
-        <v>95.47229893068013</v>
+        <v>95.47229893068018</v>
       </c>
       <c r="V23" t="n">
-        <v>176.7843068991674</v>
+        <v>176.7843068991675</v>
       </c>
       <c r="W23" t="n">
-        <v>202.0844063771243</v>
+        <v>202.0844063771244</v>
       </c>
       <c r="X23" t="n">
-        <v>221.3846646098709</v>
+        <v>221.384664609871</v>
       </c>
       <c r="Y23" t="n">
         <v>232.7812624060697</v>
@@ -2415,7 +2415,7 @@
         <v>96.41874164113864</v>
       </c>
       <c r="I24" t="n">
-        <v>58.71574796301679</v>
+        <v>58.71574796301678</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>24.89464053368536</v>
+        <v>24.89464053368542</v>
       </c>
       <c r="C25" t="n">
-        <v>11.09463537908584</v>
+        <v>11.0946353790859</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>10.18664753715591</v>
+        <v>10.18664753715597</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>45.59908737458738</v>
+        <v>45.5990873745867</v>
       </c>
       <c r="S25" t="n">
-        <v>50.93563804628401</v>
+        <v>50.93563804628406</v>
       </c>
       <c r="T25" t="n">
-        <v>73.08741920620638</v>
+        <v>73.08741920620643</v>
       </c>
       <c r="U25" t="n">
-        <v>127.4812319713138</v>
+        <v>127.4812319713139</v>
       </c>
       <c r="V25" t="n">
         <v>101.302776933311</v>
       </c>
       <c r="W25" t="n">
-        <v>126.4696630039242</v>
+        <v>126.4696630039243</v>
       </c>
       <c r="X25" t="n">
-        <v>72.11476499972733</v>
+        <v>72.11476499972738</v>
       </c>
       <c r="Y25" t="n">
-        <v>62.98963275579501</v>
+        <v>62.98963275579507</v>
       </c>
     </row>
     <row r="26">
@@ -2552,13 +2552,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>286.5660388819271</v>
+        <v>286.566038881927</v>
       </c>
       <c r="C26" t="n">
-        <v>274.5773558396088</v>
+        <v>274.5773558396087</v>
       </c>
       <c r="D26" t="n">
-        <v>265.5586598841368</v>
+        <v>265.5586598841367</v>
       </c>
       <c r="E26" t="n">
         <v>287.3007974540423</v>
@@ -2573,7 +2573,7 @@
         <v>220.9621672311332</v>
       </c>
       <c r="I26" t="n">
-        <v>48.75302591320471</v>
+        <v>48.7530259132047</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.70799995857743</v>
+        <v>70.70799995857742</v>
       </c>
       <c r="T26" t="n">
         <v>116.443738921479</v>
@@ -2615,7 +2615,7 @@
         <v>230.0724161221061</v>
       </c>
       <c r="W26" t="n">
-        <v>255.3725156000631</v>
+        <v>255.372515600063</v>
       </c>
       <c r="X26" t="n">
         <v>274.6727738328096</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>78.1827497566241</v>
+        <v>78.18274975662409</v>
       </c>
       <c r="C28" t="n">
-        <v>64.38274460202459</v>
+        <v>64.38274460202457</v>
       </c>
       <c r="D28" t="n">
-        <v>48.00410899960298</v>
+        <v>48.00410899960296</v>
       </c>
       <c r="E28" t="n">
-        <v>46.95185885538243</v>
+        <v>46.95185885538241</v>
       </c>
       <c r="F28" t="n">
-        <v>47.41878318356873</v>
+        <v>47.41878318356872</v>
       </c>
       <c r="G28" t="n">
-        <v>63.47475676009466</v>
+        <v>63.47475676009465</v>
       </c>
       <c r="H28" t="n">
-        <v>52.29715258546307</v>
+        <v>52.29715258546305</v>
       </c>
       <c r="I28" t="n">
-        <v>32.64616679361001</v>
+        <v>32.64616679360999</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.65464060095189</v>
+        <v>34.65464060095188</v>
       </c>
       <c r="S28" t="n">
         <v>104.2237472692227</v>
@@ -2773,13 +2773,13 @@
         <v>154.5908861562497</v>
       </c>
       <c r="W28" t="n">
-        <v>179.757772226863</v>
+        <v>179.7577722268629</v>
       </c>
       <c r="X28" t="n">
         <v>125.4028742226661</v>
       </c>
       <c r="Y28" t="n">
-        <v>116.2777419787338</v>
+        <v>116.2777419787337</v>
       </c>
     </row>
     <row r="29">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>251.4501286956955</v>
+        <v>251.4501286956956</v>
       </c>
       <c r="C32" t="n">
-        <v>239.4614456533773</v>
+        <v>239.4614456533774</v>
       </c>
       <c r="D32" t="n">
-        <v>230.4427496979052</v>
+        <v>230.4427496979053</v>
       </c>
       <c r="E32" t="n">
-        <v>252.1848872678108</v>
+        <v>252.1848872678109</v>
       </c>
       <c r="F32" t="n">
-        <v>271.3567033557879</v>
+        <v>271.356703355788</v>
       </c>
       <c r="G32" t="n">
-        <v>272.8023521455216</v>
+        <v>272.8023521455217</v>
       </c>
       <c r="H32" t="n">
-        <v>185.8462570449017</v>
+        <v>185.8462570449018</v>
       </c>
       <c r="I32" t="n">
-        <v>13.63711572697321</v>
+        <v>13.63711572697329</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>35.59208977234593</v>
+        <v>35.59208977234601</v>
       </c>
       <c r="T32" t="n">
-        <v>81.32782873524746</v>
+        <v>81.32782873524755</v>
       </c>
       <c r="U32" t="n">
-        <v>113.6444979673874</v>
+        <v>113.6444979673875</v>
       </c>
       <c r="V32" t="n">
-        <v>194.9565059358746</v>
+        <v>194.9565059358747</v>
       </c>
       <c r="W32" t="n">
         <v>220.2566054138316</v>
       </c>
       <c r="X32" t="n">
-        <v>239.5568636465782</v>
+        <v>239.5568636465783</v>
       </c>
       <c r="Y32" t="n">
-        <v>250.9534614427769</v>
+        <v>250.953461442777</v>
       </c>
     </row>
     <row r="33">
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>43.0668395703926</v>
+        <v>43.06683957039269</v>
       </c>
       <c r="C34" t="n">
-        <v>29.26683441579308</v>
+        <v>29.26683441579317</v>
       </c>
       <c r="D34" t="n">
-        <v>12.88819881337147</v>
+        <v>12.88819881337156</v>
       </c>
       <c r="E34" t="n">
-        <v>11.83594866915092</v>
+        <v>11.83594866915101</v>
       </c>
       <c r="F34" t="n">
-        <v>12.30287299733723</v>
+        <v>12.30287299733732</v>
       </c>
       <c r="G34" t="n">
-        <v>28.35884657386315</v>
+        <v>28.35884657386324</v>
       </c>
       <c r="H34" t="n">
-        <v>17.18124239923155</v>
+        <v>17.18124239923164</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>69.10783708299124</v>
+        <v>69.10783708299132</v>
       </c>
       <c r="T34" t="n">
-        <v>91.25961824291362</v>
+        <v>91.2596182429137</v>
       </c>
       <c r="U34" t="n">
-        <v>145.653431008021</v>
+        <v>145.6534310080211</v>
       </c>
       <c r="V34" t="n">
-        <v>119.4749759700182</v>
+        <v>119.4749759700183</v>
       </c>
       <c r="W34" t="n">
         <v>144.6418620406315</v>
       </c>
       <c r="X34" t="n">
-        <v>90.28696403643457</v>
+        <v>90.28696403643465</v>
       </c>
       <c r="Y34" t="n">
-        <v>81.16183179250226</v>
+        <v>81.16183179250234</v>
       </c>
     </row>
     <row r="35">
@@ -3269,13 +3269,13 @@
         <v>221.2892466166701</v>
       </c>
       <c r="D35" t="n">
-        <v>212.270550661198</v>
+        <v>212.2705506611981</v>
       </c>
       <c r="E35" t="n">
         <v>234.0126882311036</v>
       </c>
       <c r="F35" t="n">
-        <v>253.1845043190807</v>
+        <v>253.1845043190808</v>
       </c>
       <c r="G35" t="n">
         <v>254.6301531088144</v>
@@ -3314,19 +3314,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>17.41989073563872</v>
+        <v>17.41989073563875</v>
       </c>
       <c r="T35" t="n">
-        <v>63.15562969854025</v>
+        <v>63.15562969854028</v>
       </c>
       <c r="U35" t="n">
-        <v>95.47229893068015</v>
+        <v>95.47229893068018</v>
       </c>
       <c r="V35" t="n">
-        <v>176.7843068991674</v>
+        <v>176.7843068991675</v>
       </c>
       <c r="W35" t="n">
-        <v>202.0844063771243</v>
+        <v>202.0844063771244</v>
       </c>
       <c r="X35" t="n">
         <v>221.384664609871</v>
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.89464053368539</v>
+        <v>24.89464053368542</v>
       </c>
       <c r="C37" t="n">
-        <v>11.09463537908587</v>
+        <v>11.0946353790859</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3436,10 +3436,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>10.18664753715594</v>
+        <v>10.18664753715597</v>
       </c>
       <c r="H37" t="n">
-        <v>45.59908737458713</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>45.5990873745867</v>
       </c>
       <c r="S37" t="n">
-        <v>50.93563804628403</v>
+        <v>50.93563804628406</v>
       </c>
       <c r="T37" t="n">
-        <v>73.08741920620641</v>
+        <v>73.08741920620643</v>
       </c>
       <c r="U37" t="n">
-        <v>127.4812319713138</v>
+        <v>127.4812319713139</v>
       </c>
       <c r="V37" t="n">
         <v>101.302776933311</v>
       </c>
       <c r="W37" t="n">
-        <v>126.4696630039242</v>
+        <v>126.4696630039243</v>
       </c>
       <c r="X37" t="n">
-        <v>72.11476499972736</v>
+        <v>72.11476499972738</v>
       </c>
       <c r="Y37" t="n">
-        <v>62.98963275579504</v>
+        <v>62.98963275579507</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>233.2779296589883</v>
+        <v>233.2779296589884</v>
       </c>
       <c r="C38" t="n">
         <v>221.2892466166701</v>
       </c>
       <c r="D38" t="n">
-        <v>212.270550661198</v>
+        <v>212.2705506611981</v>
       </c>
       <c r="E38" t="n">
-        <v>234.0126882311036</v>
+        <v>234.0126882311037</v>
       </c>
       <c r="F38" t="n">
-        <v>253.1845043190807</v>
+        <v>253.1845043190808</v>
       </c>
       <c r="G38" t="n">
-        <v>254.6301531088144</v>
+        <v>254.6301531088145</v>
       </c>
       <c r="H38" t="n">
-        <v>167.6740580081945</v>
+        <v>167.6740580081946</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>17.41989073563872</v>
+        <v>17.4198907356388</v>
       </c>
       <c r="T38" t="n">
-        <v>63.15562969854025</v>
+        <v>63.15562969854034</v>
       </c>
       <c r="U38" t="n">
-        <v>95.47229893068015</v>
+        <v>95.47229893068024</v>
       </c>
       <c r="V38" t="n">
-        <v>176.7843068991674</v>
+        <v>176.7843068991675</v>
       </c>
       <c r="W38" t="n">
-        <v>202.0844063771243</v>
+        <v>202.0844063771244</v>
       </c>
       <c r="X38" t="n">
         <v>221.384664609871</v>
       </c>
       <c r="Y38" t="n">
-        <v>232.7812624060697</v>
+        <v>232.7812624060698</v>
       </c>
     </row>
     <row r="39">
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.89464053368539</v>
+        <v>24.89464053368548</v>
       </c>
       <c r="C40" t="n">
-        <v>11.09463537908587</v>
+        <v>11.09463537908596</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>10.18664753715594</v>
+        <v>10.18664753715603</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3703,31 +3703,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.606571713527335</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>1.606571713526547</v>
       </c>
       <c r="S40" t="n">
-        <v>50.93563804628403</v>
+        <v>50.93563804628412</v>
       </c>
       <c r="T40" t="n">
-        <v>73.08741920620641</v>
+        <v>73.08741920620649</v>
       </c>
       <c r="U40" t="n">
-        <v>127.4812319713138</v>
+        <v>127.4812319713139</v>
       </c>
       <c r="V40" t="n">
-        <v>101.302776933311</v>
+        <v>101.3027769333111</v>
       </c>
       <c r="W40" t="n">
-        <v>126.4696630039242</v>
+        <v>126.4696630039243</v>
       </c>
       <c r="X40" t="n">
-        <v>72.11476499972736</v>
+        <v>72.11476499972744</v>
       </c>
       <c r="Y40" t="n">
-        <v>62.98963275579504</v>
+        <v>62.98963275579513</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>233.2779296589883</v>
+        <v>233.2779296589884</v>
       </c>
       <c r="C41" t="n">
         <v>221.2892466166701</v>
       </c>
       <c r="D41" t="n">
-        <v>212.270550661198</v>
+        <v>212.2705506611981</v>
       </c>
       <c r="E41" t="n">
         <v>234.0126882311036</v>
       </c>
       <c r="F41" t="n">
-        <v>253.1845043190807</v>
+        <v>253.1845043190808</v>
       </c>
       <c r="G41" t="n">
         <v>254.6301531088144</v>
       </c>
       <c r="H41" t="n">
-        <v>167.6740580081945</v>
+        <v>167.6740580081946</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>17.41989073563872</v>
+        <v>17.41989073563877</v>
       </c>
       <c r="T41" t="n">
-        <v>63.15562969854025</v>
+        <v>63.15562969854031</v>
       </c>
       <c r="U41" t="n">
-        <v>95.47229893068015</v>
+        <v>95.47229893068021</v>
       </c>
       <c r="V41" t="n">
-        <v>176.7843068991674</v>
+        <v>176.7843068991675</v>
       </c>
       <c r="W41" t="n">
-        <v>202.0844063771243</v>
+        <v>202.0844063771244</v>
       </c>
       <c r="X41" t="n">
         <v>221.384664609871</v>
       </c>
       <c r="Y41" t="n">
-        <v>232.7812624060697</v>
+        <v>232.7812624060698</v>
       </c>
     </row>
     <row r="42">
@@ -3895,22 +3895,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.89464053368539</v>
+        <v>24.89464053368545</v>
       </c>
       <c r="C43" t="n">
-        <v>11.09463537908587</v>
+        <v>11.09463537908593</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>45.59908737458713</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>10.18664753715594</v>
+        <v>10.186647537156</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3919,7 +3919,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>43.9925156610596</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>50.93563804628403</v>
+        <v>52.54220975981089</v>
       </c>
       <c r="T43" t="n">
-        <v>73.08741920620641</v>
+        <v>73.08741920620646</v>
       </c>
       <c r="U43" t="n">
-        <v>127.4812319713138</v>
+        <v>127.4812319713139</v>
       </c>
       <c r="V43" t="n">
         <v>101.302776933311</v>
       </c>
       <c r="W43" t="n">
-        <v>126.4696630039242</v>
+        <v>126.4696630039243</v>
       </c>
       <c r="X43" t="n">
-        <v>72.11476499972736</v>
+        <v>72.11476499972741</v>
       </c>
       <c r="Y43" t="n">
-        <v>62.98963275579504</v>
+        <v>62.9896327557951</v>
       </c>
     </row>
     <row r="44">
@@ -3980,13 +3980,13 @@
         <v>221.2892466166701</v>
       </c>
       <c r="D44" t="n">
-        <v>212.270550661198</v>
+        <v>212.2705506611981</v>
       </c>
       <c r="E44" t="n">
         <v>234.0126882311036</v>
       </c>
       <c r="F44" t="n">
-        <v>253.1845043190807</v>
+        <v>253.1845043190808</v>
       </c>
       <c r="G44" t="n">
         <v>254.6301531088144</v>
@@ -4025,19 +4025,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>17.41989073563872</v>
+        <v>17.41989073563875</v>
       </c>
       <c r="T44" t="n">
-        <v>63.15562969854025</v>
+        <v>63.15562969854028</v>
       </c>
       <c r="U44" t="n">
-        <v>95.47229893068015</v>
+        <v>95.47229893068018</v>
       </c>
       <c r="V44" t="n">
-        <v>176.7843068991674</v>
+        <v>176.7843068991675</v>
       </c>
       <c r="W44" t="n">
-        <v>202.0844063771243</v>
+        <v>202.0844063771244</v>
       </c>
       <c r="X44" t="n">
         <v>221.384664609871</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.89464053368539</v>
+        <v>24.89464053368542</v>
       </c>
       <c r="C46" t="n">
-        <v>11.09463537908587</v>
+        <v>11.0946353790859</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,10 +4147,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>55.78573491174308</v>
+        <v>10.18664753715597</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>45.59908737458667</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>50.93563804628403</v>
+        <v>50.93563804628406</v>
       </c>
       <c r="T46" t="n">
-        <v>73.08741920620641</v>
+        <v>73.08741920620643</v>
       </c>
       <c r="U46" t="n">
-        <v>127.4812319713138</v>
+        <v>127.4812319713139</v>
       </c>
       <c r="V46" t="n">
         <v>101.302776933311</v>
       </c>
       <c r="W46" t="n">
-        <v>126.4696630039242</v>
+        <v>126.4696630039243</v>
       </c>
       <c r="X46" t="n">
-        <v>72.11476499972736</v>
+        <v>72.11476499972738</v>
       </c>
       <c r="Y46" t="n">
-        <v>62.98963275579504</v>
+        <v>62.98963275579507</v>
       </c>
     </row>
   </sheetData>
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>405.8171938589879</v>
+        <v>131.6163871975096</v>
       </c>
       <c r="C8" t="n">
-        <v>405.8171938589879</v>
+        <v>131.6163871975096</v>
       </c>
       <c r="D8" t="n">
-        <v>405.8171938589879</v>
+        <v>131.6163871975096</v>
       </c>
       <c r="E8" t="n">
-        <v>268.7167905282488</v>
+        <v>131.6163871975096</v>
       </c>
       <c r="F8" t="n">
-        <v>131.6163871975096</v>
+        <v>22.92193444920251</v>
       </c>
       <c r="G8" t="n">
         <v>10.85835194379454</v>
@@ -4805,13 +4805,13 @@
         <v>10.85835194379454</v>
       </c>
       <c r="K8" t="n">
+        <v>10.85835194379454</v>
+      </c>
+      <c r="L8" t="n">
+        <v>10.85835194379454</v>
+      </c>
+      <c r="M8" t="n">
         <v>145.230457248252</v>
-      </c>
-      <c r="L8" t="n">
-        <v>145.230457248252</v>
-      </c>
-      <c r="M8" t="n">
-        <v>179.7411328942751</v>
       </c>
       <c r="N8" t="n">
         <v>179.7411328942751</v>
@@ -4829,25 +4829,25 @@
         <v>542.9175971897271</v>
       </c>
       <c r="S8" t="n">
-        <v>542.9175971897271</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="T8" t="n">
-        <v>542.9175971897271</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="U8" t="n">
-        <v>542.9175971897271</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="V8" t="n">
-        <v>542.9175971897271</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="W8" t="n">
-        <v>542.9175971897271</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="X8" t="n">
         <v>405.8171938589879</v>
       </c>
       <c r="Y8" t="n">
-        <v>405.8171938589879</v>
+        <v>268.7167905282488</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10.85835194379454</v>
+        <v>488.1352419653375</v>
       </c>
       <c r="C9" t="n">
-        <v>10.85835194379454</v>
+        <v>488.1352419653375</v>
       </c>
       <c r="D9" t="n">
-        <v>10.85835194379454</v>
+        <v>351.0348386345984</v>
       </c>
       <c r="E9" t="n">
-        <v>10.85835194379454</v>
+        <v>213.9344353038592</v>
       </c>
       <c r="F9" t="n">
-        <v>10.85835194379454</v>
+        <v>79.24063725373355</v>
       </c>
       <c r="G9" t="n">
-        <v>10.85835194379454</v>
+        <v>79.24063725373355</v>
       </c>
       <c r="H9" t="n">
-        <v>10.85835194379454</v>
+        <v>79.24063725373355</v>
       </c>
       <c r="I9" t="n">
         <v>10.85835194379454</v>
@@ -4905,28 +4905,28 @@
         <v>542.9175971897271</v>
       </c>
       <c r="R9" t="n">
-        <v>483.1333282846729</v>
+        <v>488.1352419653375</v>
       </c>
       <c r="S9" t="n">
-        <v>346.0329249539337</v>
+        <v>488.1352419653375</v>
       </c>
       <c r="T9" t="n">
-        <v>208.9325216231946</v>
+        <v>488.1352419653375</v>
       </c>
       <c r="U9" t="n">
-        <v>71.83211829245539</v>
+        <v>488.1352419653375</v>
       </c>
       <c r="V9" t="n">
-        <v>10.85835194379454</v>
+        <v>488.1352419653375</v>
       </c>
       <c r="W9" t="n">
-        <v>10.85835194379454</v>
+        <v>488.1352419653375</v>
       </c>
       <c r="X9" t="n">
-        <v>10.85835194379454</v>
+        <v>488.1352419653375</v>
       </c>
       <c r="Y9" t="n">
-        <v>10.85835194379454</v>
+        <v>488.1352419653375</v>
       </c>
     </row>
     <row r="10">
@@ -4981,28 +4981,28 @@
         <v>542.917597189727</v>
       </c>
       <c r="Q10" t="n">
-        <v>504.380255843416</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R10" t="n">
-        <v>367.2798525126768</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="S10" t="n">
-        <v>230.1794491819377</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="T10" t="n">
-        <v>93.07904585119849</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="U10" t="n">
-        <v>10.85835194379454</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="V10" t="n">
-        <v>10.85835194379454</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="W10" t="n">
-        <v>10.85835194379454</v>
+        <v>268.7167905282488</v>
       </c>
       <c r="X10" t="n">
-        <v>10.85835194379454</v>
+        <v>131.6163871975096</v>
       </c>
       <c r="Y10" t="n">
         <v>10.85835194379454</v>
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1567.431161670879</v>
+        <v>1346.313765180928</v>
       </c>
       <c r="C11" t="n">
-        <v>1269.522327947654</v>
+        <v>1048.404931457703</v>
       </c>
       <c r="D11" t="n">
-        <v>1269.522327947654</v>
+        <v>759.6058916288953</v>
       </c>
       <c r="E11" t="n">
-        <v>958.7615329977295</v>
+        <v>454.6866396580012</v>
       </c>
       <c r="F11" t="n">
-        <v>628.6352672518683</v>
+        <v>454.6866396580012</v>
       </c>
       <c r="G11" t="n">
-        <v>297.0487502032457</v>
+        <v>123.1001226093786</v>
       </c>
       <c r="H11" t="n">
-        <v>53.29667265019875</v>
+        <v>123.1001226093786</v>
       </c>
       <c r="I11" t="n">
-        <v>53.29667265019875</v>
+        <v>53.29667265019877</v>
       </c>
       <c r="J11" t="n">
         <v>166.2674185418009</v>
@@ -5045,7 +5045,7 @@
         <v>467.8144998655655</v>
       </c>
       <c r="L11" t="n">
-        <v>891.8803257637576</v>
+        <v>891.8803257637577</v>
       </c>
       <c r="M11" t="n">
         <v>1369.88492417339</v>
@@ -5054,37 +5054,37 @@
         <v>1834.353308329474</v>
       </c>
       <c r="O11" t="n">
-        <v>2220.694643393615</v>
+        <v>2220.694643393616</v>
       </c>
       <c r="P11" t="n">
-        <v>2518.270574687118</v>
+        <v>2518.270574687119</v>
       </c>
       <c r="Q11" t="n">
-        <v>2664.833632509938</v>
+        <v>2664.833632509939</v>
       </c>
       <c r="R11" t="n">
-        <v>2664.833632509938</v>
+        <v>2664.833632509939</v>
       </c>
       <c r="S11" t="n">
-        <v>2664.833632509938</v>
+        <v>2572.853441090786</v>
       </c>
       <c r="T11" t="n">
-        <v>2526.655724966643</v>
+        <v>2434.675533547491</v>
       </c>
       <c r="U11" t="n">
-        <v>2408.91413060345</v>
+        <v>2263.854525769711</v>
       </c>
       <c r="V11" t="n">
-        <v>2155.95978144336</v>
+        <v>2263.854525769711</v>
       </c>
       <c r="W11" t="n">
-        <v>1877.449776244929</v>
+        <v>2263.854525769711</v>
       </c>
       <c r="X11" t="n">
-        <v>1877.449776244929</v>
+        <v>1965.849310235173</v>
       </c>
       <c r="Y11" t="n">
-        <v>1877.449776244929</v>
+        <v>1656.332379754979</v>
       </c>
     </row>
     <row r="12">
@@ -5094,16 +5094,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>920.7272604704571</v>
+        <v>920.7272604704568</v>
       </c>
       <c r="C12" t="n">
-        <v>759.0235877114118</v>
+        <v>759.0235877114116</v>
       </c>
       <c r="D12" t="n">
-        <v>620.1849507016238</v>
+        <v>620.1849507016236</v>
       </c>
       <c r="E12" t="n">
-        <v>473.156940758495</v>
+        <v>473.1569407584949</v>
       </c>
       <c r="F12" t="n">
         <v>338.4631427083693</v>
@@ -5115,7 +5115,7 @@
         <v>112.6055089764783</v>
       </c>
       <c r="I12" t="n">
-        <v>53.29667265019875</v>
+        <v>53.29667265019877</v>
       </c>
       <c r="J12" t="n">
         <v>137.9535817797792</v>
@@ -5127,7 +5127,7 @@
         <v>831.0560204948499</v>
       </c>
       <c r="M12" t="n">
-        <v>963.4667207660596</v>
+        <v>1381.534227781518</v>
       </c>
       <c r="N12" t="n">
         <v>1541.909351207845</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>317.2450013568574</v>
+        <v>1790.59748356397</v>
       </c>
       <c r="C13" t="n">
-        <v>317.2450013568574</v>
+        <v>1705.006438969618</v>
       </c>
       <c r="D13" t="n">
-        <v>248.1980331285883</v>
+        <v>1635.959470741349</v>
       </c>
       <c r="E13" t="n">
-        <v>180.2139438338751</v>
+        <v>1635.959470741349</v>
       </c>
       <c r="F13" t="n">
-        <v>180.2139438338751</v>
+        <v>1567.503740711095</v>
       </c>
       <c r="G13" t="n">
-        <v>180.2139438338751</v>
+        <v>1482.829855553036</v>
       </c>
       <c r="H13" t="n">
-        <v>106.8305679431213</v>
+        <v>1409.446479662282</v>
       </c>
       <c r="I13" t="n">
-        <v>53.29667265019875</v>
+        <v>1355.91258436936</v>
       </c>
       <c r="J13" t="n">
-        <v>92.09691108333311</v>
+        <v>1394.712822802494</v>
       </c>
       <c r="K13" t="n">
-        <v>233.2121540029766</v>
+        <v>1535.828065722137</v>
       </c>
       <c r="L13" t="n">
-        <v>448.3659302505777</v>
+        <v>1750.981841969739</v>
       </c>
       <c r="M13" t="n">
-        <v>682.6561851132412</v>
+        <v>1985.272096832402</v>
       </c>
       <c r="N13" t="n">
-        <v>916.5681650535107</v>
+        <v>2219.184076772672</v>
       </c>
       <c r="O13" t="n">
-        <v>1127.991847180004</v>
+        <v>2430.607758899165</v>
       </c>
       <c r="P13" t="n">
-        <v>1299.502912730122</v>
+        <v>2602.118824449283</v>
       </c>
       <c r="Q13" t="n">
-        <v>1362.217720790778</v>
+        <v>2664.833632509939</v>
       </c>
       <c r="R13" t="n">
-        <v>1306.655064076298</v>
+        <v>2609.270975795459</v>
       </c>
       <c r="S13" t="n">
-        <v>1229.06509231502</v>
+        <v>2526.728981860271</v>
       </c>
       <c r="T13" t="n">
-        <v>1080.855074157921</v>
+        <v>2378.518963703172</v>
       </c>
       <c r="U13" t="n">
-        <v>1080.855074157921</v>
+        <v>2175.365700328792</v>
       </c>
       <c r="V13" t="n">
-        <v>904.1446946603119</v>
+        <v>2175.365700328792</v>
       </c>
       <c r="W13" t="n">
-        <v>702.0132181216793</v>
+        <v>2175.365700328792</v>
       </c>
       <c r="X13" t="n">
-        <v>554.7856789610235</v>
+        <v>2028.138161168136</v>
       </c>
       <c r="Y13" t="n">
-        <v>416.7754450972689</v>
+        <v>1890.127927304381</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>966.4120349411585</v>
+        <v>1403.378030594888</v>
       </c>
       <c r="C14" t="n">
-        <v>966.4120349411585</v>
+        <v>1105.469196871664</v>
       </c>
       <c r="D14" t="n">
-        <v>677.6129951123503</v>
+        <v>816.6701570428556</v>
       </c>
       <c r="E14" t="n">
-        <v>366.8522001624256</v>
+        <v>698.4387172110482</v>
       </c>
       <c r="F14" t="n">
-        <v>366.8522001624256</v>
+        <v>698.4387172110482</v>
       </c>
       <c r="G14" t="n">
         <v>366.8522001624256</v>
       </c>
       <c r="H14" t="n">
-        <v>123.1001226093785</v>
+        <v>123.1001226093786</v>
       </c>
       <c r="I14" t="n">
-        <v>53.29667265019875</v>
+        <v>53.29667265019877</v>
       </c>
       <c r="J14" t="n">
-        <v>166.2674185418009</v>
+        <v>166.267418541801</v>
       </c>
       <c r="K14" t="n">
-        <v>467.8144998655656</v>
+        <v>467.8144998655658</v>
       </c>
       <c r="L14" t="n">
-        <v>891.8803257637576</v>
+        <v>891.8803257637582</v>
       </c>
       <c r="M14" t="n">
-        <v>1369.88492417339</v>
+        <v>1369.884924173391</v>
       </c>
       <c r="N14" t="n">
         <v>1834.353308329474</v>
       </c>
       <c r="O14" t="n">
-        <v>2220.694643393615</v>
+        <v>2220.694643393616</v>
       </c>
       <c r="P14" t="n">
-        <v>2518.270574687118</v>
+        <v>2518.270574687119</v>
       </c>
       <c r="Q14" t="n">
-        <v>2664.833632509938</v>
+        <v>2664.833632509939</v>
       </c>
       <c r="R14" t="n">
-        <v>2664.833632509938</v>
+        <v>2664.833632509939</v>
       </c>
       <c r="S14" t="n">
         <v>2572.853441090786</v>
       </c>
       <c r="T14" t="n">
-        <v>2434.67553354749</v>
+        <v>2434.675533547491</v>
       </c>
       <c r="U14" t="n">
-        <v>2415.417149888462</v>
+        <v>2263.854525769711</v>
       </c>
       <c r="V14" t="n">
-        <v>2162.462800728372</v>
+        <v>2010.900176609621</v>
       </c>
       <c r="W14" t="n">
-        <v>1883.952795529941</v>
+        <v>2010.900176609621</v>
       </c>
       <c r="X14" t="n">
-        <v>1585.947579995403</v>
+        <v>1712.894961075082</v>
       </c>
       <c r="Y14" t="n">
-        <v>1276.430649515209</v>
+        <v>1403.378030594888</v>
       </c>
     </row>
     <row r="15">
@@ -5331,16 +5331,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>920.7272604704571</v>
+        <v>920.7272604704568</v>
       </c>
       <c r="C15" t="n">
-        <v>759.0235877114118</v>
+        <v>759.0235877114116</v>
       </c>
       <c r="D15" t="n">
-        <v>620.1849507016238</v>
+        <v>620.1849507016236</v>
       </c>
       <c r="E15" t="n">
-        <v>473.156940758495</v>
+        <v>473.1569407584949</v>
       </c>
       <c r="F15" t="n">
         <v>338.4631427083693</v>
@@ -5352,7 +5352,7 @@
         <v>112.6055089764783</v>
       </c>
       <c r="I15" t="n">
-        <v>53.29667265019875</v>
+        <v>53.29667265019877</v>
       </c>
       <c r="J15" t="n">
         <v>137.9535817797792</v>
@@ -5367,7 +5367,7 @@
         <v>1381.534227781518</v>
       </c>
       <c r="N15" t="n">
-        <v>1541.909351207845</v>
+        <v>1959.976858223303</v>
       </c>
       <c r="O15" t="n">
         <v>1995.563118554409</v>
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>499.2950192933404</v>
+        <v>291.212153484166</v>
       </c>
       <c r="C16" t="n">
-        <v>413.703974698989</v>
+        <v>244.333266201645</v>
       </c>
       <c r="D16" t="n">
-        <v>344.65700647072</v>
+        <v>175.286297973376</v>
       </c>
       <c r="E16" t="n">
-        <v>279.8096637292664</v>
+        <v>175.286297973376</v>
       </c>
       <c r="F16" t="n">
-        <v>211.3539336990118</v>
+        <v>106.8305679431214</v>
       </c>
       <c r="G16" t="n">
-        <v>126.6800485409526</v>
+        <v>106.8305679431214</v>
       </c>
       <c r="H16" t="n">
-        <v>53.29667265019875</v>
+        <v>106.8305679431214</v>
       </c>
       <c r="I16" t="n">
-        <v>53.29667265019875</v>
+        <v>53.29667265019877</v>
       </c>
       <c r="J16" t="n">
-        <v>92.0969110833334</v>
+        <v>92.09691108333303</v>
       </c>
       <c r="K16" t="n">
-        <v>233.2121540029768</v>
+        <v>233.2121540029765</v>
       </c>
       <c r="L16" t="n">
-        <v>448.3659302505782</v>
+        <v>448.3659302505777</v>
       </c>
       <c r="M16" t="n">
-        <v>682.6561851132417</v>
+        <v>682.6561851132413</v>
       </c>
       <c r="N16" t="n">
-        <v>916.5681650535112</v>
+        <v>916.5681650535107</v>
       </c>
       <c r="O16" t="n">
         <v>1127.991847180004</v>
@@ -5461,25 +5461,25 @@
         <v>1306.655064076298</v>
       </c>
       <c r="S16" t="n">
-        <v>1180.820582444373</v>
+        <v>1306.655064076298</v>
       </c>
       <c r="T16" t="n">
-        <v>1180.820582444373</v>
+        <v>1158.445045919198</v>
       </c>
       <c r="U16" t="n">
-        <v>977.6673190699936</v>
+        <v>955.2917825448185</v>
       </c>
       <c r="V16" t="n">
-        <v>800.9569395723845</v>
+        <v>778.5814030472093</v>
       </c>
       <c r="W16" t="n">
-        <v>598.8254630337519</v>
+        <v>576.4499265085767</v>
       </c>
       <c r="X16" t="n">
-        <v>598.8254630337519</v>
+        <v>429.2223873479207</v>
       </c>
       <c r="Y16" t="n">
-        <v>598.8254630337519</v>
+        <v>291.212153484166</v>
       </c>
     </row>
     <row r="17">
@@ -5495,7 +5495,7 @@
         <v>1186.399656820291</v>
       </c>
       <c r="D17" t="n">
-        <v>971.9849591827171</v>
+        <v>971.9849591827173</v>
       </c>
       <c r="E17" t="n">
         <v>735.6085064240267</v>
@@ -5507,58 +5507,58 @@
         <v>222.6644080120114</v>
       </c>
       <c r="H17" t="n">
-        <v>53.29667265019875</v>
+        <v>53.29667265019877</v>
       </c>
       <c r="I17" t="n">
-        <v>53.29667265019875</v>
+        <v>53.29667265019877</v>
       </c>
       <c r="J17" t="n">
-        <v>166.2674185418009</v>
+        <v>166.267418541801</v>
       </c>
       <c r="K17" t="n">
-        <v>467.8144998655656</v>
+        <v>467.8144998655658</v>
       </c>
       <c r="L17" t="n">
-        <v>891.8803257637578</v>
+        <v>891.8803257637582</v>
       </c>
       <c r="M17" t="n">
-        <v>1369.88492417339</v>
+        <v>1369.884924173391</v>
       </c>
       <c r="N17" t="n">
-        <v>1834.353308329474</v>
+        <v>1834.353308329475</v>
       </c>
       <c r="O17" t="n">
-        <v>2220.694643393615</v>
+        <v>2220.694643393616</v>
       </c>
       <c r="P17" t="n">
-        <v>2518.270574687118</v>
+        <v>2518.270574687119</v>
       </c>
       <c r="Q17" t="n">
-        <v>2664.833632509938</v>
+        <v>2664.833632509939</v>
       </c>
       <c r="R17" t="n">
-        <v>2664.833632509938</v>
+        <v>2664.833632509939</v>
       </c>
       <c r="S17" t="n">
-        <v>2647.23778328202</v>
+        <v>2647.237783282021</v>
       </c>
       <c r="T17" t="n">
-        <v>2583.444217929959</v>
+        <v>2583.44421792996</v>
       </c>
       <c r="U17" t="n">
-        <v>2487.007552343412</v>
+        <v>2487.007552343414</v>
       </c>
       <c r="V17" t="n">
-        <v>2308.437545374557</v>
+        <v>2308.437545374558</v>
       </c>
       <c r="W17" t="n">
-        <v>2104.31188236736</v>
+        <v>2104.311882367362</v>
       </c>
       <c r="X17" t="n">
-        <v>1880.691009024056</v>
+        <v>1880.691009024058</v>
       </c>
       <c r="Y17" t="n">
-        <v>1645.558420735097</v>
+        <v>1645.558420735098</v>
       </c>
     </row>
     <row r="18">
@@ -5568,16 +5568,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>920.7272604704571</v>
+        <v>920.7272604704568</v>
       </c>
       <c r="C18" t="n">
-        <v>759.0235877114118</v>
+        <v>759.0235877114116</v>
       </c>
       <c r="D18" t="n">
-        <v>620.1849507016238</v>
+        <v>620.1849507016236</v>
       </c>
       <c r="E18" t="n">
-        <v>473.156940758495</v>
+        <v>473.1569407584949</v>
       </c>
       <c r="F18" t="n">
         <v>338.4631427083693</v>
@@ -5589,28 +5589,28 @@
         <v>112.6055089764783</v>
       </c>
       <c r="I18" t="n">
-        <v>53.29667265019875</v>
+        <v>53.29667265019877</v>
       </c>
       <c r="J18" t="n">
-        <v>53.29667265019875</v>
+        <v>137.9535817797792</v>
       </c>
       <c r="K18" t="n">
-        <v>181.8269866547947</v>
+        <v>409.1523424321824</v>
       </c>
       <c r="L18" t="n">
-        <v>603.7306647174621</v>
+        <v>831.0560204948499</v>
       </c>
       <c r="M18" t="n">
-        <v>1154.20887200413</v>
+        <v>1381.534227781518</v>
       </c>
       <c r="N18" t="n">
-        <v>1732.651502445915</v>
+        <v>1959.976858223303</v>
       </c>
       <c r="O18" t="n">
-        <v>2186.305269792479</v>
+        <v>1995.563118554409</v>
       </c>
       <c r="P18" t="n">
-        <v>2537.723294723684</v>
+        <v>2346.981143485614</v>
       </c>
       <c r="Q18" t="n">
         <v>2537.723294723684</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>74.79291802013992</v>
+        <v>120.8526022368945</v>
       </c>
       <c r="C19" t="n">
-        <v>63.5862156170229</v>
+        <v>109.6458998337774</v>
       </c>
       <c r="D19" t="n">
-        <v>63.5862156170229</v>
+        <v>109.6458998337774</v>
       </c>
       <c r="E19" t="n">
-        <v>63.5862156170229</v>
+        <v>109.6458998337774</v>
       </c>
       <c r="F19" t="n">
-        <v>63.5862156170229</v>
+        <v>109.6458998337774</v>
       </c>
       <c r="G19" t="n">
-        <v>53.29667265019875</v>
+        <v>53.29667265019877</v>
       </c>
       <c r="H19" t="n">
-        <v>53.29667265019875</v>
+        <v>53.29667265019877</v>
       </c>
       <c r="I19" t="n">
-        <v>53.29667265019875</v>
+        <v>53.29667265019877</v>
       </c>
       <c r="J19" t="n">
-        <v>53.29667265019875</v>
+        <v>53.29667265019877</v>
       </c>
       <c r="K19" t="n">
-        <v>112.0590866322588</v>
+        <v>112.0590866322589</v>
       </c>
       <c r="L19" t="n">
-        <v>244.8600339422767</v>
+        <v>244.8600339422769</v>
       </c>
       <c r="M19" t="n">
-        <v>396.797459867357</v>
+        <v>396.7974598673572</v>
       </c>
       <c r="N19" t="n">
-        <v>548.3566108700431</v>
+        <v>548.3566108700434</v>
       </c>
       <c r="O19" t="n">
-        <v>677.4274640589531</v>
+        <v>677.4274640589533</v>
       </c>
       <c r="P19" t="n">
-        <v>766.5857006714878</v>
+        <v>766.585700671488</v>
       </c>
       <c r="Q19" t="n">
-        <v>766.5857006714878</v>
+        <v>766.585700671488</v>
       </c>
       <c r="R19" t="n">
-        <v>766.5857006714878</v>
+        <v>766.585700671488</v>
       </c>
       <c r="S19" t="n">
-        <v>669.075877014042</v>
+        <v>715.1355612307971</v>
       </c>
       <c r="T19" t="n">
-        <v>595.250201048177</v>
+        <v>641.3098852649319</v>
       </c>
       <c r="U19" t="n">
-        <v>466.4812798650318</v>
+        <v>512.5409640817866</v>
       </c>
       <c r="V19" t="n">
-        <v>364.1552425586571</v>
+        <v>410.2149267754118</v>
       </c>
       <c r="W19" t="n">
-        <v>236.4081082112588</v>
+        <v>282.4677924280136</v>
       </c>
       <c r="X19" t="n">
-        <v>163.5649112418373</v>
+        <v>209.624595458592</v>
       </c>
       <c r="Y19" t="n">
-        <v>99.93901956931705</v>
+        <v>145.9987037860717</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1409.924148352281</v>
+        <v>1409.924148352283</v>
       </c>
       <c r="C20" t="n">
-        <v>1186.399656820292</v>
+        <v>1186.399656820293</v>
       </c>
       <c r="D20" t="n">
-        <v>971.9849591827178</v>
+        <v>971.9849591827193</v>
       </c>
       <c r="E20" t="n">
-        <v>735.6085064240274</v>
+        <v>735.6085064240287</v>
       </c>
       <c r="F20" t="n">
-        <v>479.8665828694004</v>
+        <v>479.8665828694017</v>
       </c>
       <c r="G20" t="n">
         <v>222.6644080120114</v>
       </c>
       <c r="H20" t="n">
-        <v>53.29667265019875</v>
+        <v>53.29667265019877</v>
       </c>
       <c r="I20" t="n">
-        <v>53.29667265019875</v>
+        <v>53.29667265019877</v>
       </c>
       <c r="J20" t="n">
-        <v>166.2674185418008</v>
+        <v>166.267418541801</v>
       </c>
       <c r="K20" t="n">
-        <v>467.8144998655654</v>
+        <v>467.8144998655658</v>
       </c>
       <c r="L20" t="n">
-        <v>891.8803257637576</v>
+        <v>891.880325763758</v>
       </c>
       <c r="M20" t="n">
-        <v>1369.88492417339</v>
+        <v>1369.884924173391</v>
       </c>
       <c r="N20" t="n">
-        <v>1834.353308329474</v>
+        <v>1834.353308329475</v>
       </c>
       <c r="O20" t="n">
-        <v>2220.694643393615</v>
+        <v>2220.694643393616</v>
       </c>
       <c r="P20" t="n">
-        <v>2518.270574687118</v>
+        <v>2518.270574687119</v>
       </c>
       <c r="Q20" t="n">
-        <v>2664.833632509938</v>
+        <v>2664.833632509939</v>
       </c>
       <c r="R20" t="n">
-        <v>2664.833632509938</v>
+        <v>2664.833632509939</v>
       </c>
       <c r="S20" t="n">
-        <v>2647.23778328202</v>
+        <v>2647.237783282022</v>
       </c>
       <c r="T20" t="n">
-        <v>2583.444217929959</v>
+        <v>2583.444217929961</v>
       </c>
       <c r="U20" t="n">
-        <v>2487.007552343413</v>
+        <v>2487.007552343415</v>
       </c>
       <c r="V20" t="n">
-        <v>2308.437545374557</v>
+        <v>2308.437545374559</v>
       </c>
       <c r="W20" t="n">
-        <v>2104.311882367361</v>
+        <v>2104.311882367363</v>
       </c>
       <c r="X20" t="n">
-        <v>1880.691009024057</v>
+        <v>1880.691009024059</v>
       </c>
       <c r="Y20" t="n">
-        <v>1645.558420735098</v>
+        <v>1645.5584207351</v>
       </c>
     </row>
     <row r="21">
@@ -5805,16 +5805,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>920.7272604704571</v>
+        <v>920.7272604704568</v>
       </c>
       <c r="C21" t="n">
-        <v>759.0235877114118</v>
+        <v>759.0235877114116</v>
       </c>
       <c r="D21" t="n">
-        <v>620.1849507016238</v>
+        <v>620.1849507016236</v>
       </c>
       <c r="E21" t="n">
-        <v>473.156940758495</v>
+        <v>473.1569407584949</v>
       </c>
       <c r="F21" t="n">
         <v>338.4631427083693</v>
@@ -5826,28 +5826,28 @@
         <v>112.6055089764783</v>
       </c>
       <c r="I21" t="n">
-        <v>53.29667265019875</v>
+        <v>53.29667265019877</v>
       </c>
       <c r="J21" t="n">
-        <v>53.29667265019875</v>
+        <v>137.9535817797792</v>
       </c>
       <c r="K21" t="n">
-        <v>181.8269866547947</v>
+        <v>409.1523424321824</v>
       </c>
       <c r="L21" t="n">
-        <v>603.7306647174621</v>
+        <v>831.0560204948499</v>
       </c>
       <c r="M21" t="n">
-        <v>1154.20887200413</v>
+        <v>1381.534227781518</v>
       </c>
       <c r="N21" t="n">
-        <v>1732.651502445915</v>
+        <v>1541.909351207845</v>
       </c>
       <c r="O21" t="n">
-        <v>2186.305269792479</v>
+        <v>1995.563118554409</v>
       </c>
       <c r="P21" t="n">
-        <v>2537.723294723684</v>
+        <v>2346.981143485614</v>
       </c>
       <c r="Q21" t="n">
         <v>2537.723294723684</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>119.2298025262607</v>
+        <v>74.79291802014006</v>
       </c>
       <c r="C22" t="n">
-        <v>108.0231001231437</v>
+        <v>63.58621561702299</v>
       </c>
       <c r="D22" t="n">
-        <v>108.0231001231437</v>
+        <v>63.58621561702299</v>
       </c>
       <c r="E22" t="n">
-        <v>108.0231001231437</v>
+        <v>63.58621561702299</v>
       </c>
       <c r="F22" t="n">
-        <v>108.0231001231437</v>
+        <v>63.58621561702299</v>
       </c>
       <c r="G22" t="n">
-        <v>97.73355715631956</v>
+        <v>53.29667265019877</v>
       </c>
       <c r="H22" t="n">
-        <v>97.73355715631956</v>
+        <v>53.29667265019877</v>
       </c>
       <c r="I22" t="n">
-        <v>97.73355715631956</v>
+        <v>53.29667265019877</v>
       </c>
       <c r="J22" t="n">
-        <v>53.29667265019875</v>
+        <v>53.29667265019877</v>
       </c>
       <c r="K22" t="n">
-        <v>112.0590866322588</v>
+        <v>112.0590866322589</v>
       </c>
       <c r="L22" t="n">
-        <v>244.8600339422767</v>
+        <v>244.8600339422769</v>
       </c>
       <c r="M22" t="n">
-        <v>396.797459867357</v>
+        <v>396.7974598673572</v>
       </c>
       <c r="N22" t="n">
-        <v>548.3566108700431</v>
+        <v>548.3566108700434</v>
       </c>
       <c r="O22" t="n">
-        <v>677.4274640589531</v>
+        <v>677.4274640589533</v>
       </c>
       <c r="P22" t="n">
-        <v>766.5857006714878</v>
+        <v>766.585700671488</v>
       </c>
       <c r="Q22" t="n">
-        <v>766.5857006714878</v>
+        <v>746.5489484248526</v>
       </c>
       <c r="R22" t="n">
-        <v>766.5857006714878</v>
+        <v>746.5489484248526</v>
       </c>
       <c r="S22" t="n">
-        <v>715.1355612307968</v>
+        <v>695.0988089841617</v>
       </c>
       <c r="T22" t="n">
-        <v>641.3098852649318</v>
+        <v>595.2502010481775</v>
       </c>
       <c r="U22" t="n">
-        <v>512.5409640817866</v>
+        <v>466.4812798650321</v>
       </c>
       <c r="V22" t="n">
-        <v>410.2149267754119</v>
+        <v>364.1552425586574</v>
       </c>
       <c r="W22" t="n">
-        <v>282.4677924280137</v>
+        <v>236.4081082112592</v>
       </c>
       <c r="X22" t="n">
-        <v>209.6245954585922</v>
+        <v>163.5649112418375</v>
       </c>
       <c r="Y22" t="n">
-        <v>144.3759040754379</v>
+        <v>99.93901956931725</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1409.92414835228</v>
+        <v>1409.924148352281</v>
       </c>
       <c r="C23" t="n">
-        <v>1186.39965682029</v>
+        <v>1186.399656820291</v>
       </c>
       <c r="D23" t="n">
-        <v>971.9849591827162</v>
+        <v>971.9849591827171</v>
       </c>
       <c r="E23" t="n">
-        <v>735.608506424026</v>
+        <v>735.6085064240267</v>
       </c>
       <c r="F23" t="n">
-        <v>479.8665828693993</v>
+        <v>479.8665828693997</v>
       </c>
       <c r="G23" t="n">
         <v>222.6644080120114</v>
       </c>
       <c r="H23" t="n">
-        <v>53.29667265019873</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="I23" t="n">
-        <v>53.29667265019873</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="J23" t="n">
         <v>166.2674185418009</v>
       </c>
       <c r="K23" t="n">
-        <v>467.8144998655656</v>
+        <v>467.8144998655655</v>
       </c>
       <c r="L23" t="n">
         <v>891.8803257637577</v>
@@ -6002,37 +6002,37 @@
         <v>1834.353308329474</v>
       </c>
       <c r="O23" t="n">
-        <v>2220.694643393614</v>
+        <v>2220.694643393615</v>
       </c>
       <c r="P23" t="n">
-        <v>2518.270574687117</v>
+        <v>2518.270574687118</v>
       </c>
       <c r="Q23" t="n">
-        <v>2664.833632509936</v>
+        <v>2664.833632509938</v>
       </c>
       <c r="R23" t="n">
-        <v>2664.833632509936</v>
+        <v>2664.833632509938</v>
       </c>
       <c r="S23" t="n">
-        <v>2647.237783282018</v>
+        <v>2647.23778328202</v>
       </c>
       <c r="T23" t="n">
-        <v>2583.444217929958</v>
+        <v>2583.444217929959</v>
       </c>
       <c r="U23" t="n">
-        <v>2487.007552343412</v>
+        <v>2487.007552343413</v>
       </c>
       <c r="V23" t="n">
-        <v>2308.437545374556</v>
+        <v>2308.437545374557</v>
       </c>
       <c r="W23" t="n">
-        <v>2104.311882367359</v>
+        <v>2104.311882367361</v>
       </c>
       <c r="X23" t="n">
-        <v>1880.691009024056</v>
+        <v>1880.691009024057</v>
       </c>
       <c r="Y23" t="n">
-        <v>1645.558420735096</v>
+        <v>1645.558420735098</v>
       </c>
     </row>
     <row r="24">
@@ -6063,28 +6063,28 @@
         <v>112.6055089764783</v>
       </c>
       <c r="I24" t="n">
-        <v>53.29667265019873</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="J24" t="n">
-        <v>53.29667265019873</v>
+        <v>137.9535817797792</v>
       </c>
       <c r="K24" t="n">
-        <v>324.495433302602</v>
+        <v>137.9535817797792</v>
       </c>
       <c r="L24" t="n">
-        <v>746.3991113652694</v>
+        <v>559.8572598424466</v>
       </c>
       <c r="M24" t="n">
-        <v>1296.877318651937</v>
+        <v>963.4667207660596</v>
       </c>
       <c r="N24" t="n">
-        <v>1732.651502445915</v>
+        <v>1541.909351207845</v>
       </c>
       <c r="O24" t="n">
-        <v>2186.305269792479</v>
+        <v>1995.563118554409</v>
       </c>
       <c r="P24" t="n">
-        <v>2537.723294723684</v>
+        <v>2346.981143485614</v>
       </c>
       <c r="Q24" t="n">
         <v>2537.723294723684</v>
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>74.79291802013991</v>
+        <v>74.79291802014004</v>
       </c>
       <c r="C25" t="n">
-        <v>63.58621561702289</v>
+        <v>63.58621561702296</v>
       </c>
       <c r="D25" t="n">
-        <v>63.58621561702289</v>
+        <v>63.58621561702296</v>
       </c>
       <c r="E25" t="n">
-        <v>63.58621561702289</v>
+        <v>63.58621561702296</v>
       </c>
       <c r="F25" t="n">
-        <v>63.58621561702289</v>
+        <v>63.58621561702296</v>
       </c>
       <c r="G25" t="n">
-        <v>53.29667265019873</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="H25" t="n">
-        <v>53.29667265019873</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="I25" t="n">
-        <v>53.29667265019873</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="J25" t="n">
-        <v>53.29667265019873</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="K25" t="n">
         <v>112.0590866322588</v>
@@ -6169,28 +6169,28 @@
         <v>766.5857006714878</v>
       </c>
       <c r="R25" t="n">
-        <v>720.5260164547328</v>
+        <v>720.5260164547335</v>
       </c>
       <c r="S25" t="n">
-        <v>669.0758770140419</v>
+        <v>669.0758770140426</v>
       </c>
       <c r="T25" t="n">
-        <v>595.2502010481769</v>
+        <v>595.2502010481775</v>
       </c>
       <c r="U25" t="n">
-        <v>466.4812798650317</v>
+        <v>466.4812798650321</v>
       </c>
       <c r="V25" t="n">
-        <v>364.155242558657</v>
+        <v>364.1552425586574</v>
       </c>
       <c r="W25" t="n">
-        <v>236.4081082112588</v>
+        <v>236.4081082112591</v>
       </c>
       <c r="X25" t="n">
-        <v>163.5649112418373</v>
+        <v>163.5649112418375</v>
       </c>
       <c r="Y25" t="n">
-        <v>99.93901956931704</v>
+        <v>99.93901956931722</v>
       </c>
     </row>
     <row r="26">
@@ -6209,52 +6209,52 @@
         <v>1252.919905224304</v>
       </c>
       <c r="E26" t="n">
-        <v>962.7170795131499</v>
+        <v>962.7170795131503</v>
       </c>
       <c r="F26" t="n">
-        <v>653.1487830060596</v>
+        <v>653.1487830060598</v>
       </c>
       <c r="G26" t="n">
         <v>342.1202351962079</v>
       </c>
       <c r="H26" t="n">
-        <v>118.9261268819319</v>
+        <v>118.926126881932</v>
       </c>
       <c r="I26" t="n">
-        <v>69.68064616152314</v>
+        <v>69.68064616152317</v>
       </c>
       <c r="J26" t="n">
-        <v>223.9630222670849</v>
+        <v>285.1530866416282</v>
       </c>
       <c r="K26" t="n">
-        <v>628.0117981793522</v>
+        <v>689.2018625538956</v>
       </c>
       <c r="L26" t="n">
-        <v>1154.579318666047</v>
+        <v>1215.769383040591</v>
       </c>
       <c r="M26" t="n">
-        <v>1735.085611664182</v>
+        <v>1735.085611664183</v>
       </c>
       <c r="N26" t="n">
         <v>2302.055690408769</v>
       </c>
       <c r="O26" t="n">
-        <v>2790.898720061413</v>
+        <v>2790.898720061414</v>
       </c>
       <c r="P26" t="n">
-        <v>3190.976345943418</v>
+        <v>3190.976345943419</v>
       </c>
       <c r="Q26" t="n">
-        <v>3440.041098354741</v>
+        <v>3440.041098354742</v>
       </c>
       <c r="R26" t="n">
-        <v>3484.032308076157</v>
+        <v>3484.032308076158</v>
       </c>
       <c r="S26" t="n">
-        <v>3412.610085895776</v>
+        <v>3412.610085895777</v>
       </c>
       <c r="T26" t="n">
-        <v>3294.990147591252</v>
+        <v>3294.990147591253</v>
       </c>
       <c r="U26" t="n">
         <v>3144.727109052244</v>
@@ -6263,7 +6263,7 @@
         <v>2912.330729130924</v>
       </c>
       <c r="W26" t="n">
-        <v>2654.378693171264</v>
+        <v>2654.378693171265</v>
       </c>
       <c r="X26" t="n">
         <v>2376.931446875497</v>
@@ -6297,31 +6297,31 @@
         <v>226.3821508121852</v>
       </c>
       <c r="H27" t="n">
-        <v>128.9894824878027</v>
+        <v>128.9894824878028</v>
       </c>
       <c r="I27" t="n">
-        <v>69.68064616152314</v>
+        <v>69.68064616152317</v>
       </c>
       <c r="J27" t="n">
-        <v>154.3375552911036</v>
+        <v>69.68064616152317</v>
       </c>
       <c r="K27" t="n">
-        <v>425.5363159435068</v>
+        <v>69.68064616152317</v>
       </c>
       <c r="L27" t="n">
-        <v>847.4399940061742</v>
+        <v>491.5843242241906</v>
       </c>
       <c r="M27" t="n">
-        <v>1397.918201292842</v>
+        <v>1042.062531510858</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.293324719169</v>
+        <v>1620.505161952644</v>
       </c>
       <c r="O27" t="n">
-        <v>2011.947092065733</v>
+        <v>2074.158929299208</v>
       </c>
       <c r="P27" t="n">
-        <v>2363.365116996938</v>
+        <v>2425.576954230413</v>
       </c>
       <c r="Q27" t="n">
         <v>2554.107268235009</v>
@@ -6358,49 +6358,49 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>428.4438499794491</v>
+        <v>428.4438499794488</v>
       </c>
       <c r="C28" t="n">
-        <v>363.4107746238686</v>
+        <v>363.4107746238684</v>
       </c>
       <c r="D28" t="n">
-        <v>314.9217756343707</v>
+        <v>314.9217756343705</v>
       </c>
       <c r="E28" t="n">
-        <v>267.4956555784289</v>
+        <v>267.4956555784286</v>
       </c>
       <c r="F28" t="n">
-        <v>219.5978947869453</v>
+        <v>219.5978947869451</v>
       </c>
       <c r="G28" t="n">
-        <v>155.4819788676577</v>
+        <v>155.4819788676575</v>
       </c>
       <c r="H28" t="n">
-        <v>102.6565722156748</v>
+        <v>102.6565722156747</v>
       </c>
       <c r="I28" t="n">
-        <v>69.68064616152314</v>
+        <v>69.68064616152317</v>
       </c>
       <c r="J28" t="n">
-        <v>128.6297502455769</v>
+        <v>128.6297502455766</v>
       </c>
       <c r="K28" t="n">
-        <v>289.8938588161398</v>
+        <v>289.8938588161395</v>
       </c>
       <c r="L28" t="n">
-        <v>525.1965007146607</v>
+        <v>525.1965007146604</v>
       </c>
       <c r="M28" t="n">
-        <v>779.6356212282438</v>
+        <v>779.6356212282434</v>
       </c>
       <c r="N28" t="n">
-        <v>1033.696466819433</v>
+        <v>1033.696466819432</v>
       </c>
       <c r="O28" t="n">
         <v>1265.269014596845</v>
       </c>
       <c r="P28" t="n">
-        <v>1456.928945797883</v>
+        <v>1456.928945797882</v>
       </c>
       <c r="Q28" t="n">
         <v>1539.792619509458</v>
@@ -6409,7 +6409,7 @@
         <v>1504.787932033749</v>
       </c>
       <c r="S28" t="n">
-        <v>1399.511419640594</v>
+        <v>1399.511419640595</v>
       </c>
       <c r="T28" t="n">
         <v>1271.859370722266</v>
@@ -6427,7 +6427,7 @@
         <v>624.8685891060732</v>
       </c>
       <c r="Y28" t="n">
-        <v>507.4163244810896</v>
+        <v>507.4163244810893</v>
       </c>
     </row>
     <row r="29">
@@ -6464,13 +6464,13 @@
         <v>285.1530866416282</v>
       </c>
       <c r="K29" t="n">
-        <v>628.0117981793526</v>
+        <v>689.2018625538956</v>
       </c>
       <c r="L29" t="n">
-        <v>1154.579318666048</v>
+        <v>1215.769383040591</v>
       </c>
       <c r="M29" t="n">
-        <v>1735.085611664183</v>
+        <v>1796.275676038726</v>
       </c>
       <c r="N29" t="n">
         <v>2302.055690408769</v>
@@ -6540,25 +6540,25 @@
         <v>69.68064616152316</v>
       </c>
       <c r="J30" t="n">
-        <v>154.3375552911036</v>
+        <v>69.68064616152316</v>
       </c>
       <c r="K30" t="n">
-        <v>425.5363159435068</v>
+        <v>69.68064616152316</v>
       </c>
       <c r="L30" t="n">
-        <v>847.4399940061742</v>
+        <v>491.5843242241906</v>
       </c>
       <c r="M30" t="n">
-        <v>1397.918201292842</v>
+        <v>1042.062531510858</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.293324719169</v>
+        <v>1620.505161952644</v>
       </c>
       <c r="O30" t="n">
-        <v>2011.947092065733</v>
+        <v>2074.158929299208</v>
       </c>
       <c r="P30" t="n">
-        <v>2363.365116996938</v>
+        <v>2425.576954230413</v>
       </c>
       <c r="Q30" t="n">
         <v>2554.107268235009</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>428.4438499794492</v>
+        <v>428.4438499794488</v>
       </c>
       <c r="C31" t="n">
-        <v>363.4107746238689</v>
+        <v>363.4107746238685</v>
       </c>
       <c r="D31" t="n">
-        <v>314.9217756343709</v>
+        <v>314.9217756343705</v>
       </c>
       <c r="E31" t="n">
-        <v>267.4956555784291</v>
+        <v>267.4956555784287</v>
       </c>
       <c r="F31" t="n">
-        <v>219.5978947869455</v>
+        <v>219.5978947869451</v>
       </c>
       <c r="G31" t="n">
-        <v>155.481978867658</v>
+        <v>155.4819788676576</v>
       </c>
       <c r="H31" t="n">
         <v>102.6565722156747</v>
@@ -6622,13 +6622,13 @@
         <v>128.629750245577</v>
       </c>
       <c r="K31" t="n">
-        <v>289.8938588161399</v>
+        <v>289.8938588161396</v>
       </c>
       <c r="L31" t="n">
-        <v>525.1965007146606</v>
+        <v>525.1965007146604</v>
       </c>
       <c r="M31" t="n">
-        <v>779.6356212282436</v>
+        <v>779.6356212282435</v>
       </c>
       <c r="N31" t="n">
         <v>1033.696466819432</v>
@@ -6646,25 +6646,25 @@
         <v>1504.787932033749</v>
       </c>
       <c r="S31" t="n">
-        <v>1399.511419640595</v>
+        <v>1399.511419640594</v>
       </c>
       <c r="T31" t="n">
-        <v>1271.859370722267</v>
+        <v>1271.859370722265</v>
       </c>
       <c r="U31" t="n">
-        <v>1089.264076586658</v>
+        <v>1089.264076586657</v>
       </c>
       <c r="V31" t="n">
-        <v>933.1116663278201</v>
+        <v>933.1116663278187</v>
       </c>
       <c r="W31" t="n">
-        <v>751.5381590279585</v>
+        <v>751.5381590279572</v>
       </c>
       <c r="X31" t="n">
-        <v>624.8685891060736</v>
+        <v>624.8685891060724</v>
       </c>
       <c r="Y31" t="n">
-        <v>507.4163244810898</v>
+        <v>507.4163244810893</v>
       </c>
     </row>
     <row r="32">
@@ -6683,16 +6683,16 @@
         <v>1064.708471531865</v>
       </c>
       <c r="E32" t="n">
-        <v>809.9762621704401</v>
+        <v>809.97626217044</v>
       </c>
       <c r="F32" t="n">
-        <v>535.8785820130786</v>
+        <v>535.8785820130784</v>
       </c>
       <c r="G32" t="n">
-        <v>260.3206505529558</v>
+        <v>260.3206505529554</v>
       </c>
       <c r="H32" t="n">
-        <v>72.59715858840862</v>
+        <v>72.5971585884087</v>
       </c>
       <c r="I32" t="n">
         <v>58.82229421772861</v>
@@ -6707,28 +6707,28 @@
         <v>897.4059473312875</v>
       </c>
       <c r="M32" t="n">
-        <v>1512.676991413792</v>
+        <v>1375.41054574092</v>
       </c>
       <c r="N32" t="n">
-        <v>2110.634386705967</v>
+        <v>1839.878929897004</v>
       </c>
       <c r="O32" t="n">
-        <v>2496.975721770109</v>
+        <v>2226.220264961145</v>
       </c>
       <c r="P32" t="n">
-        <v>2794.551653063611</v>
+        <v>2578.529246584954</v>
       </c>
       <c r="Q32" t="n">
-        <v>2941.114710886431</v>
+        <v>2862.358750080645</v>
       </c>
       <c r="R32" t="n">
         <v>2941.114710886431</v>
       </c>
       <c r="S32" t="n">
-        <v>2905.163105055779</v>
+        <v>2905.163105055778</v>
       </c>
       <c r="T32" t="n">
-        <v>2823.013783100983</v>
+        <v>2823.013783100982</v>
       </c>
       <c r="U32" t="n">
         <v>2708.221360911703</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>171.78587388313</v>
+        <v>171.7858738831305</v>
       </c>
       <c r="C34" t="n">
-        <v>142.2234148772784</v>
+        <v>142.2234148772789</v>
       </c>
       <c r="D34" t="n">
-        <v>129.2050322375093</v>
+        <v>129.2050322375096</v>
       </c>
       <c r="E34" t="n">
-        <v>117.2495285312962</v>
+        <v>117.2495285312965</v>
       </c>
       <c r="F34" t="n">
-        <v>104.8223840895414</v>
+        <v>104.8223840895416</v>
       </c>
       <c r="G34" t="n">
-        <v>76.1770845199827</v>
+        <v>76.17708451998278</v>
       </c>
       <c r="H34" t="n">
         <v>58.82229421772861</v>
@@ -6856,52 +6856,52 @@
         <v>58.82229421772861</v>
       </c>
       <c r="J34" t="n">
-        <v>58.82229421772861</v>
+        <v>113.8095514454402</v>
       </c>
       <c r="K34" t="n">
-        <v>117.5847081997887</v>
+        <v>172.5719654275003</v>
       </c>
       <c r="L34" t="n">
-        <v>250.3856555098066</v>
+        <v>305.3729127375182</v>
       </c>
       <c r="M34" t="n">
-        <v>402.3230814348869</v>
+        <v>594.5767843354704</v>
       </c>
       <c r="N34" t="n">
-        <v>553.882232437573</v>
+        <v>746.1359353381565</v>
       </c>
       <c r="O34" t="n">
-        <v>682.9530856264829</v>
+        <v>875.2067885270665</v>
       </c>
       <c r="P34" t="n">
-        <v>909.3777679118895</v>
+        <v>964.365025139601</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.3650251395998</v>
+        <v>964.365025139601</v>
       </c>
       <c r="R34" t="n">
-        <v>964.3650251395998</v>
+        <v>964.365025139601</v>
       </c>
       <c r="S34" t="n">
-        <v>894.5591290961743</v>
+        <v>894.5591290961754</v>
       </c>
       <c r="T34" t="n">
-        <v>802.3776965275747</v>
+        <v>802.3776965275757</v>
       </c>
       <c r="U34" t="n">
-        <v>655.2530187416949</v>
+        <v>655.2530187416958</v>
       </c>
       <c r="V34" t="n">
-        <v>534.5712248325856</v>
+        <v>534.5712248325864</v>
       </c>
       <c r="W34" t="n">
-        <v>388.4683338824527</v>
+        <v>388.4683338824535</v>
       </c>
       <c r="X34" t="n">
-        <v>297.2693803102966</v>
+        <v>297.2693803102973</v>
       </c>
       <c r="Y34" t="n">
-        <v>215.2877320350418</v>
+        <v>215.2877320350424</v>
       </c>
     </row>
     <row r="35">
@@ -6911,37 +6911,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1409.92414835228</v>
+        <v>1409.924148352281</v>
       </c>
       <c r="C35" t="n">
         <v>1186.399656820291</v>
       </c>
       <c r="D35" t="n">
-        <v>971.9849591827171</v>
+        <v>971.9849591827169</v>
       </c>
       <c r="E35" t="n">
-        <v>735.6085064240267</v>
+        <v>735.6085064240262</v>
       </c>
       <c r="F35" t="n">
-        <v>479.8665828693997</v>
+        <v>479.8665828693993</v>
       </c>
       <c r="G35" t="n">
         <v>222.6644080120114</v>
       </c>
       <c r="H35" t="n">
-        <v>53.29667265019874</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="I35" t="n">
-        <v>53.29667265019874</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="J35" t="n">
         <v>166.2674185418009</v>
       </c>
       <c r="K35" t="n">
-        <v>467.8144998655653</v>
+        <v>467.8144998655656</v>
       </c>
       <c r="L35" t="n">
-        <v>891.8803257637574</v>
+        <v>891.8803257637578</v>
       </c>
       <c r="M35" t="n">
         <v>1369.88492417339</v>
@@ -6953,28 +6953,28 @@
         <v>2220.694643393615</v>
       </c>
       <c r="P35" t="n">
-        <v>2518.270574687117</v>
+        <v>2518.270574687118</v>
       </c>
       <c r="Q35" t="n">
-        <v>2664.833632509937</v>
+        <v>2664.833632509938</v>
       </c>
       <c r="R35" t="n">
-        <v>2664.833632509937</v>
+        <v>2664.833632509938</v>
       </c>
       <c r="S35" t="n">
-        <v>2647.237783282019</v>
+        <v>2647.23778328202</v>
       </c>
       <c r="T35" t="n">
         <v>2583.444217929959</v>
       </c>
       <c r="U35" t="n">
-        <v>2487.007552343412</v>
+        <v>2487.007552343413</v>
       </c>
       <c r="V35" t="n">
         <v>2308.437545374557</v>
       </c>
       <c r="W35" t="n">
-        <v>2104.31188236736</v>
+        <v>2104.311882367361</v>
       </c>
       <c r="X35" t="n">
         <v>1880.691009024056</v>
@@ -6990,16 +6990,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>920.7272604704568</v>
+        <v>920.7272604704571</v>
       </c>
       <c r="C36" t="n">
-        <v>759.0235877114116</v>
+        <v>759.0235877114118</v>
       </c>
       <c r="D36" t="n">
-        <v>620.1849507016236</v>
+        <v>620.1849507016238</v>
       </c>
       <c r="E36" t="n">
-        <v>473.1569407584949</v>
+        <v>473.156940758495</v>
       </c>
       <c r="F36" t="n">
         <v>338.4631427083693</v>
@@ -7011,28 +7011,28 @@
         <v>112.6055089764783</v>
       </c>
       <c r="I36" t="n">
-        <v>53.29667265019874</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="J36" t="n">
-        <v>53.29667265019874</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="K36" t="n">
-        <v>324.495433302602</v>
+        <v>181.8269866547947</v>
       </c>
       <c r="L36" t="n">
-        <v>746.3991113652694</v>
+        <v>603.7306647174621</v>
       </c>
       <c r="M36" t="n">
-        <v>1296.877318651937</v>
+        <v>1154.20887200413</v>
       </c>
       <c r="N36" t="n">
-        <v>1875.319949093722</v>
+        <v>1732.651502445915</v>
       </c>
       <c r="O36" t="n">
-        <v>1995.563118554409</v>
+        <v>2186.305269792479</v>
       </c>
       <c r="P36" t="n">
-        <v>2346.981143485614</v>
+        <v>2537.723294723684</v>
       </c>
       <c r="Q36" t="n">
         <v>2537.723294723684</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>120.8526022368947</v>
+        <v>74.79291802014004</v>
       </c>
       <c r="C37" t="n">
-        <v>109.6458998337776</v>
+        <v>63.58621561702296</v>
       </c>
       <c r="D37" t="n">
-        <v>109.6458998337776</v>
+        <v>63.58621561702296</v>
       </c>
       <c r="E37" t="n">
-        <v>109.6458998337776</v>
+        <v>63.58621561702296</v>
       </c>
       <c r="F37" t="n">
-        <v>109.6458998337776</v>
+        <v>63.58621561702296</v>
       </c>
       <c r="G37" t="n">
-        <v>99.35635686695342</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="H37" t="n">
-        <v>53.29667265019874</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="I37" t="n">
-        <v>53.29667265019874</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="J37" t="n">
-        <v>53.29667265019874</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="K37" t="n">
         <v>112.0590866322588</v>
@@ -7117,28 +7117,28 @@
         <v>766.5857006714878</v>
       </c>
       <c r="R37" t="n">
-        <v>766.5857006714878</v>
+        <v>720.5260164547335</v>
       </c>
       <c r="S37" t="n">
-        <v>715.1355612307968</v>
+        <v>669.0758770140426</v>
       </c>
       <c r="T37" t="n">
-        <v>641.3098852649318</v>
+        <v>595.2502010481775</v>
       </c>
       <c r="U37" t="n">
-        <v>512.5409640817866</v>
+        <v>466.4812798650321</v>
       </c>
       <c r="V37" t="n">
-        <v>410.2149267754119</v>
+        <v>364.1552425586574</v>
       </c>
       <c r="W37" t="n">
-        <v>282.4677924280136</v>
+        <v>236.4081082112591</v>
       </c>
       <c r="X37" t="n">
-        <v>209.6245954585921</v>
+        <v>163.5649112418375</v>
       </c>
       <c r="Y37" t="n">
-        <v>145.9987037860718</v>
+        <v>99.93901956931722</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1409.924148352281</v>
+        <v>1409.924148352282</v>
       </c>
       <c r="C38" t="n">
-        <v>1186.399656820291</v>
+        <v>1186.399656820292</v>
       </c>
       <c r="D38" t="n">
-        <v>971.9849591827169</v>
+        <v>971.9849591827178</v>
       </c>
       <c r="E38" t="n">
-        <v>735.6085064240262</v>
+        <v>735.6085064240273</v>
       </c>
       <c r="F38" t="n">
-        <v>479.8665828693995</v>
+        <v>479.8665828694002</v>
       </c>
       <c r="G38" t="n">
-        <v>222.6644080120114</v>
+        <v>222.6644080120115</v>
       </c>
       <c r="H38" t="n">
         <v>53.29667265019874</v>
@@ -7175,16 +7175,16 @@
         <v>166.2674185418009</v>
       </c>
       <c r="K38" t="n">
-        <v>467.8144998655656</v>
+        <v>467.8144998655653</v>
       </c>
       <c r="L38" t="n">
-        <v>891.8803257637577</v>
+        <v>891.8803257637574</v>
       </c>
       <c r="M38" t="n">
-        <v>1369.884924173389</v>
+        <v>1369.88492417339</v>
       </c>
       <c r="N38" t="n">
-        <v>1834.353308329473</v>
+        <v>1834.353308329474</v>
       </c>
       <c r="O38" t="n">
         <v>2220.694643393615</v>
@@ -7199,25 +7199,25 @@
         <v>2664.833632509937</v>
       </c>
       <c r="S38" t="n">
-        <v>2647.237783282019</v>
+        <v>2647.23778328202</v>
       </c>
       <c r="T38" t="n">
         <v>2583.444217929959</v>
       </c>
       <c r="U38" t="n">
-        <v>2487.007552343413</v>
+        <v>2487.007552343414</v>
       </c>
       <c r="V38" t="n">
-        <v>2308.437545374557</v>
+        <v>2308.437545374558</v>
       </c>
       <c r="W38" t="n">
-        <v>2104.31188236736</v>
+        <v>2104.311882367362</v>
       </c>
       <c r="X38" t="n">
-        <v>1880.691009024056</v>
+        <v>1880.691009024058</v>
       </c>
       <c r="Y38" t="n">
-        <v>1645.558420735097</v>
+        <v>1645.558420735098</v>
       </c>
     </row>
     <row r="39">
@@ -7263,13 +7263,13 @@
         <v>1296.877318651937</v>
       </c>
       <c r="N39" t="n">
-        <v>1541.909351207845</v>
+        <v>1732.651502445915</v>
       </c>
       <c r="O39" t="n">
-        <v>1995.563118554409</v>
+        <v>2186.305269792479</v>
       </c>
       <c r="P39" t="n">
-        <v>2346.981143485614</v>
+        <v>2537.723294723684</v>
       </c>
       <c r="Q39" t="n">
         <v>2537.723294723684</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>119.2298025262608</v>
+        <v>119.229802526261</v>
       </c>
       <c r="C40" t="n">
-        <v>108.0231001231437</v>
+        <v>108.0231001231438</v>
       </c>
       <c r="D40" t="n">
-        <v>108.0231001231437</v>
+        <v>108.0231001231438</v>
       </c>
       <c r="E40" t="n">
-        <v>108.0231001231437</v>
+        <v>108.0231001231438</v>
       </c>
       <c r="F40" t="n">
-        <v>108.0231001231437</v>
+        <v>108.0231001231438</v>
       </c>
       <c r="G40" t="n">
         <v>97.73355715631956</v>
@@ -7351,31 +7351,31 @@
         <v>766.5857006714878</v>
       </c>
       <c r="Q40" t="n">
-        <v>764.9629009608541</v>
+        <v>766.5857006714878</v>
       </c>
       <c r="R40" t="n">
-        <v>764.9629009608541</v>
+        <v>764.9629009608549</v>
       </c>
       <c r="S40" t="n">
-        <v>713.5127615201632</v>
+        <v>713.5127615201638</v>
       </c>
       <c r="T40" t="n">
-        <v>639.6870855542981</v>
+        <v>639.6870855542987</v>
       </c>
       <c r="U40" t="n">
-        <v>510.9181643711528</v>
+        <v>510.9181643711534</v>
       </c>
       <c r="V40" t="n">
-        <v>408.592127064778</v>
+        <v>408.5921270647785</v>
       </c>
       <c r="W40" t="n">
-        <v>280.8449927173798</v>
+        <v>280.8449927173803</v>
       </c>
       <c r="X40" t="n">
-        <v>208.0017957479582</v>
+        <v>208.0017957479586</v>
       </c>
       <c r="Y40" t="n">
-        <v>144.375904075438</v>
+        <v>144.3759040754382</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1409.924148352282</v>
+        <v>1409.924148352281</v>
       </c>
       <c r="C41" t="n">
-        <v>1186.399656820292</v>
+        <v>1186.399656820291</v>
       </c>
       <c r="D41" t="n">
-        <v>971.9849591827184</v>
+        <v>971.9849591827171</v>
       </c>
       <c r="E41" t="n">
-        <v>735.608506424028</v>
+        <v>735.6085064240266</v>
       </c>
       <c r="F41" t="n">
-        <v>479.866582869401</v>
+        <v>479.8665828693995</v>
       </c>
       <c r="G41" t="n">
-        <v>222.6644080120114</v>
+        <v>222.6644080120115</v>
       </c>
       <c r="H41" t="n">
         <v>53.29667265019875</v>
@@ -7415,7 +7415,7 @@
         <v>467.8144998655655</v>
       </c>
       <c r="L41" t="n">
-        <v>891.8803257637577</v>
+        <v>891.8803257637576</v>
       </c>
       <c r="M41" t="n">
         <v>1369.88492417339</v>
@@ -7439,22 +7439,22 @@
         <v>2647.23778328202</v>
       </c>
       <c r="T41" t="n">
-        <v>2583.44421792996</v>
+        <v>2583.444217929959</v>
       </c>
       <c r="U41" t="n">
         <v>2487.007552343414</v>
       </c>
       <c r="V41" t="n">
-        <v>2308.437545374558</v>
+        <v>2308.437545374557</v>
       </c>
       <c r="W41" t="n">
-        <v>2104.311882367362</v>
+        <v>2104.311882367361</v>
       </c>
       <c r="X41" t="n">
-        <v>1880.691009024058</v>
+        <v>1880.691009024057</v>
       </c>
       <c r="Y41" t="n">
-        <v>1645.558420735099</v>
+        <v>1645.558420735098</v>
       </c>
     </row>
     <row r="42">
@@ -7500,10 +7500,10 @@
         <v>1381.534227781518</v>
       </c>
       <c r="N42" t="n">
-        <v>1959.976858223303</v>
+        <v>1541.909351207845</v>
       </c>
       <c r="O42" t="n">
-        <v>2346.981143485614</v>
+        <v>1995.563118554409</v>
       </c>
       <c r="P42" t="n">
         <v>2346.981143485614</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>120.8526022368947</v>
+        <v>119.2298025262609</v>
       </c>
       <c r="C43" t="n">
-        <v>109.6458998337776</v>
+        <v>108.0231001231438</v>
       </c>
       <c r="D43" t="n">
-        <v>109.6458998337776</v>
+        <v>108.0231001231438</v>
       </c>
       <c r="E43" t="n">
-        <v>63.58621561702293</v>
+        <v>108.0231001231438</v>
       </c>
       <c r="F43" t="n">
-        <v>63.58621561702293</v>
+        <v>108.0231001231438</v>
       </c>
       <c r="G43" t="n">
-        <v>53.29667265019875</v>
+        <v>97.73355715631956</v>
       </c>
       <c r="H43" t="n">
-        <v>53.29667265019875</v>
+        <v>97.73355715631956</v>
       </c>
       <c r="I43" t="n">
-        <v>53.29667265019875</v>
+        <v>97.73355715631956</v>
       </c>
       <c r="J43" t="n">
         <v>53.29667265019875</v>
@@ -7594,25 +7594,25 @@
         <v>766.5857006714878</v>
       </c>
       <c r="S43" t="n">
-        <v>715.1355612307968</v>
+        <v>713.5127615201636</v>
       </c>
       <c r="T43" t="n">
-        <v>641.3098852649318</v>
+        <v>639.6870855542985</v>
       </c>
       <c r="U43" t="n">
-        <v>512.5409640817866</v>
+        <v>510.9181643711531</v>
       </c>
       <c r="V43" t="n">
-        <v>410.2149267754119</v>
+        <v>408.5921270647784</v>
       </c>
       <c r="W43" t="n">
-        <v>282.4677924280136</v>
+        <v>280.8449927173801</v>
       </c>
       <c r="X43" t="n">
-        <v>209.6245954585921</v>
+        <v>208.0017957479585</v>
       </c>
       <c r="Y43" t="n">
-        <v>145.9987037860718</v>
+        <v>144.3759040754381</v>
       </c>
     </row>
     <row r="44">
@@ -7628,13 +7628,13 @@
         <v>1186.39965682029</v>
       </c>
       <c r="D44" t="n">
-        <v>971.984959182716</v>
+        <v>971.9849591827167</v>
       </c>
       <c r="E44" t="n">
-        <v>735.6085064240258</v>
+        <v>735.608506424026</v>
       </c>
       <c r="F44" t="n">
-        <v>479.8665828693991</v>
+        <v>479.8665828693993</v>
       </c>
       <c r="G44" t="n">
         <v>222.6644080120114</v>
@@ -7646,19 +7646,19 @@
         <v>53.29667265019874</v>
       </c>
       <c r="J44" t="n">
-        <v>166.2674185417999</v>
+        <v>166.2674185418009</v>
       </c>
       <c r="K44" t="n">
-        <v>467.8144998655645</v>
+        <v>467.8144998655653</v>
       </c>
       <c r="L44" t="n">
-        <v>891.8803257637567</v>
+        <v>891.8803257637574</v>
       </c>
       <c r="M44" t="n">
-        <v>1369.884924173389</v>
+        <v>1369.88492417339</v>
       </c>
       <c r="N44" t="n">
-        <v>1834.353308329473</v>
+        <v>1834.353308329474</v>
       </c>
       <c r="O44" t="n">
         <v>2220.694643393615</v>
@@ -7676,22 +7676,22 @@
         <v>2647.237783282019</v>
       </c>
       <c r="T44" t="n">
-        <v>2583.444217929958</v>
+        <v>2583.444217929959</v>
       </c>
       <c r="U44" t="n">
-        <v>2487.007552343412</v>
+        <v>2487.007552343413</v>
       </c>
       <c r="V44" t="n">
-        <v>2308.437545374556</v>
+        <v>2308.437545374557</v>
       </c>
       <c r="W44" t="n">
-        <v>2104.311882367359</v>
+        <v>2104.31188236736</v>
       </c>
       <c r="X44" t="n">
         <v>1880.691009024056</v>
       </c>
       <c r="Y44" t="n">
-        <v>1645.558420735096</v>
+        <v>1645.558420735097</v>
       </c>
     </row>
     <row r="45">
@@ -7725,25 +7725,25 @@
         <v>53.29667265019874</v>
       </c>
       <c r="J45" t="n">
-        <v>137.9535817797791</v>
+        <v>53.29667265019874</v>
       </c>
       <c r="K45" t="n">
-        <v>409.1523424321824</v>
+        <v>324.495433302602</v>
       </c>
       <c r="L45" t="n">
-        <v>831.0560204948498</v>
+        <v>746.3991113652694</v>
       </c>
       <c r="M45" t="n">
-        <v>1381.534227781518</v>
+        <v>1296.877318651937</v>
       </c>
       <c r="N45" t="n">
-        <v>1541.909351207845</v>
+        <v>1875.319949093722</v>
       </c>
       <c r="O45" t="n">
-        <v>1995.563118554409</v>
+        <v>2328.973716440286</v>
       </c>
       <c r="P45" t="n">
-        <v>2346.981143485614</v>
+        <v>2537.723294723684</v>
       </c>
       <c r="Q45" t="n">
         <v>2537.723294723684</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>120.8526022368947</v>
+        <v>120.8526022368943</v>
       </c>
       <c r="C46" t="n">
-        <v>109.6458998337776</v>
+        <v>109.6458998337772</v>
       </c>
       <c r="D46" t="n">
-        <v>109.6458998337776</v>
+        <v>109.6458998337772</v>
       </c>
       <c r="E46" t="n">
-        <v>109.6458998337776</v>
+        <v>109.6458998337772</v>
       </c>
       <c r="F46" t="n">
-        <v>109.6458998337776</v>
+        <v>109.6458998337772</v>
       </c>
       <c r="G46" t="n">
-        <v>53.29667265019874</v>
+        <v>99.35635686695296</v>
       </c>
       <c r="H46" t="n">
         <v>53.29667265019874</v>
@@ -7834,22 +7834,22 @@
         <v>715.1355612307968</v>
       </c>
       <c r="T46" t="n">
-        <v>641.3098852649318</v>
+        <v>641.3098852649317</v>
       </c>
       <c r="U46" t="n">
-        <v>512.5409640817866</v>
+        <v>512.5409640817863</v>
       </c>
       <c r="V46" t="n">
-        <v>410.2149267754119</v>
+        <v>410.2149267754116</v>
       </c>
       <c r="W46" t="n">
-        <v>282.4677924280136</v>
+        <v>282.4677924280134</v>
       </c>
       <c r="X46" t="n">
-        <v>209.6245954585921</v>
+        <v>209.6245954585917</v>
       </c>
       <c r="Y46" t="n">
-        <v>145.9987037860718</v>
+        <v>145.9987037860714</v>
       </c>
     </row>
   </sheetData>
@@ -8453,16 +8453,16 @@
         <v>147.0997974279326</v>
       </c>
       <c r="K8" t="n">
-        <v>314.5524032714785</v>
+        <v>178.8230039740467</v>
       </c>
       <c r="L8" t="n">
         <v>191.5602121631146</v>
       </c>
       <c r="M8" t="n">
-        <v>222.0155828264754</v>
+        <v>322.8857137945909</v>
       </c>
       <c r="N8" t="n">
-        <v>186.3981141722301</v>
+        <v>221.2573825015464</v>
       </c>
       <c r="O8" t="n">
         <v>322.6841960775522</v>
@@ -8775,10 +8775,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M12" t="n">
-        <v>183.1261717482748</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N12" t="n">
-        <v>623.1450866466196</v>
+        <v>200.8546755198939</v>
       </c>
       <c r="O12" t="n">
         <v>512.0210150597484</v>
@@ -8930,7 +8930,7 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L14" t="n">
-        <v>542.9595789155854</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M14" t="n">
         <v>584.3675935406823</v>
@@ -9015,10 +9015,10 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N15" t="n">
-        <v>200.8546755198943</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O15" t="n">
-        <v>512.0210150597484</v>
+        <v>89.73060393302273</v>
       </c>
       <c r="P15" t="n">
         <v>414.0015992319183</v>
@@ -9167,7 +9167,7 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L17" t="n">
-        <v>542.9595789155856</v>
+        <v>542.9595789155857</v>
       </c>
       <c r="M17" t="n">
         <v>584.3675935406823</v>
@@ -9240,10 +9240,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>78.40631651871288</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K18" t="n">
-        <v>199.69526604786</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L18" t="n">
         <v>482.0924488944969</v>
@@ -9255,13 +9255,13 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O18" t="n">
-        <v>512.0210150597484</v>
+        <v>89.73060393302273</v>
       </c>
       <c r="P18" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
-        <v>80.43163442218939</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>219.8255997236958</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K20" t="n">
         <v>421.3890363425141</v>
@@ -9477,10 +9477,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>78.40631651871288</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K21" t="n">
-        <v>199.69526604786</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L21" t="n">
         <v>482.0924488944969</v>
@@ -9489,7 +9489,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N21" t="n">
-        <v>623.1450866466196</v>
+        <v>200.8546755198939</v>
       </c>
       <c r="O21" t="n">
         <v>512.0210150597484</v>
@@ -9498,7 +9498,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q21" t="n">
-        <v>80.43163442218939</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9650,7 +9650,7 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O23" t="n">
-        <v>495.0402356415676</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P23" t="n">
         <v>418.3383206229274</v>
@@ -9714,19 +9714,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>78.40631651871288</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K24" t="n">
-        <v>343.8048081163522</v>
+        <v>69.86666604321766</v>
       </c>
       <c r="L24" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M24" t="n">
-        <v>605.4165828749999</v>
+        <v>457.0643138214094</v>
       </c>
       <c r="N24" t="n">
-        <v>479.0355445781273</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O24" t="n">
         <v>512.0210150597484</v>
@@ -9735,7 +9735,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
-        <v>80.43163442218939</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -9951,10 +9951,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>163.9183459425315</v>
+        <v>78.40631651871288</v>
       </c>
       <c r="K27" t="n">
-        <v>343.8048081163522</v>
+        <v>69.86666604321766</v>
       </c>
       <c r="L27" t="n">
         <v>482.0924488944969</v>
@@ -9963,7 +9963,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N27" t="n">
-        <v>200.8546755198943</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O27" t="n">
         <v>512.0210150597484</v>
@@ -9972,7 +9972,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q27" t="n">
-        <v>273.1004740566038</v>
+        <v>210.2602344268316</v>
       </c>
       <c r="R27" t="n">
         <v>59.17817075471706</v>
@@ -10188,10 +10188,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>163.9183459425315</v>
+        <v>78.40631651871288</v>
       </c>
       <c r="K30" t="n">
-        <v>343.8048081163522</v>
+        <v>69.86666604321766</v>
       </c>
       <c r="L30" t="n">
         <v>482.0924488944969</v>
@@ -10200,7 +10200,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N30" t="n">
-        <v>200.8546755198943</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O30" t="n">
         <v>512.0210150597484</v>
@@ -10209,7 +10209,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q30" t="n">
-        <v>273.1004740566038</v>
+        <v>210.2602344268316</v>
       </c>
       <c r="R30" t="n">
         <v>59.17817075471706</v>
@@ -10437,7 +10437,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N33" t="n">
-        <v>200.8546755198945</v>
+        <v>200.8546755198946</v>
       </c>
       <c r="O33" t="n">
         <v>512.0210150597484</v>
@@ -10665,7 +10665,7 @@
         <v>78.40631651871288</v>
       </c>
       <c r="K36" t="n">
-        <v>343.8048081163522</v>
+        <v>199.69526604786</v>
       </c>
       <c r="L36" t="n">
         <v>482.0924488944969</v>
@@ -10677,13 +10677,13 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O36" t="n">
-        <v>175.2426333568418</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P36" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q36" t="n">
-        <v>273.1004740566038</v>
+        <v>80.4316344221894</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -10829,7 +10829,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M38" t="n">
-        <v>584.3675935406817</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N38" t="n">
         <v>568.5510017355793</v>
@@ -10911,7 +10911,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
-        <v>286.366704943713</v>
+        <v>479.0355445781273</v>
       </c>
       <c r="O39" t="n">
         <v>512.0210150597484</v>
@@ -10920,7 +10920,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q39" t="n">
-        <v>273.1004740566038</v>
+        <v>80.4316344221894</v>
       </c>
       <c r="R39" t="n">
         <v>59.17817075471706</v>
@@ -11148,13 +11148,13 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N42" t="n">
-        <v>623.1450866466196</v>
+        <v>200.8546755198943</v>
       </c>
       <c r="O42" t="n">
-        <v>444.6983058837355</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P42" t="n">
-        <v>59.033897281206</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q42" t="n">
         <v>273.1004740566038</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>219.8255997236949</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K44" t="n">
         <v>421.3890363425141</v>
@@ -11373,7 +11373,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>163.9183459425315</v>
+        <v>78.40631651871288</v>
       </c>
       <c r="K45" t="n">
         <v>343.8048081163522</v>
@@ -11385,16 +11385,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N45" t="n">
-        <v>200.8546755198943</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O45" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P45" t="n">
-        <v>414.0015992319183</v>
+        <v>269.8920571634262</v>
       </c>
       <c r="Q45" t="n">
-        <v>273.1004740566038</v>
+        <v>80.4316344221894</v>
       </c>
       <c r="R45" t="n">
         <v>59.17817075471706</v>
@@ -23261,22 +23261,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>285.91104943052</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>5.783127549240834</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>326.8250030884028</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>241.3145567775166</v>
       </c>
       <c r="I11" t="n">
-        <v>69.10541545958796</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>91.0603895049607</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>52.54861928044232</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>250.4248056684895</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>275.7249051464464</v>
       </c>
       <c r="X11" t="n">
-        <v>295.0251633791929</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>306.4217611753917</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23416,19 +23416,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>84.73513414840785</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>67.30424840176578</v>
       </c>
       <c r="F13" t="n">
-        <v>67.771172729952</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>83.82714630647791</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23464,19 +23464,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>47.76206477194103</v>
+        <v>42.85956281977067</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>201.1217307406358</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>174.9432757026331</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>200.1101617732463</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23492,22 +23492,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>306.9184284283104</v>
       </c>
       <c r="C14" t="n">
-        <v>294.9297453859921</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>190.604061566936</v>
       </c>
       <c r="F14" t="n">
-        <v>326.8250030884027</v>
+        <v>326.8250030884028</v>
       </c>
       <c r="G14" t="n">
-        <v>328.2706518781363</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23549,13 +23549,13 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>150.0469978775645</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>275.7249051464464</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>98.53513930300745</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>38.32503573871196</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>3.105379087726637</v>
+        <v>67.30424840176578</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>83.82714630647801</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>72.64954213184639</v>
       </c>
       <c r="I16" t="n">
-        <v>52.99855633999329</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,10 +23701,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>124.5761368156061</v>
       </c>
       <c r="T16" t="n">
-        <v>146.7279179755284</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>145.7552637690493</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>136.630131525117</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-1.012949724099599e-12</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -26314,46 +26314,46 @@
         <v>248909.9052398739</v>
       </c>
       <c r="C2" t="n">
-        <v>248909.9052398738</v>
+        <v>248909.9052398739</v>
       </c>
       <c r="D2" t="n">
         <v>249477.8196606091</v>
       </c>
       <c r="E2" t="n">
-        <v>217234.2521785562</v>
+        <v>217234.2521785563</v>
       </c>
       <c r="F2" t="n">
-        <v>217234.2521785564</v>
+        <v>217234.2521785563</v>
       </c>
       <c r="G2" t="n">
+        <v>249477.8196606091</v>
+      </c>
+      <c r="H2" t="n">
         <v>249477.8196606089</v>
       </c>
-      <c r="H2" t="n">
-        <v>249477.8196606091</v>
-      </c>
       <c r="I2" t="n">
-        <v>249477.8196606091</v>
+        <v>249477.8196606089</v>
       </c>
       <c r="J2" t="n">
         <v>249477.8196606086</v>
       </c>
       <c r="K2" t="n">
-        <v>249477.8196606085</v>
+        <v>249477.8196606087</v>
       </c>
       <c r="L2" t="n">
-        <v>249477.8196606092</v>
+        <v>249477.8196606093</v>
       </c>
       <c r="M2" t="n">
         <v>249477.819660609</v>
       </c>
       <c r="N2" t="n">
-        <v>249477.8196606089</v>
+        <v>249477.819660609</v>
       </c>
       <c r="O2" t="n">
         <v>249477.8196606089</v>
       </c>
       <c r="P2" t="n">
-        <v>249477.8196606091</v>
+        <v>249477.819660609</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>42161.62330376123</v>
       </c>
       <c r="E3" t="n">
-        <v>322386.0722302553</v>
+        <v>322386.0722302556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>58912.39901545762</v>
+        <v>58912.39901545763</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>77501.85774473401</v>
+        <v>77501.85774473398</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>87005.12716444281</v>
+        <v>87005.12716444275</v>
       </c>
       <c r="M3" t="n">
-        <v>129522.6626819163</v>
+        <v>129522.6626819164</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>23917.25317727193</v>
+        <v>23917.25317727194</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26424,13 +26424,13 @@
         <v>362257.2597934403</v>
       </c>
       <c r="E4" t="n">
-        <v>210799.9012866808</v>
+        <v>210799.9012866807</v>
       </c>
       <c r="F4" t="n">
-        <v>210799.9012866808</v>
+        <v>210799.9012866807</v>
       </c>
       <c r="G4" t="n">
-        <v>267240.5926786489</v>
+        <v>267240.5926786488</v>
       </c>
       <c r="H4" t="n">
         <v>267240.5926786488</v>
@@ -26476,37 +26476,37 @@
         <v>41879.94747728385</v>
       </c>
       <c r="E5" t="n">
-        <v>50142.96023133422</v>
+        <v>50142.96023133423</v>
       </c>
       <c r="F5" t="n">
-        <v>50142.96023133422</v>
+        <v>50142.96023133423</v>
       </c>
       <c r="G5" t="n">
-        <v>56333.84332237236</v>
+        <v>56333.84332237237</v>
       </c>
       <c r="H5" t="n">
-        <v>56333.84332237236</v>
+        <v>56333.84332237237</v>
       </c>
       <c r="I5" t="n">
-        <v>56333.84332237234</v>
+        <v>56333.84332237235</v>
       </c>
       <c r="J5" t="n">
-        <v>64305.78513671565</v>
+        <v>64305.78513671567</v>
       </c>
       <c r="K5" t="n">
         <v>64305.78513671567</v>
       </c>
       <c r="L5" t="n">
-        <v>59005.59711287811</v>
+        <v>59005.5971128781</v>
       </c>
       <c r="M5" t="n">
-        <v>56333.84332237235</v>
+        <v>56333.84332237234</v>
       </c>
       <c r="N5" t="n">
-        <v>56333.84332237235</v>
+        <v>56333.84332237234</v>
       </c>
       <c r="O5" t="n">
-        <v>56333.84332237235</v>
+        <v>56333.84332237234</v>
       </c>
       <c r="P5" t="n">
         <v>56333.84332237234</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-168176.1051320671</v>
+        <v>-168180.4737045342</v>
       </c>
       <c r="C6" t="n">
-        <v>-168176.1051320671</v>
+        <v>-168180.4737045343</v>
       </c>
       <c r="D6" t="n">
         <v>-196821.0109138764</v>
       </c>
       <c r="E6" t="n">
-        <v>-366094.6815697141</v>
+        <v>-366342.7090118837</v>
       </c>
       <c r="F6" t="n">
-        <v>-43708.60933945859</v>
+        <v>-43956.63678162827</v>
       </c>
       <c r="G6" t="n">
-        <v>-133009.0153558699</v>
+        <v>-133009.0153558697</v>
       </c>
       <c r="H6" t="n">
-        <v>-74096.61634041212</v>
+        <v>-74096.61634041222</v>
       </c>
       <c r="I6" t="n">
-        <v>-74096.61634041202</v>
+        <v>-74096.616340412</v>
       </c>
       <c r="J6" t="n">
         <v>-160636.3245022742</v>
       </c>
       <c r="K6" t="n">
-        <v>-83134.46675754031</v>
+        <v>-83134.4667575402</v>
       </c>
       <c r="L6" t="n">
-        <v>-164113.3480299338</v>
+        <v>-164113.3480299335</v>
       </c>
       <c r="M6" t="n">
-        <v>-203619.2790223284</v>
+        <v>-203619.2790223286</v>
       </c>
       <c r="N6" t="n">
-        <v>-74096.61634041218</v>
+        <v>-74096.61634041202</v>
       </c>
       <c r="O6" t="n">
-        <v>-98013.86951768416</v>
+        <v>-98013.86951768414</v>
       </c>
       <c r="P6" t="n">
-        <v>-74096.61634041202</v>
+        <v>-74096.61634041216</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>83.18467569452865</v>
+        <v>83.18467569452856</v>
       </c>
       <c r="F2" t="n">
-        <v>83.18467569452864</v>
+        <v>83.18467569452856</v>
       </c>
       <c r="G2" t="n">
-        <v>156.8251744638507</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="H2" t="n">
-        <v>156.8251744638507</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="I2" t="n">
-        <v>156.8251744638507</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="J2" t="n">
         <v>103.5370652409119</v>
@@ -26713,13 +26713,13 @@
         <v>103.5370652409119</v>
       </c>
       <c r="L2" t="n">
-        <v>138.6529754271434</v>
+        <v>138.6529754271433</v>
       </c>
       <c r="M2" t="n">
         <v>156.8251744638506</v>
       </c>
       <c r="N2" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638505</v>
       </c>
       <c r="O2" t="n">
         <v>156.8251744638506</v>
@@ -26744,16 +26744,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>121.2952530376075</v>
+        <v>121.2952530376077</v>
       </c>
       <c r="F3" t="n">
-        <v>121.2952530376075</v>
+        <v>121.2952530376077</v>
       </c>
       <c r="G3" t="n">
-        <v>121.2952530376075</v>
+        <v>121.2952530376077</v>
       </c>
       <c r="H3" t="n">
-        <v>121.2952530376075</v>
+        <v>121.2952530376077</v>
       </c>
       <c r="I3" t="n">
         <v>121.2952530376075</v>
@@ -26796,22 +26796,22 @@
         <v>135.7293992974318</v>
       </c>
       <c r="E4" t="n">
+        <v>666.2084081274846</v>
+      </c>
+      <c r="F4" t="n">
+        <v>666.2084081274846</v>
+      </c>
+      <c r="G4" t="n">
+        <v>666.2084081274846</v>
+      </c>
+      <c r="H4" t="n">
+        <v>666.2084081274846</v>
+      </c>
+      <c r="I4" t="n">
         <v>666.2084081274844</v>
       </c>
-      <c r="F4" t="n">
-        <v>666.2084081274844</v>
-      </c>
-      <c r="G4" t="n">
-        <v>666.2084081274844</v>
-      </c>
-      <c r="H4" t="n">
-        <v>666.2084081274844</v>
-      </c>
-      <c r="I4" t="n">
-        <v>666.2084081274841</v>
-      </c>
       <c r="J4" t="n">
-        <v>871.0080770190393</v>
+        <v>871.0080770190395</v>
       </c>
       <c r="K4" t="n">
         <v>871.0080770190394</v>
@@ -26820,7 +26820,7 @@
         <v>735.2786777216077</v>
       </c>
       <c r="M4" t="n">
-        <v>666.2084081274843</v>
+        <v>666.2084081274844</v>
       </c>
       <c r="N4" t="n">
         <v>666.2084081274843</v>
@@ -26829,7 +26829,7 @@
         <v>666.2084081274844</v>
       </c>
       <c r="P4" t="n">
-        <v>666.2084081274842</v>
+        <v>666.2084081274843</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>83.18467569452865</v>
+        <v>83.18467569452856</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>73.64049876932202</v>
+        <v>73.64049876932204</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,25 +26929,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.89656647158991</v>
+        <v>29.89656647158989</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>108.7564089555535</v>
+        <v>108.7564089555534</v>
       </c>
       <c r="M2" t="n">
-        <v>18.17219903670721</v>
+        <v>18.17219903670727</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>29.89656647158991</v>
+        <v>29.89656647158992</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>121.2952530376075</v>
+        <v>121.2952530376077</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>135.7293992974318</v>
       </c>
       <c r="E4" t="n">
-        <v>530.4790088300526</v>
+        <v>530.4790088300529</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>204.7996688915553</v>
+        <v>204.7996688915551</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>461.4087392359293</v>
+        <v>461.4087392359296</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>83.18467569452865</v>
+        <v>83.18467569452856</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>73.64049876932202</v>
+        <v>73.64049876932204</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>29.89656647158991</v>
+        <v>29.89656647158989</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>135.7293992974318</v>
       </c>
       <c r="M4" t="n">
-        <v>530.4790088300526</v>
+        <v>530.4790088300529</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>390.1031041228389</v>
+        <v>254.3737048254072</v>
       </c>
       <c r="C8" t="n">
         <v>378.1144210805207</v>
@@ -27859,13 +27859,13 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E8" t="n">
-        <v>255.1084633975224</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F8" t="n">
-        <v>274.2802794854996</v>
+        <v>302.4021705621074</v>
       </c>
       <c r="G8" t="n">
-        <v>292.392491779176</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>329.4930616586638</v>
@@ -27901,7 +27901,7 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
-        <v>185.3566856159496</v>
+        <v>49.6272863185178</v>
       </c>
       <c r="T8" t="n">
         <v>222.1153568062989</v>
@@ -27916,10 +27916,10 @@
         <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
-        <v>242.4804397762898</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y8" t="n">
-        <v>389.6064368699203</v>
+        <v>253.8770375724886</v>
       </c>
     </row>
     <row r="9">
@@ -27935,13 +27935,13 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D9" t="n">
-        <v>137.45025063969</v>
+        <v>1.720851342258271</v>
       </c>
       <c r="E9" t="n">
-        <v>145.5577298436975</v>
+        <v>9.828330546265704</v>
       </c>
       <c r="F9" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>127.4412149769483</v>
@@ -27950,7 +27950,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I9" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,19 +27977,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>4.951894543858003</v>
       </c>
       <c r="S9" t="n">
-        <v>15.54209281995534</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T9" t="n">
-        <v>51.06885349824287</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U9" t="n">
-        <v>80.58044518024116</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V9" t="n">
-        <v>165.7476376409751</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W9" t="n">
         <v>238.9027100790231</v>
@@ -28053,31 +28053,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R10" t="n">
-        <v>12.2971642743338</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S10" t="n">
-        <v>75.84326567291754</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T10" t="n">
-        <v>95.11776435504618</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U10" t="n">
-        <v>202.9198501474612</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V10" t="n">
-        <v>258.1279513971616</v>
+        <v>122.3985520997298</v>
       </c>
       <c r="W10" t="n">
-        <v>283.2948374677749</v>
+        <v>147.5654381703431</v>
       </c>
       <c r="X10" t="n">
-        <v>228.939939463578</v>
+        <v>93.21054016614622</v>
       </c>
       <c r="Y10" t="n">
-        <v>219.8148072196457</v>
+        <v>100.2643523184678</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>83.18467569452865</v>
+        <v>83.18467569452856</v>
       </c>
       <c r="C11" t="n">
-        <v>83.18467569452865</v>
+        <v>83.18467569452856</v>
       </c>
       <c r="D11" t="n">
-        <v>83.18467569452865</v>
+        <v>83.18467569452856</v>
       </c>
       <c r="E11" t="n">
-        <v>83.18467569452865</v>
+        <v>83.18467569452856</v>
       </c>
       <c r="F11" t="n">
-        <v>83.18467569452865</v>
+        <v>83.18467569452856</v>
       </c>
       <c r="G11" t="n">
-        <v>83.18467569452865</v>
+        <v>83.18467569452856</v>
       </c>
       <c r="H11" t="n">
-        <v>83.18467569452865</v>
+        <v>83.18467569452856</v>
       </c>
       <c r="I11" t="n">
-        <v>83.18467569452865</v>
+        <v>83.18467569452856</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28135,28 +28135,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>59.10149986574393</v>
+        <v>59.10149986574386</v>
       </c>
       <c r="S11" t="n">
-        <v>83.18467569452865</v>
+        <v>83.18467569452856</v>
       </c>
       <c r="T11" t="n">
-        <v>83.18467569452865</v>
+        <v>83.18467569452856</v>
       </c>
       <c r="U11" t="n">
-        <v>83.18467569452865</v>
+        <v>83.18467569452856</v>
       </c>
       <c r="V11" t="n">
-        <v>83.18467569452865</v>
+        <v>83.18467569452856</v>
       </c>
       <c r="W11" t="n">
-        <v>83.18467569452865</v>
+        <v>83.18467569452856</v>
       </c>
       <c r="X11" t="n">
-        <v>83.18467569452865</v>
+        <v>83.18467569452856</v>
       </c>
       <c r="Y11" t="n">
-        <v>83.18467569452865</v>
+        <v>83.18467569452856</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>83.18467569452865</v>
+        <v>83.18467569452856</v>
       </c>
       <c r="C13" t="n">
-        <v>83.18467569452865</v>
+        <v>83.18467569452856</v>
       </c>
       <c r="D13" t="n">
-        <v>83.18467569452865</v>
+        <v>83.18467569452856</v>
       </c>
       <c r="E13" t="n">
-        <v>83.18467569452865</v>
+        <v>83.18467569452856</v>
       </c>
       <c r="F13" t="n">
-        <v>83.18467569452865</v>
+        <v>83.18467569452856</v>
       </c>
       <c r="G13" t="n">
-        <v>83.18467569452865</v>
+        <v>83.18467569452856</v>
       </c>
       <c r="H13" t="n">
-        <v>83.18467569452865</v>
+        <v>83.18467569452856</v>
       </c>
       <c r="I13" t="n">
-        <v>83.18467569452865</v>
+        <v>83.18467569452856</v>
       </c>
       <c r="J13" t="n">
-        <v>83.18467569452865</v>
+        <v>83.18467569452856</v>
       </c>
       <c r="K13" t="n">
-        <v>83.18467569452865</v>
+        <v>83.18467569452856</v>
       </c>
       <c r="L13" t="n">
-        <v>83.18467569452865</v>
+        <v>83.18467569452856</v>
       </c>
       <c r="M13" t="n">
-        <v>83.18467569452865</v>
+        <v>83.18467569452856</v>
       </c>
       <c r="N13" t="n">
-        <v>83.18467569452865</v>
+        <v>83.18467569452856</v>
       </c>
       <c r="O13" t="n">
-        <v>83.18467569452865</v>
+        <v>83.18467569452856</v>
       </c>
       <c r="P13" t="n">
-        <v>83.18467569452865</v>
+        <v>83.18467569452856</v>
       </c>
       <c r="Q13" t="n">
-        <v>83.18467569452865</v>
+        <v>83.18467569452856</v>
       </c>
       <c r="R13" t="n">
-        <v>83.18467569452865</v>
+        <v>83.18467569452856</v>
       </c>
       <c r="S13" t="n">
-        <v>83.18467569452865</v>
+        <v>83.18467569452856</v>
       </c>
       <c r="T13" t="n">
-        <v>83.18467569452865</v>
+        <v>83.18467569452856</v>
       </c>
       <c r="U13" t="n">
-        <v>83.18467569452865</v>
+        <v>83.18467569452856</v>
       </c>
       <c r="V13" t="n">
-        <v>83.18467569452865</v>
+        <v>83.18467569452856</v>
       </c>
       <c r="W13" t="n">
-        <v>83.18467569452865</v>
+        <v>83.18467569452856</v>
       </c>
       <c r="X13" t="n">
-        <v>83.18467569452865</v>
+        <v>83.18467569452856</v>
       </c>
       <c r="Y13" t="n">
-        <v>83.18467569452865</v>
+        <v>83.18467569452856</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>83.18467569452864</v>
+        <v>83.18467569452856</v>
       </c>
       <c r="C14" t="n">
-        <v>83.18467569452864</v>
+        <v>83.18467569452856</v>
       </c>
       <c r="D14" t="n">
-        <v>83.18467569452864</v>
+        <v>83.18467569452856</v>
       </c>
       <c r="E14" t="n">
-        <v>83.18467569452864</v>
+        <v>83.18467569452856</v>
       </c>
       <c r="F14" t="n">
-        <v>83.18467569452864</v>
+        <v>83.18467569452856</v>
       </c>
       <c r="G14" t="n">
-        <v>83.18467569452864</v>
+        <v>83.18467569452856</v>
       </c>
       <c r="H14" t="n">
-        <v>83.18467569452864</v>
+        <v>83.18467569452856</v>
       </c>
       <c r="I14" t="n">
-        <v>83.18467569452864</v>
+        <v>83.18467569452856</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28372,28 +28372,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>59.10149986574392</v>
+        <v>59.10149986574387</v>
       </c>
       <c r="S14" t="n">
-        <v>83.18467569452864</v>
+        <v>83.18467569452856</v>
       </c>
       <c r="T14" t="n">
-        <v>83.18467569452864</v>
+        <v>83.18467569452856</v>
       </c>
       <c r="U14" t="n">
-        <v>83.18467569452864</v>
+        <v>83.18467569452856</v>
       </c>
       <c r="V14" t="n">
-        <v>83.18467569452864</v>
+        <v>83.18467569452856</v>
       </c>
       <c r="W14" t="n">
-        <v>83.18467569452864</v>
+        <v>83.18467569452856</v>
       </c>
       <c r="X14" t="n">
-        <v>83.18467569452864</v>
+        <v>83.18467569452856</v>
       </c>
       <c r="Y14" t="n">
-        <v>83.18467569452864</v>
+        <v>83.18467569452856</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>83.18467569452864</v>
+        <v>83.18467569452856</v>
       </c>
       <c r="C16" t="n">
-        <v>83.18467569452864</v>
+        <v>83.18467569452856</v>
       </c>
       <c r="D16" t="n">
-        <v>83.18467569452864</v>
+        <v>83.18467569452856</v>
       </c>
       <c r="E16" t="n">
-        <v>83.18467569452864</v>
+        <v>83.18467569452856</v>
       </c>
       <c r="F16" t="n">
-        <v>83.18467569452864</v>
+        <v>83.18467569452856</v>
       </c>
       <c r="G16" t="n">
-        <v>83.18467569452864</v>
+        <v>83.18467569452856</v>
       </c>
       <c r="H16" t="n">
-        <v>83.18467569452864</v>
+        <v>83.18467569452856</v>
       </c>
       <c r="I16" t="n">
-        <v>83.18467569452864</v>
+        <v>83.18467569452856</v>
       </c>
       <c r="J16" t="n">
-        <v>83.18467569452864</v>
+        <v>83.18467569452856</v>
       </c>
       <c r="K16" t="n">
-        <v>83.18467569452864</v>
+        <v>83.18467569452856</v>
       </c>
       <c r="L16" t="n">
-        <v>83.18467569452864</v>
+        <v>83.18467569452856</v>
       </c>
       <c r="M16" t="n">
-        <v>83.18467569452864</v>
+        <v>83.18467569452856</v>
       </c>
       <c r="N16" t="n">
-        <v>83.18467569452864</v>
+        <v>83.18467569452856</v>
       </c>
       <c r="O16" t="n">
-        <v>83.18467569452864</v>
+        <v>83.18467569452856</v>
       </c>
       <c r="P16" t="n">
-        <v>83.18467569452864</v>
+        <v>83.18467569452856</v>
       </c>
       <c r="Q16" t="n">
-        <v>83.18467569452864</v>
+        <v>83.18467569452856</v>
       </c>
       <c r="R16" t="n">
-        <v>83.18467569452864</v>
+        <v>83.18467569452856</v>
       </c>
       <c r="S16" t="n">
-        <v>83.18467569452864</v>
+        <v>83.18467569452856</v>
       </c>
       <c r="T16" t="n">
-        <v>83.18467569452864</v>
+        <v>83.18467569452856</v>
       </c>
       <c r="U16" t="n">
-        <v>83.18467569452864</v>
+        <v>83.18467569452856</v>
       </c>
       <c r="V16" t="n">
-        <v>83.18467569452864</v>
+        <v>83.18467569452856</v>
       </c>
       <c r="W16" t="n">
-        <v>83.18467569452864</v>
+        <v>83.18467569452856</v>
       </c>
       <c r="X16" t="n">
-        <v>83.18467569452864</v>
+        <v>83.18467569452856</v>
       </c>
       <c r="Y16" t="n">
-        <v>83.18467569452864</v>
+        <v>83.18467569452856</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>156.8251744638507</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="C17" t="n">
-        <v>156.8251744638507</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="D17" t="n">
-        <v>156.8251744638507</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="E17" t="n">
-        <v>156.8251744638507</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="F17" t="n">
-        <v>156.8251744638507</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="G17" t="n">
-        <v>156.8251744638507</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="H17" t="n">
-        <v>156.8251744638507</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="I17" t="n">
         <v>152.2900911541166</v>
@@ -28609,28 +28609,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>59.10149986574392</v>
+        <v>59.10149986574387</v>
       </c>
       <c r="S17" t="n">
-        <v>156.8251744638507</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="T17" t="n">
-        <v>156.8251744638507</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="U17" t="n">
-        <v>156.8251744638507</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="V17" t="n">
-        <v>156.8251744638507</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="W17" t="n">
-        <v>156.8251744638507</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="X17" t="n">
-        <v>156.8251744638507</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="Y17" t="n">
-        <v>156.8251744638507</v>
+        <v>156.8251744638506</v>
       </c>
     </row>
     <row r="18">
@@ -28719,10 +28719,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>156.8251744638507</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="C19" t="n">
-        <v>156.8251744638507</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="D19" t="n">
         <v>151.5411742405149</v>
@@ -28734,7 +28734,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
-        <v>156.8251744638507</v>
+        <v>111.2260870892637</v>
       </c>
       <c r="H19" t="n">
         <v>155.834217826375</v>
@@ -28743,7 +28743,7 @@
         <v>136.1832320345219</v>
       </c>
       <c r="J19" t="n">
-        <v>43.9925156610596</v>
+        <v>43.99251566105957</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28764,31 +28764,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>19.83638472416912</v>
+        <v>19.83638472416909</v>
       </c>
       <c r="R19" t="n">
         <v>138.1917058418638</v>
       </c>
       <c r="S19" t="n">
-        <v>111.2260870892634</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="T19" t="n">
-        <v>156.8251744638507</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="U19" t="n">
-        <v>156.8251744638507</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="V19" t="n">
-        <v>156.8251744638507</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="W19" t="n">
-        <v>156.8251744638507</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="X19" t="n">
-        <v>156.8251744638507</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="Y19" t="n">
-        <v>156.8251744638507</v>
+        <v>156.8251744638506</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>156.8251744638507</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="C20" t="n">
-        <v>156.8251744638507</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="D20" t="n">
-        <v>156.8251744638507</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="E20" t="n">
-        <v>156.8251744638507</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="F20" t="n">
-        <v>156.8251744638507</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="G20" t="n">
-        <v>156.8251744638507</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="H20" t="n">
-        <v>156.8251744638507</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="I20" t="n">
         <v>152.2900911541166</v>
@@ -28846,28 +28846,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>59.10149986574392</v>
+        <v>59.10149986574387</v>
       </c>
       <c r="S20" t="n">
-        <v>156.8251744638507</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="T20" t="n">
-        <v>156.8251744638507</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="U20" t="n">
-        <v>156.8251744638507</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="V20" t="n">
-        <v>156.8251744638507</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="W20" t="n">
-        <v>156.8251744638507</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="X20" t="n">
-        <v>156.8251744638507</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="Y20" t="n">
-        <v>156.8251744638507</v>
+        <v>156.8251744638506</v>
       </c>
     </row>
     <row r="21">
@@ -28956,10 +28956,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>156.8251744638507</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="C22" t="n">
-        <v>156.8251744638507</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="D22" t="n">
         <v>151.5411742405149</v>
@@ -28971,7 +28971,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
-        <v>156.8251744638507</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="H22" t="n">
         <v>155.834217826375</v>
@@ -28980,7 +28980,7 @@
         <v>136.1832320345219</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>43.99251566105957</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29001,31 +29001,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>19.83638472416912</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>138.1917058418638</v>
       </c>
       <c r="S22" t="n">
-        <v>156.8251744638507</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="T22" t="n">
-        <v>156.8251744638507</v>
+        <v>131.0624718134327</v>
       </c>
       <c r="U22" t="n">
-        <v>156.8251744638507</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="V22" t="n">
-        <v>156.8251744638507</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="W22" t="n">
-        <v>156.8251744638507</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="X22" t="n">
-        <v>156.8251744638507</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="Y22" t="n">
-        <v>155.218602750323</v>
+        <v>156.8251744638506</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>156.8251744638507</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="C23" t="n">
-        <v>156.8251744638507</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="D23" t="n">
-        <v>156.8251744638507</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="E23" t="n">
-        <v>156.8251744638507</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="F23" t="n">
-        <v>156.8251744638507</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="G23" t="n">
-        <v>156.8251744638507</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="H23" t="n">
-        <v>156.8251744638507</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="I23" t="n">
         <v>152.2900911541166</v>
@@ -29086,25 +29086,25 @@
         <v>59.10149986574392</v>
       </c>
       <c r="S23" t="n">
-        <v>156.8251744638507</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="T23" t="n">
-        <v>156.8251744638507</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="U23" t="n">
-        <v>156.8251744638507</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="V23" t="n">
-        <v>156.8251744638507</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="W23" t="n">
-        <v>156.8251744638507</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="X23" t="n">
-        <v>156.8251744638507</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="Y23" t="n">
-        <v>156.8251744638507</v>
+        <v>156.8251744638506</v>
       </c>
     </row>
     <row r="24">
@@ -29193,10 +29193,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>156.8251744638507</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="C25" t="n">
-        <v>156.8251744638507</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="D25" t="n">
         <v>151.5411742405149</v>
@@ -29208,7 +29208,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
-        <v>156.8251744638507</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="H25" t="n">
         <v>155.834217826375</v>
@@ -29241,28 +29241,28 @@
         <v>19.83638472416912</v>
       </c>
       <c r="R25" t="n">
-        <v>92.59261846727642</v>
+        <v>92.59261846727711</v>
       </c>
       <c r="S25" t="n">
-        <v>156.8251744638507</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="T25" t="n">
-        <v>156.8251744638507</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="U25" t="n">
-        <v>156.8251744638507</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="V25" t="n">
-        <v>156.8251744638507</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="W25" t="n">
-        <v>156.8251744638507</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="X25" t="n">
-        <v>156.8251744638507</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="Y25" t="n">
-        <v>156.8251744638507</v>
+        <v>156.8251744638506</v>
       </c>
     </row>
     <row r="26">
@@ -29296,7 +29296,7 @@
         <v>103.5370652409119</v>
       </c>
       <c r="J26" t="n">
-        <v>41.72891940803993</v>
+        <v>103.5370652409119</v>
       </c>
       <c r="K26" t="n">
         <v>103.5370652409119</v>
@@ -29305,7 +29305,7 @@
         <v>103.5370652409119</v>
       </c>
       <c r="M26" t="n">
-        <v>103.5370652409119</v>
+        <v>41.72891940804016</v>
       </c>
       <c r="N26" t="n">
         <v>103.5370652409119</v>
@@ -29536,7 +29536,7 @@
         <v>103.5370652409119</v>
       </c>
       <c r="K29" t="n">
-        <v>41.72891940804016</v>
+        <v>103.5370652409119</v>
       </c>
       <c r="L29" t="n">
         <v>103.5370652409119</v>
@@ -29545,7 +29545,7 @@
         <v>103.5370652409119</v>
       </c>
       <c r="N29" t="n">
-        <v>103.5370652409119</v>
+        <v>41.72891940804033</v>
       </c>
       <c r="O29" t="n">
         <v>103.5370652409119</v>
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>138.6529754271434</v>
+        <v>138.6529754271433</v>
       </c>
       <c r="C32" t="n">
-        <v>138.6529754271434</v>
+        <v>138.6529754271433</v>
       </c>
       <c r="D32" t="n">
-        <v>138.6529754271434</v>
+        <v>138.6529754271433</v>
       </c>
       <c r="E32" t="n">
-        <v>138.6529754271434</v>
+        <v>138.6529754271433</v>
       </c>
       <c r="F32" t="n">
-        <v>138.6529754271434</v>
+        <v>138.6529754271433</v>
       </c>
       <c r="G32" t="n">
-        <v>138.6529754271434</v>
+        <v>138.6529754271433</v>
       </c>
       <c r="H32" t="n">
-        <v>138.6529754271434</v>
+        <v>138.6529754271433</v>
       </c>
       <c r="I32" t="n">
-        <v>138.6529754271434</v>
+        <v>138.6529754271433</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29779,43 +29779,43 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>138.6529754271434</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>134.8373849859507</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>55.28590942455145</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>138.6529754271433</v>
       </c>
       <c r="R32" t="n">
-        <v>59.10149986574392</v>
+        <v>138.6529754271433</v>
       </c>
       <c r="S32" t="n">
-        <v>138.6529754271434</v>
+        <v>138.6529754271433</v>
       </c>
       <c r="T32" t="n">
-        <v>138.6529754271434</v>
+        <v>138.6529754271433</v>
       </c>
       <c r="U32" t="n">
-        <v>138.6529754271434</v>
+        <v>138.6529754271433</v>
       </c>
       <c r="V32" t="n">
-        <v>138.6529754271434</v>
+        <v>138.6529754271433</v>
       </c>
       <c r="W32" t="n">
-        <v>138.6529754271434</v>
+        <v>138.6529754271433</v>
       </c>
       <c r="X32" t="n">
-        <v>138.6529754271434</v>
+        <v>138.6529754271433</v>
       </c>
       <c r="Y32" t="n">
-        <v>138.6529754271434</v>
+        <v>138.6529754271433</v>
       </c>
     </row>
     <row r="33">
@@ -29904,31 +29904,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>138.6529754271434</v>
+        <v>138.6529754271433</v>
       </c>
       <c r="C34" t="n">
-        <v>138.6529754271434</v>
+        <v>138.6529754271433</v>
       </c>
       <c r="D34" t="n">
-        <v>138.6529754271434</v>
+        <v>138.6529754271433</v>
       </c>
       <c r="E34" t="n">
-        <v>138.6529754271434</v>
+        <v>138.6529754271433</v>
       </c>
       <c r="F34" t="n">
-        <v>138.6529754271434</v>
+        <v>138.6529754271433</v>
       </c>
       <c r="G34" t="n">
-        <v>138.6529754271434</v>
+        <v>138.6529754271433</v>
       </c>
       <c r="H34" t="n">
-        <v>138.6529754271434</v>
+        <v>138.6529754271433</v>
       </c>
       <c r="I34" t="n">
         <v>136.1832320345219</v>
       </c>
       <c r="J34" t="n">
-        <v>43.9925156610596</v>
+        <v>99.53519972945517</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -29937,7 +29937,7 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>138.6529754271433</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -29946,34 +29946,34 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>138.6529754271434</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>75.37906879256337</v>
+        <v>19.83638472416913</v>
       </c>
       <c r="R34" t="n">
         <v>138.1917058418638</v>
       </c>
       <c r="S34" t="n">
-        <v>138.6529754271434</v>
+        <v>138.6529754271433</v>
       </c>
       <c r="T34" t="n">
-        <v>138.6529754271434</v>
+        <v>138.6529754271433</v>
       </c>
       <c r="U34" t="n">
-        <v>138.6529754271434</v>
+        <v>138.6529754271433</v>
       </c>
       <c r="V34" t="n">
-        <v>138.6529754271434</v>
+        <v>138.6529754271433</v>
       </c>
       <c r="W34" t="n">
-        <v>138.6529754271434</v>
+        <v>138.6529754271433</v>
       </c>
       <c r="X34" t="n">
-        <v>138.6529754271434</v>
+        <v>138.6529754271433</v>
       </c>
       <c r="Y34" t="n">
-        <v>138.6529754271434</v>
+        <v>138.6529754271433</v>
       </c>
     </row>
     <row r="35">
@@ -30031,7 +30031,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>59.10149986574392</v>
+        <v>59.10149986574393</v>
       </c>
       <c r="S35" t="n">
         <v>156.8251744638506</v>
@@ -30159,7 +30159,7 @@
         <v>156.8251744638506</v>
       </c>
       <c r="H37" t="n">
-        <v>110.2351304517879</v>
+        <v>155.834217826375</v>
       </c>
       <c r="I37" t="n">
         <v>136.1832320345219</v>
@@ -30186,10 +30186,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>19.83638472416912</v>
+        <v>19.83638472416913</v>
       </c>
       <c r="R37" t="n">
-        <v>138.1917058418638</v>
+        <v>92.59261846727711</v>
       </c>
       <c r="S37" t="n">
         <v>156.8251744638506</v>
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638505</v>
       </c>
       <c r="C38" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638505</v>
       </c>
       <c r="D38" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638505</v>
       </c>
       <c r="E38" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638505</v>
       </c>
       <c r="F38" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638505</v>
       </c>
       <c r="G38" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638505</v>
       </c>
       <c r="H38" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638505</v>
       </c>
       <c r="I38" t="n">
         <v>152.2900911541166</v>
@@ -30268,28 +30268,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>59.10149986574392</v>
+        <v>59.10149986574393</v>
       </c>
       <c r="S38" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638505</v>
       </c>
       <c r="T38" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638505</v>
       </c>
       <c r="U38" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638505</v>
       </c>
       <c r="V38" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638505</v>
       </c>
       <c r="W38" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638505</v>
       </c>
       <c r="X38" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638505</v>
       </c>
       <c r="Y38" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638505</v>
       </c>
     </row>
     <row r="39">
@@ -30378,10 +30378,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638505</v>
       </c>
       <c r="C40" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638505</v>
       </c>
       <c r="D40" t="n">
         <v>151.5411742405149</v>
@@ -30393,7 +30393,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638505</v>
       </c>
       <c r="H40" t="n">
         <v>155.834217826375</v>
@@ -30423,31 +30423,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>18.22981301064179</v>
+        <v>19.83638472416913</v>
       </c>
       <c r="R40" t="n">
-        <v>138.1917058418638</v>
+        <v>136.5851341283373</v>
       </c>
       <c r="S40" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638505</v>
       </c>
       <c r="T40" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638505</v>
       </c>
       <c r="U40" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638505</v>
       </c>
       <c r="V40" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638505</v>
       </c>
       <c r="W40" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638505</v>
       </c>
       <c r="X40" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638505</v>
       </c>
       <c r="Y40" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638505</v>
       </c>
     </row>
     <row r="41">
@@ -30505,7 +30505,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>59.10149986574392</v>
+        <v>59.10149986574393</v>
       </c>
       <c r="S41" t="n">
         <v>156.8251744638506</v>
@@ -30624,7 +30624,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E43" t="n">
-        <v>104.8898367217072</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F43" t="n">
         <v>150.9558484244806</v>
@@ -30639,7 +30639,7 @@
         <v>136.1832320345219</v>
       </c>
       <c r="J43" t="n">
-        <v>43.9925156610596</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30660,13 +30660,13 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>19.83638472416912</v>
+        <v>19.83638472416913</v>
       </c>
       <c r="R43" t="n">
         <v>138.1917058418638</v>
       </c>
       <c r="S43" t="n">
-        <v>156.8251744638506</v>
+        <v>155.2186027503238</v>
       </c>
       <c r="T43" t="n">
         <v>156.8251744638506</v>
@@ -30742,7 +30742,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>59.10149986574392</v>
+        <v>59.10149986574393</v>
       </c>
       <c r="S44" t="n">
         <v>156.8251744638506</v>
@@ -30867,10 +30867,10 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
-        <v>111.2260870892635</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="H46" t="n">
-        <v>155.834217826375</v>
+        <v>110.2351304517883</v>
       </c>
       <c r="I46" t="n">
         <v>136.1832320345219</v>
@@ -30897,7 +30897,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>19.83638472416912</v>
+        <v>19.83638472416913</v>
       </c>
       <c r="R46" t="n">
         <v>138.1917058418638</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4876191076888739</v>
+        <v>0.487619107688875</v>
       </c>
       <c r="H11" t="n">
-        <v>4.993829186618681</v>
+        <v>4.993829186618692</v>
       </c>
       <c r="I11" t="n">
-        <v>18.79893564917533</v>
+        <v>18.79893564917537</v>
       </c>
       <c r="J11" t="n">
-        <v>41.3860622412086</v>
+        <v>41.38606224120869</v>
       </c>
       <c r="K11" t="n">
-        <v>62.02697906967865</v>
+        <v>62.02697906967877</v>
       </c>
       <c r="L11" t="n">
-        <v>76.94995233661204</v>
+        <v>76.9499523366122</v>
       </c>
       <c r="M11" t="n">
-        <v>85.62164864297405</v>
+        <v>85.62164864297422</v>
       </c>
       <c r="N11" t="n">
-        <v>87.00709643269506</v>
+        <v>87.00709643269525</v>
       </c>
       <c r="O11" t="n">
-        <v>82.15833393061382</v>
+        <v>82.15833393061399</v>
       </c>
       <c r="P11" t="n">
-        <v>70.12023720954474</v>
+        <v>70.12023720954488</v>
       </c>
       <c r="Q11" t="n">
-        <v>52.65737791543692</v>
+        <v>52.65737791543703</v>
       </c>
       <c r="R11" t="n">
-        <v>30.63040377336126</v>
+        <v>30.63040377336132</v>
       </c>
       <c r="S11" t="n">
-        <v>11.11162041646022</v>
+        <v>11.11162041646025</v>
       </c>
       <c r="T11" t="n">
-        <v>2.134552643908047</v>
+        <v>2.134552643908051</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03900952861510991</v>
+        <v>0.03900952861510999</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2608992235148538</v>
+        <v>0.2608992235148544</v>
       </c>
       <c r="H12" t="n">
-        <v>2.519737237630299</v>
+        <v>2.519737237630304</v>
       </c>
       <c r="I12" t="n">
-        <v>8.982714493822819</v>
+        <v>8.982714493822838</v>
       </c>
       <c r="J12" t="n">
-        <v>24.6492551479538</v>
+        <v>24.64925514795386</v>
       </c>
       <c r="K12" t="n">
-        <v>42.12950312344901</v>
+        <v>42.1295031234491</v>
       </c>
       <c r="L12" t="n">
-        <v>56.64831605308263</v>
+        <v>56.64831605308275</v>
       </c>
       <c r="M12" t="n">
-        <v>66.10591290549607</v>
+        <v>66.10591290549621</v>
       </c>
       <c r="N12" t="n">
-        <v>67.85553971582156</v>
+        <v>67.85553971582171</v>
       </c>
       <c r="O12" t="n">
-        <v>62.07456218425559</v>
+        <v>62.07456218425573</v>
       </c>
       <c r="P12" t="n">
-        <v>49.82030874293731</v>
+        <v>49.82030874293741</v>
       </c>
       <c r="Q12" t="n">
-        <v>33.3035570227031</v>
+        <v>33.30355702270317</v>
       </c>
       <c r="R12" t="n">
-        <v>16.19863775472049</v>
+        <v>16.19863775472053</v>
       </c>
       <c r="S12" t="n">
-        <v>4.846088647304409</v>
+        <v>4.846088647304419</v>
       </c>
       <c r="T12" t="n">
-        <v>1.051606957939257</v>
+        <v>1.051606957939259</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01716442259966144</v>
+        <v>0.01716442259966148</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2187291448219151</v>
+        <v>0.2187291448219155</v>
       </c>
       <c r="H13" t="n">
-        <v>1.944700942143938</v>
+        <v>1.944700942143942</v>
       </c>
       <c r="I13" t="n">
-        <v>6.577781918826322</v>
+        <v>6.577781918826336</v>
       </c>
       <c r="J13" t="n">
-        <v>15.4641505389094</v>
+        <v>15.46415053890943</v>
       </c>
       <c r="K13" t="n">
-        <v>25.41234973476431</v>
+        <v>25.41234973476437</v>
       </c>
       <c r="L13" t="n">
-        <v>32.51905849470545</v>
+        <v>32.51905849470553</v>
       </c>
       <c r="M13" t="n">
-        <v>34.28678767422074</v>
+        <v>34.28678767422082</v>
       </c>
       <c r="N13" t="n">
-        <v>33.47152449806636</v>
+        <v>33.47152449806643</v>
       </c>
       <c r="O13" t="n">
-        <v>30.91637039719216</v>
+        <v>30.91637039719222</v>
       </c>
       <c r="P13" t="n">
-        <v>26.45429584282507</v>
+        <v>26.45429584282512</v>
       </c>
       <c r="Q13" t="n">
-        <v>18.31558320867873</v>
+        <v>18.31558320867877</v>
       </c>
       <c r="R13" t="n">
-        <v>9.834857729901744</v>
+        <v>9.834857729901765</v>
       </c>
       <c r="S13" t="n">
-        <v>3.811852460214646</v>
+        <v>3.811852460214654</v>
       </c>
       <c r="T13" t="n">
-        <v>0.9345699824209097</v>
+        <v>0.9345699824209117</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01193068062664993</v>
+        <v>0.01193068062664995</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.487619107688874</v>
+        <v>0.4876191076888749</v>
       </c>
       <c r="H14" t="n">
-        <v>4.993829186618682</v>
+        <v>4.993829186618691</v>
       </c>
       <c r="I14" t="n">
-        <v>18.79893564917533</v>
+        <v>18.79893564917537</v>
       </c>
       <c r="J14" t="n">
-        <v>41.38606224120861</v>
+        <v>41.38606224120868</v>
       </c>
       <c r="K14" t="n">
-        <v>62.02697906967865</v>
+        <v>62.02697906967877</v>
       </c>
       <c r="L14" t="n">
-        <v>76.94995233661204</v>
+        <v>76.94995233661218</v>
       </c>
       <c r="M14" t="n">
-        <v>85.62164864297405</v>
+        <v>85.62164864297422</v>
       </c>
       <c r="N14" t="n">
-        <v>87.00709643269508</v>
+        <v>87.00709643269523</v>
       </c>
       <c r="O14" t="n">
-        <v>82.15833393061384</v>
+        <v>82.15833393061398</v>
       </c>
       <c r="P14" t="n">
-        <v>70.12023720954474</v>
+        <v>70.12023720954487</v>
       </c>
       <c r="Q14" t="n">
-        <v>52.65737791543692</v>
+        <v>52.65737791543702</v>
       </c>
       <c r="R14" t="n">
-        <v>30.63040377336126</v>
+        <v>30.63040377336132</v>
       </c>
       <c r="S14" t="n">
-        <v>11.11162041646023</v>
+        <v>11.11162041646025</v>
       </c>
       <c r="T14" t="n">
-        <v>2.134552643908047</v>
+        <v>2.134552643908051</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03900952861510991</v>
+        <v>0.03900952861510999</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2608992235148538</v>
+        <v>0.2608992235148543</v>
       </c>
       <c r="H15" t="n">
-        <v>2.5197372376303</v>
+        <v>2.519737237630304</v>
       </c>
       <c r="I15" t="n">
-        <v>8.982714493822821</v>
+        <v>8.982714493822838</v>
       </c>
       <c r="J15" t="n">
-        <v>24.64925514795381</v>
+        <v>24.64925514795385</v>
       </c>
       <c r="K15" t="n">
-        <v>42.12950312344901</v>
+        <v>42.12950312344909</v>
       </c>
       <c r="L15" t="n">
-        <v>56.64831605308264</v>
+        <v>56.64831605308274</v>
       </c>
       <c r="M15" t="n">
-        <v>66.10591290549607</v>
+        <v>66.1059129054962</v>
       </c>
       <c r="N15" t="n">
-        <v>67.85553971582158</v>
+        <v>67.85553971582171</v>
       </c>
       <c r="O15" t="n">
-        <v>62.0745621842556</v>
+        <v>62.07456218425572</v>
       </c>
       <c r="P15" t="n">
-        <v>49.82030874293732</v>
+        <v>49.82030874293741</v>
       </c>
       <c r="Q15" t="n">
-        <v>33.3035570227031</v>
+        <v>33.30355702270317</v>
       </c>
       <c r="R15" t="n">
-        <v>16.19863775472049</v>
+        <v>16.19863775472053</v>
       </c>
       <c r="S15" t="n">
-        <v>4.846088647304409</v>
+        <v>4.846088647304419</v>
       </c>
       <c r="T15" t="n">
-        <v>1.051606957939257</v>
+        <v>1.051606957939259</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01716442259966144</v>
+        <v>0.01716442259966148</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2187291448219151</v>
+        <v>0.2187291448219155</v>
       </c>
       <c r="H16" t="n">
-        <v>1.944700942143938</v>
+        <v>1.944700942143941</v>
       </c>
       <c r="I16" t="n">
-        <v>6.577781918826322</v>
+        <v>6.577781918826335</v>
       </c>
       <c r="J16" t="n">
-        <v>15.4641505389094</v>
+        <v>15.46415053890943</v>
       </c>
       <c r="K16" t="n">
-        <v>25.41234973476432</v>
+        <v>25.41234973476436</v>
       </c>
       <c r="L16" t="n">
-        <v>32.51905849470546</v>
+        <v>32.51905849470552</v>
       </c>
       <c r="M16" t="n">
-        <v>34.28678767422075</v>
+        <v>34.28678767422081</v>
       </c>
       <c r="N16" t="n">
-        <v>33.47152449806637</v>
+        <v>33.47152449806642</v>
       </c>
       <c r="O16" t="n">
-        <v>30.91637039719216</v>
+        <v>30.91637039719222</v>
       </c>
       <c r="P16" t="n">
-        <v>26.45429584282507</v>
+        <v>26.45429584282512</v>
       </c>
       <c r="Q16" t="n">
-        <v>18.31558320867873</v>
+        <v>18.31558320867877</v>
       </c>
       <c r="R16" t="n">
-        <v>9.834857729901746</v>
+        <v>9.834857729901763</v>
       </c>
       <c r="S16" t="n">
-        <v>3.811852460214647</v>
+        <v>3.811852460214654</v>
       </c>
       <c r="T16" t="n">
-        <v>0.9345699824209098</v>
+        <v>0.9345699824209116</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01193068062664993</v>
+        <v>0.01193068062664995</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.487619107688874</v>
+        <v>0.4876191076888749</v>
       </c>
       <c r="H17" t="n">
-        <v>4.993829186618682</v>
+        <v>4.993829186618691</v>
       </c>
       <c r="I17" t="n">
-        <v>18.79893564917533</v>
+        <v>18.79893564917537</v>
       </c>
       <c r="J17" t="n">
-        <v>41.38606224120861</v>
+        <v>41.38606224120868</v>
       </c>
       <c r="K17" t="n">
-        <v>62.02697906967865</v>
+        <v>62.02697906967877</v>
       </c>
       <c r="L17" t="n">
-        <v>76.94995233661204</v>
+        <v>76.94995233661218</v>
       </c>
       <c r="M17" t="n">
-        <v>85.62164864297405</v>
+        <v>85.62164864297422</v>
       </c>
       <c r="N17" t="n">
-        <v>87.00709643269508</v>
+        <v>87.00709643269523</v>
       </c>
       <c r="O17" t="n">
-        <v>82.15833393061384</v>
+        <v>82.15833393061398</v>
       </c>
       <c r="P17" t="n">
-        <v>70.12023720954474</v>
+        <v>70.12023720954487</v>
       </c>
       <c r="Q17" t="n">
-        <v>52.65737791543692</v>
+        <v>52.65737791543702</v>
       </c>
       <c r="R17" t="n">
-        <v>30.63040377336126</v>
+        <v>30.63040377336132</v>
       </c>
       <c r="S17" t="n">
-        <v>11.11162041646023</v>
+        <v>11.11162041646025</v>
       </c>
       <c r="T17" t="n">
-        <v>2.134552643908047</v>
+        <v>2.134552643908051</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03900952861510991</v>
+        <v>0.03900952861510999</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2608992235148538</v>
+        <v>0.2608992235148543</v>
       </c>
       <c r="H18" t="n">
-        <v>2.5197372376303</v>
+        <v>2.519737237630304</v>
       </c>
       <c r="I18" t="n">
-        <v>8.982714493822821</v>
+        <v>8.982714493822838</v>
       </c>
       <c r="J18" t="n">
-        <v>24.64925514795381</v>
+        <v>24.64925514795385</v>
       </c>
       <c r="K18" t="n">
-        <v>42.12950312344901</v>
+        <v>42.12950312344909</v>
       </c>
       <c r="L18" t="n">
-        <v>56.64831605308264</v>
+        <v>56.64831605308274</v>
       </c>
       <c r="M18" t="n">
-        <v>66.10591290549607</v>
+        <v>66.1059129054962</v>
       </c>
       <c r="N18" t="n">
-        <v>67.85553971582158</v>
+        <v>67.85553971582171</v>
       </c>
       <c r="O18" t="n">
-        <v>62.0745621842556</v>
+        <v>62.07456218425572</v>
       </c>
       <c r="P18" t="n">
-        <v>49.82030874293732</v>
+        <v>49.82030874293741</v>
       </c>
       <c r="Q18" t="n">
-        <v>33.3035570227031</v>
+        <v>33.30355702270317</v>
       </c>
       <c r="R18" t="n">
-        <v>16.19863775472049</v>
+        <v>16.19863775472053</v>
       </c>
       <c r="S18" t="n">
-        <v>4.846088647304409</v>
+        <v>4.846088647304419</v>
       </c>
       <c r="T18" t="n">
-        <v>1.051606957939257</v>
+        <v>1.051606957939259</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01716442259966144</v>
+        <v>0.01716442259966148</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2187291448219151</v>
+        <v>0.2187291448219155</v>
       </c>
       <c r="H19" t="n">
-        <v>1.944700942143938</v>
+        <v>1.944700942143941</v>
       </c>
       <c r="I19" t="n">
-        <v>6.577781918826322</v>
+        <v>6.577781918826335</v>
       </c>
       <c r="J19" t="n">
-        <v>15.4641505389094</v>
+        <v>15.46415053890943</v>
       </c>
       <c r="K19" t="n">
-        <v>25.41234973476432</v>
+        <v>25.41234973476436</v>
       </c>
       <c r="L19" t="n">
-        <v>32.51905849470546</v>
+        <v>32.51905849470552</v>
       </c>
       <c r="M19" t="n">
-        <v>34.28678767422075</v>
+        <v>34.28678767422081</v>
       </c>
       <c r="N19" t="n">
-        <v>33.47152449806637</v>
+        <v>33.47152449806642</v>
       </c>
       <c r="O19" t="n">
-        <v>30.91637039719216</v>
+        <v>30.91637039719222</v>
       </c>
       <c r="P19" t="n">
-        <v>26.45429584282507</v>
+        <v>26.45429584282512</v>
       </c>
       <c r="Q19" t="n">
-        <v>18.31558320867873</v>
+        <v>18.31558320867877</v>
       </c>
       <c r="R19" t="n">
-        <v>9.834857729901746</v>
+        <v>9.834857729901763</v>
       </c>
       <c r="S19" t="n">
-        <v>3.811852460214647</v>
+        <v>3.811852460214654</v>
       </c>
       <c r="T19" t="n">
-        <v>0.9345699824209098</v>
+        <v>0.9345699824209116</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01193068062664993</v>
+        <v>0.01193068062664995</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.487619107688874</v>
+        <v>0.4876191076888749</v>
       </c>
       <c r="H20" t="n">
-        <v>4.993829186618682</v>
+        <v>4.993829186618691</v>
       </c>
       <c r="I20" t="n">
-        <v>18.79893564917533</v>
+        <v>18.79893564917537</v>
       </c>
       <c r="J20" t="n">
-        <v>41.38606224120861</v>
+        <v>41.38606224120868</v>
       </c>
       <c r="K20" t="n">
-        <v>62.02697906967865</v>
+        <v>62.02697906967877</v>
       </c>
       <c r="L20" t="n">
-        <v>76.94995233661204</v>
+        <v>76.94995233661218</v>
       </c>
       <c r="M20" t="n">
-        <v>85.62164864297405</v>
+        <v>85.62164864297422</v>
       </c>
       <c r="N20" t="n">
-        <v>87.00709643269508</v>
+        <v>87.00709643269523</v>
       </c>
       <c r="O20" t="n">
-        <v>82.15833393061384</v>
+        <v>82.15833393061398</v>
       </c>
       <c r="P20" t="n">
-        <v>70.12023720954474</v>
+        <v>70.12023720954487</v>
       </c>
       <c r="Q20" t="n">
-        <v>52.65737791543692</v>
+        <v>52.65737791543702</v>
       </c>
       <c r="R20" t="n">
-        <v>30.63040377336126</v>
+        <v>30.63040377336132</v>
       </c>
       <c r="S20" t="n">
-        <v>11.11162041646023</v>
+        <v>11.11162041646025</v>
       </c>
       <c r="T20" t="n">
-        <v>2.134552643908047</v>
+        <v>2.134552643908051</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03900952861510991</v>
+        <v>0.03900952861510999</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2608992235148538</v>
+        <v>0.2608992235148543</v>
       </c>
       <c r="H21" t="n">
-        <v>2.5197372376303</v>
+        <v>2.519737237630304</v>
       </c>
       <c r="I21" t="n">
-        <v>8.982714493822821</v>
+        <v>8.982714493822838</v>
       </c>
       <c r="J21" t="n">
-        <v>24.64925514795381</v>
+        <v>24.64925514795385</v>
       </c>
       <c r="K21" t="n">
-        <v>42.12950312344901</v>
+        <v>42.12950312344909</v>
       </c>
       <c r="L21" t="n">
-        <v>56.64831605308264</v>
+        <v>56.64831605308274</v>
       </c>
       <c r="M21" t="n">
-        <v>66.10591290549607</v>
+        <v>66.1059129054962</v>
       </c>
       <c r="N21" t="n">
-        <v>67.85553971582158</v>
+        <v>67.85553971582171</v>
       </c>
       <c r="O21" t="n">
-        <v>62.0745621842556</v>
+        <v>62.07456218425572</v>
       </c>
       <c r="P21" t="n">
-        <v>49.82030874293732</v>
+        <v>49.82030874293741</v>
       </c>
       <c r="Q21" t="n">
-        <v>33.3035570227031</v>
+        <v>33.30355702270317</v>
       </c>
       <c r="R21" t="n">
-        <v>16.19863775472049</v>
+        <v>16.19863775472053</v>
       </c>
       <c r="S21" t="n">
-        <v>4.846088647304409</v>
+        <v>4.846088647304419</v>
       </c>
       <c r="T21" t="n">
-        <v>1.051606957939257</v>
+        <v>1.051606957939259</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01716442259966144</v>
+        <v>0.01716442259966148</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2187291448219151</v>
+        <v>0.2187291448219155</v>
       </c>
       <c r="H22" t="n">
-        <v>1.944700942143938</v>
+        <v>1.944700942143941</v>
       </c>
       <c r="I22" t="n">
-        <v>6.577781918826322</v>
+        <v>6.577781918826335</v>
       </c>
       <c r="J22" t="n">
-        <v>15.4641505389094</v>
+        <v>15.46415053890943</v>
       </c>
       <c r="K22" t="n">
-        <v>25.41234973476432</v>
+        <v>25.41234973476436</v>
       </c>
       <c r="L22" t="n">
-        <v>32.51905849470546</v>
+        <v>32.51905849470552</v>
       </c>
       <c r="M22" t="n">
-        <v>34.28678767422075</v>
+        <v>34.28678767422081</v>
       </c>
       <c r="N22" t="n">
-        <v>33.47152449806637</v>
+        <v>33.47152449806642</v>
       </c>
       <c r="O22" t="n">
-        <v>30.91637039719216</v>
+        <v>30.91637039719222</v>
       </c>
       <c r="P22" t="n">
-        <v>26.45429584282507</v>
+        <v>26.45429584282512</v>
       </c>
       <c r="Q22" t="n">
-        <v>18.31558320867873</v>
+        <v>18.31558320867877</v>
       </c>
       <c r="R22" t="n">
-        <v>9.834857729901746</v>
+        <v>9.834857729901763</v>
       </c>
       <c r="S22" t="n">
-        <v>3.811852460214647</v>
+        <v>3.811852460214654</v>
       </c>
       <c r="T22" t="n">
-        <v>0.9345699824209098</v>
+        <v>0.9345699824209116</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01193068062664993</v>
+        <v>0.01193068062664995</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32710,25 +32710,25 @@
         <v>41.38606224120861</v>
       </c>
       <c r="K23" t="n">
-        <v>62.02697906967865</v>
+        <v>62.02697906967866</v>
       </c>
       <c r="L23" t="n">
-        <v>76.94995233661204</v>
+        <v>76.94995233661206</v>
       </c>
       <c r="M23" t="n">
-        <v>85.62164864297405</v>
+        <v>85.62164864297407</v>
       </c>
       <c r="N23" t="n">
-        <v>87.00709643269508</v>
+        <v>87.00709643269509</v>
       </c>
       <c r="O23" t="n">
         <v>82.15833393061384</v>
       </c>
       <c r="P23" t="n">
-        <v>70.12023720954474</v>
+        <v>70.12023720954475</v>
       </c>
       <c r="Q23" t="n">
-        <v>52.65737791543692</v>
+        <v>52.65737791543693</v>
       </c>
       <c r="R23" t="n">
         <v>30.63040377336126</v>
@@ -32740,7 +32740,7 @@
         <v>2.134552643908047</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03900952861510991</v>
+        <v>0.03900952861510992</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2608992235148538</v>
+        <v>0.2608992235148539</v>
       </c>
       <c r="H24" t="n">
         <v>2.5197372376303</v>
       </c>
       <c r="I24" t="n">
-        <v>8.982714493822821</v>
+        <v>8.982714493822822</v>
       </c>
       <c r="J24" t="n">
         <v>24.64925514795381</v>
       </c>
       <c r="K24" t="n">
-        <v>42.12950312344901</v>
+        <v>42.12950312344902</v>
       </c>
       <c r="L24" t="n">
-        <v>56.64831605308264</v>
+        <v>56.64831605308265</v>
       </c>
       <c r="M24" t="n">
-        <v>66.10591290549607</v>
+        <v>66.10591290549608</v>
       </c>
       <c r="N24" t="n">
-        <v>67.85553971582158</v>
+        <v>67.85553971582159</v>
       </c>
       <c r="O24" t="n">
-        <v>62.0745621842556</v>
+        <v>62.07456218425561</v>
       </c>
       <c r="P24" t="n">
         <v>49.82030874293732</v>
       </c>
       <c r="Q24" t="n">
-        <v>33.3035570227031</v>
+        <v>33.30355702270311</v>
       </c>
       <c r="R24" t="n">
-        <v>16.19863775472049</v>
+        <v>16.1986377547205</v>
       </c>
       <c r="S24" t="n">
-        <v>4.846088647304409</v>
+        <v>4.84608864730441</v>
       </c>
       <c r="T24" t="n">
         <v>1.051606957939257</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01716442259966144</v>
+        <v>0.01716442259966145</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2187291448219151</v>
+        <v>0.2187291448219152</v>
       </c>
       <c r="H25" t="n">
         <v>1.944700942143938</v>
       </c>
       <c r="I25" t="n">
-        <v>6.577781918826322</v>
+        <v>6.577781918826323</v>
       </c>
       <c r="J25" t="n">
         <v>15.4641505389094</v>
@@ -32895,7 +32895,7 @@
         <v>3.811852460214647</v>
       </c>
       <c r="T25" t="n">
-        <v>0.9345699824209098</v>
+        <v>0.9345699824209099</v>
       </c>
       <c r="U25" t="n">
         <v>0.01193068062664993</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.487619107688874</v>
+        <v>0.4876191076888739</v>
       </c>
       <c r="H26" t="n">
-        <v>4.993829186618682</v>
+        <v>4.993829186618681</v>
       </c>
       <c r="I26" t="n">
         <v>18.79893564917533</v>
       </c>
       <c r="J26" t="n">
-        <v>41.38606224120861</v>
+        <v>41.3860622412086</v>
       </c>
       <c r="K26" t="n">
         <v>62.02697906967865</v>
@@ -32956,10 +32956,10 @@
         <v>85.62164864297405</v>
       </c>
       <c r="N26" t="n">
-        <v>87.00709643269508</v>
+        <v>87.00709643269506</v>
       </c>
       <c r="O26" t="n">
-        <v>82.15833393061384</v>
+        <v>82.15833393061382</v>
       </c>
       <c r="P26" t="n">
         <v>70.12023720954474</v>
@@ -32971,7 +32971,7 @@
         <v>30.63040377336126</v>
       </c>
       <c r="S26" t="n">
-        <v>11.11162041646023</v>
+        <v>11.11162041646022</v>
       </c>
       <c r="T26" t="n">
         <v>2.134552643908047</v>
@@ -33017,31 +33017,31 @@
         <v>0.2608992235148538</v>
       </c>
       <c r="H27" t="n">
-        <v>2.5197372376303</v>
+        <v>2.519737237630299</v>
       </c>
       <c r="I27" t="n">
-        <v>8.982714493822821</v>
+        <v>8.982714493822819</v>
       </c>
       <c r="J27" t="n">
-        <v>24.64925514795381</v>
+        <v>24.6492551479538</v>
       </c>
       <c r="K27" t="n">
         <v>42.12950312344901</v>
       </c>
       <c r="L27" t="n">
-        <v>56.64831605308264</v>
+        <v>56.64831605308263</v>
       </c>
       <c r="M27" t="n">
         <v>66.10591290549607</v>
       </c>
       <c r="N27" t="n">
-        <v>67.85553971582158</v>
+        <v>67.85553971582156</v>
       </c>
       <c r="O27" t="n">
-        <v>62.0745621842556</v>
+        <v>62.07456218425559</v>
       </c>
       <c r="P27" t="n">
-        <v>49.82030874293732</v>
+        <v>49.82030874293731</v>
       </c>
       <c r="Q27" t="n">
         <v>33.3035570227031</v>
@@ -33105,16 +33105,16 @@
         <v>15.4641505389094</v>
       </c>
       <c r="K28" t="n">
-        <v>25.41234973476432</v>
+        <v>25.41234973476431</v>
       </c>
       <c r="L28" t="n">
-        <v>32.51905849470546</v>
+        <v>32.51905849470545</v>
       </c>
       <c r="M28" t="n">
-        <v>34.28678767422075</v>
+        <v>34.28678767422074</v>
       </c>
       <c r="N28" t="n">
-        <v>33.47152449806637</v>
+        <v>33.47152449806636</v>
       </c>
       <c r="O28" t="n">
         <v>30.91637039719216</v>
@@ -33126,13 +33126,13 @@
         <v>18.31558320867873</v>
       </c>
       <c r="R28" t="n">
-        <v>9.834857729901746</v>
+        <v>9.834857729901744</v>
       </c>
       <c r="S28" t="n">
-        <v>3.811852460214647</v>
+        <v>3.811852460214646</v>
       </c>
       <c r="T28" t="n">
-        <v>0.9345699824209098</v>
+        <v>0.9345699824209097</v>
       </c>
       <c r="U28" t="n">
         <v>0.01193068062664993</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.487619107688874</v>
+        <v>0.4876191076888739</v>
       </c>
       <c r="H29" t="n">
-        <v>4.993829186618682</v>
+        <v>4.993829186618681</v>
       </c>
       <c r="I29" t="n">
         <v>18.79893564917533</v>
       </c>
       <c r="J29" t="n">
-        <v>41.38606224120861</v>
+        <v>41.3860622412086</v>
       </c>
       <c r="K29" t="n">
         <v>62.02697906967865</v>
@@ -33193,10 +33193,10 @@
         <v>85.62164864297405</v>
       </c>
       <c r="N29" t="n">
-        <v>87.00709643269508</v>
+        <v>87.00709643269506</v>
       </c>
       <c r="O29" t="n">
-        <v>82.15833393061384</v>
+        <v>82.15833393061382</v>
       </c>
       <c r="P29" t="n">
         <v>70.12023720954474</v>
@@ -33208,7 +33208,7 @@
         <v>30.63040377336126</v>
       </c>
       <c r="S29" t="n">
-        <v>11.11162041646023</v>
+        <v>11.11162041646022</v>
       </c>
       <c r="T29" t="n">
         <v>2.134552643908047</v>
@@ -33254,31 +33254,31 @@
         <v>0.2608992235148538</v>
       </c>
       <c r="H30" t="n">
-        <v>2.5197372376303</v>
+        <v>2.519737237630299</v>
       </c>
       <c r="I30" t="n">
-        <v>8.982714493822821</v>
+        <v>8.982714493822819</v>
       </c>
       <c r="J30" t="n">
-        <v>24.64925514795381</v>
+        <v>24.6492551479538</v>
       </c>
       <c r="K30" t="n">
         <v>42.12950312344901</v>
       </c>
       <c r="L30" t="n">
-        <v>56.64831605308264</v>
+        <v>56.64831605308263</v>
       </c>
       <c r="M30" t="n">
         <v>66.10591290549607</v>
       </c>
       <c r="N30" t="n">
-        <v>67.85553971582158</v>
+        <v>67.85553971582156</v>
       </c>
       <c r="O30" t="n">
-        <v>62.0745621842556</v>
+        <v>62.07456218425559</v>
       </c>
       <c r="P30" t="n">
-        <v>49.82030874293732</v>
+        <v>49.82030874293731</v>
       </c>
       <c r="Q30" t="n">
         <v>33.3035570227031</v>
@@ -33342,16 +33342,16 @@
         <v>15.4641505389094</v>
       </c>
       <c r="K31" t="n">
-        <v>25.41234973476432</v>
+        <v>25.41234973476431</v>
       </c>
       <c r="L31" t="n">
-        <v>32.51905849470546</v>
+        <v>32.51905849470545</v>
       </c>
       <c r="M31" t="n">
-        <v>34.28678767422075</v>
+        <v>34.28678767422074</v>
       </c>
       <c r="N31" t="n">
-        <v>33.47152449806637</v>
+        <v>33.47152449806636</v>
       </c>
       <c r="O31" t="n">
         <v>30.91637039719216</v>
@@ -33363,13 +33363,13 @@
         <v>18.31558320867873</v>
       </c>
       <c r="R31" t="n">
-        <v>9.834857729901746</v>
+        <v>9.834857729901744</v>
       </c>
       <c r="S31" t="n">
-        <v>3.811852460214647</v>
+        <v>3.811852460214646</v>
       </c>
       <c r="T31" t="n">
-        <v>0.9345699824209098</v>
+        <v>0.9345699824209097</v>
       </c>
       <c r="U31" t="n">
         <v>0.01193068062664993</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.487619107688874</v>
+        <v>0.4876191076888739</v>
       </c>
       <c r="H32" t="n">
-        <v>4.993829186618682</v>
+        <v>4.993829186618681</v>
       </c>
       <c r="I32" t="n">
         <v>18.79893564917533</v>
       </c>
       <c r="J32" t="n">
-        <v>41.38606224120861</v>
+        <v>41.3860622412086</v>
       </c>
       <c r="K32" t="n">
         <v>62.02697906967865</v>
@@ -33430,10 +33430,10 @@
         <v>85.62164864297405</v>
       </c>
       <c r="N32" t="n">
-        <v>87.00709643269508</v>
+        <v>87.00709643269506</v>
       </c>
       <c r="O32" t="n">
-        <v>82.15833393061384</v>
+        <v>82.15833393061382</v>
       </c>
       <c r="P32" t="n">
         <v>70.12023720954474</v>
@@ -33445,7 +33445,7 @@
         <v>30.63040377336126</v>
       </c>
       <c r="S32" t="n">
-        <v>11.11162041646023</v>
+        <v>11.11162041646022</v>
       </c>
       <c r="T32" t="n">
         <v>2.134552643908047</v>
@@ -33491,31 +33491,31 @@
         <v>0.2608992235148538</v>
       </c>
       <c r="H33" t="n">
-        <v>2.5197372376303</v>
+        <v>2.519737237630299</v>
       </c>
       <c r="I33" t="n">
-        <v>8.982714493822821</v>
+        <v>8.982714493822819</v>
       </c>
       <c r="J33" t="n">
-        <v>24.64925514795381</v>
+        <v>24.6492551479538</v>
       </c>
       <c r="K33" t="n">
         <v>42.12950312344901</v>
       </c>
       <c r="L33" t="n">
-        <v>56.64831605308264</v>
+        <v>56.64831605308263</v>
       </c>
       <c r="M33" t="n">
         <v>66.10591290549607</v>
       </c>
       <c r="N33" t="n">
-        <v>67.85553971582158</v>
+        <v>67.85553971582156</v>
       </c>
       <c r="O33" t="n">
-        <v>62.0745621842556</v>
+        <v>62.07456218425559</v>
       </c>
       <c r="P33" t="n">
-        <v>49.82030874293732</v>
+        <v>49.82030874293731</v>
       </c>
       <c r="Q33" t="n">
         <v>33.3035570227031</v>
@@ -33579,16 +33579,16 @@
         <v>15.4641505389094</v>
       </c>
       <c r="K34" t="n">
-        <v>25.41234973476432</v>
+        <v>25.41234973476431</v>
       </c>
       <c r="L34" t="n">
-        <v>32.51905849470546</v>
+        <v>32.51905849470545</v>
       </c>
       <c r="M34" t="n">
-        <v>34.28678767422075</v>
+        <v>34.28678767422074</v>
       </c>
       <c r="N34" t="n">
-        <v>33.47152449806637</v>
+        <v>33.47152449806636</v>
       </c>
       <c r="O34" t="n">
         <v>30.91637039719216</v>
@@ -33600,13 +33600,13 @@
         <v>18.31558320867873</v>
       </c>
       <c r="R34" t="n">
-        <v>9.834857729901746</v>
+        <v>9.834857729901744</v>
       </c>
       <c r="S34" t="n">
-        <v>3.811852460214647</v>
+        <v>3.811852460214646</v>
       </c>
       <c r="T34" t="n">
-        <v>0.9345699824209098</v>
+        <v>0.9345699824209097</v>
       </c>
       <c r="U34" t="n">
         <v>0.01193068062664993</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.487619107688874</v>
+        <v>0.4876191076888739</v>
       </c>
       <c r="H35" t="n">
-        <v>4.993829186618682</v>
+        <v>4.993829186618681</v>
       </c>
       <c r="I35" t="n">
         <v>18.79893564917533</v>
       </c>
       <c r="J35" t="n">
-        <v>41.38606224120861</v>
+        <v>41.3860622412086</v>
       </c>
       <c r="K35" t="n">
         <v>62.02697906967865</v>
@@ -33667,10 +33667,10 @@
         <v>85.62164864297405</v>
       </c>
       <c r="N35" t="n">
-        <v>87.00709643269508</v>
+        <v>87.00709643269506</v>
       </c>
       <c r="O35" t="n">
-        <v>82.15833393061384</v>
+        <v>82.15833393061382</v>
       </c>
       <c r="P35" t="n">
         <v>70.12023720954474</v>
@@ -33682,7 +33682,7 @@
         <v>30.63040377336126</v>
       </c>
       <c r="S35" t="n">
-        <v>11.11162041646023</v>
+        <v>11.11162041646022</v>
       </c>
       <c r="T35" t="n">
         <v>2.134552643908047</v>
@@ -33728,31 +33728,31 @@
         <v>0.2608992235148538</v>
       </c>
       <c r="H36" t="n">
-        <v>2.5197372376303</v>
+        <v>2.519737237630299</v>
       </c>
       <c r="I36" t="n">
-        <v>8.982714493822821</v>
+        <v>8.982714493822819</v>
       </c>
       <c r="J36" t="n">
-        <v>24.64925514795381</v>
+        <v>24.6492551479538</v>
       </c>
       <c r="K36" t="n">
         <v>42.12950312344901</v>
       </c>
       <c r="L36" t="n">
-        <v>56.64831605308264</v>
+        <v>56.64831605308263</v>
       </c>
       <c r="M36" t="n">
         <v>66.10591290549607</v>
       </c>
       <c r="N36" t="n">
-        <v>67.85553971582158</v>
+        <v>67.85553971582156</v>
       </c>
       <c r="O36" t="n">
-        <v>62.0745621842556</v>
+        <v>62.07456218425559</v>
       </c>
       <c r="P36" t="n">
-        <v>49.82030874293732</v>
+        <v>49.82030874293731</v>
       </c>
       <c r="Q36" t="n">
         <v>33.3035570227031</v>
@@ -33816,16 +33816,16 @@
         <v>15.4641505389094</v>
       </c>
       <c r="K37" t="n">
-        <v>25.41234973476432</v>
+        <v>25.41234973476431</v>
       </c>
       <c r="L37" t="n">
-        <v>32.51905849470546</v>
+        <v>32.51905849470545</v>
       </c>
       <c r="M37" t="n">
-        <v>34.28678767422075</v>
+        <v>34.28678767422074</v>
       </c>
       <c r="N37" t="n">
-        <v>33.47152449806637</v>
+        <v>33.47152449806636</v>
       </c>
       <c r="O37" t="n">
         <v>30.91637039719216</v>
@@ -33837,13 +33837,13 @@
         <v>18.31558320867873</v>
       </c>
       <c r="R37" t="n">
-        <v>9.834857729901746</v>
+        <v>9.834857729901744</v>
       </c>
       <c r="S37" t="n">
-        <v>3.811852460214647</v>
+        <v>3.811852460214646</v>
       </c>
       <c r="T37" t="n">
-        <v>0.9345699824209098</v>
+        <v>0.9345699824209097</v>
       </c>
       <c r="U37" t="n">
         <v>0.01193068062664993</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.487619107688874</v>
+        <v>0.4876191076888739</v>
       </c>
       <c r="H38" t="n">
-        <v>4.993829186618682</v>
+        <v>4.993829186618681</v>
       </c>
       <c r="I38" t="n">
         <v>18.79893564917533</v>
       </c>
       <c r="J38" t="n">
-        <v>41.38606224120861</v>
+        <v>41.3860622412086</v>
       </c>
       <c r="K38" t="n">
         <v>62.02697906967865</v>
@@ -33904,10 +33904,10 @@
         <v>85.62164864297405</v>
       </c>
       <c r="N38" t="n">
-        <v>87.00709643269508</v>
+        <v>87.00709643269506</v>
       </c>
       <c r="O38" t="n">
-        <v>82.15833393061384</v>
+        <v>82.15833393061382</v>
       </c>
       <c r="P38" t="n">
         <v>70.12023720954474</v>
@@ -33919,7 +33919,7 @@
         <v>30.63040377336126</v>
       </c>
       <c r="S38" t="n">
-        <v>11.11162041646023</v>
+        <v>11.11162041646022</v>
       </c>
       <c r="T38" t="n">
         <v>2.134552643908047</v>
@@ -33965,31 +33965,31 @@
         <v>0.2608992235148538</v>
       </c>
       <c r="H39" t="n">
-        <v>2.5197372376303</v>
+        <v>2.519737237630299</v>
       </c>
       <c r="I39" t="n">
-        <v>8.982714493822821</v>
+        <v>8.982714493822819</v>
       </c>
       <c r="J39" t="n">
-        <v>24.64925514795381</v>
+        <v>24.6492551479538</v>
       </c>
       <c r="K39" t="n">
         <v>42.12950312344901</v>
       </c>
       <c r="L39" t="n">
-        <v>56.64831605308264</v>
+        <v>56.64831605308263</v>
       </c>
       <c r="M39" t="n">
         <v>66.10591290549607</v>
       </c>
       <c r="N39" t="n">
-        <v>67.85553971582158</v>
+        <v>67.85553971582156</v>
       </c>
       <c r="O39" t="n">
-        <v>62.0745621842556</v>
+        <v>62.07456218425559</v>
       </c>
       <c r="P39" t="n">
-        <v>49.82030874293732</v>
+        <v>49.82030874293731</v>
       </c>
       <c r="Q39" t="n">
         <v>33.3035570227031</v>
@@ -34053,16 +34053,16 @@
         <v>15.4641505389094</v>
       </c>
       <c r="K40" t="n">
-        <v>25.41234973476432</v>
+        <v>25.41234973476431</v>
       </c>
       <c r="L40" t="n">
-        <v>32.51905849470546</v>
+        <v>32.51905849470545</v>
       </c>
       <c r="M40" t="n">
-        <v>34.28678767422075</v>
+        <v>34.28678767422074</v>
       </c>
       <c r="N40" t="n">
-        <v>33.47152449806637</v>
+        <v>33.47152449806636</v>
       </c>
       <c r="O40" t="n">
         <v>30.91637039719216</v>
@@ -34074,13 +34074,13 @@
         <v>18.31558320867873</v>
       </c>
       <c r="R40" t="n">
-        <v>9.834857729901746</v>
+        <v>9.834857729901744</v>
       </c>
       <c r="S40" t="n">
-        <v>3.811852460214647</v>
+        <v>3.811852460214646</v>
       </c>
       <c r="T40" t="n">
-        <v>0.9345699824209098</v>
+        <v>0.9345699824209097</v>
       </c>
       <c r="U40" t="n">
         <v>0.01193068062664993</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.487619107688874</v>
+        <v>0.4876191076888739</v>
       </c>
       <c r="H41" t="n">
-        <v>4.993829186618682</v>
+        <v>4.993829186618681</v>
       </c>
       <c r="I41" t="n">
         <v>18.79893564917533</v>
       </c>
       <c r="J41" t="n">
-        <v>41.38606224120861</v>
+        <v>41.3860622412086</v>
       </c>
       <c r="K41" t="n">
         <v>62.02697906967865</v>
@@ -34141,10 +34141,10 @@
         <v>85.62164864297405</v>
       </c>
       <c r="N41" t="n">
-        <v>87.00709643269508</v>
+        <v>87.00709643269506</v>
       </c>
       <c r="O41" t="n">
-        <v>82.15833393061384</v>
+        <v>82.15833393061382</v>
       </c>
       <c r="P41" t="n">
         <v>70.12023720954474</v>
@@ -34156,7 +34156,7 @@
         <v>30.63040377336126</v>
       </c>
       <c r="S41" t="n">
-        <v>11.11162041646023</v>
+        <v>11.11162041646022</v>
       </c>
       <c r="T41" t="n">
         <v>2.134552643908047</v>
@@ -34202,31 +34202,31 @@
         <v>0.2608992235148538</v>
       </c>
       <c r="H42" t="n">
-        <v>2.5197372376303</v>
+        <v>2.519737237630299</v>
       </c>
       <c r="I42" t="n">
-        <v>8.982714493822821</v>
+        <v>8.982714493822819</v>
       </c>
       <c r="J42" t="n">
-        <v>24.64925514795381</v>
+        <v>24.6492551479538</v>
       </c>
       <c r="K42" t="n">
         <v>42.12950312344901</v>
       </c>
       <c r="L42" t="n">
-        <v>56.64831605308264</v>
+        <v>56.64831605308263</v>
       </c>
       <c r="M42" t="n">
         <v>66.10591290549607</v>
       </c>
       <c r="N42" t="n">
-        <v>67.85553971582158</v>
+        <v>67.85553971582156</v>
       </c>
       <c r="O42" t="n">
-        <v>62.0745621842556</v>
+        <v>62.07456218425559</v>
       </c>
       <c r="P42" t="n">
-        <v>49.82030874293732</v>
+        <v>49.82030874293731</v>
       </c>
       <c r="Q42" t="n">
         <v>33.3035570227031</v>
@@ -34290,16 +34290,16 @@
         <v>15.4641505389094</v>
       </c>
       <c r="K43" t="n">
-        <v>25.41234973476432</v>
+        <v>25.41234973476431</v>
       </c>
       <c r="L43" t="n">
-        <v>32.51905849470546</v>
+        <v>32.51905849470545</v>
       </c>
       <c r="M43" t="n">
-        <v>34.28678767422075</v>
+        <v>34.28678767422074</v>
       </c>
       <c r="N43" t="n">
-        <v>33.47152449806637</v>
+        <v>33.47152449806636</v>
       </c>
       <c r="O43" t="n">
         <v>30.91637039719216</v>
@@ -34311,13 +34311,13 @@
         <v>18.31558320867873</v>
       </c>
       <c r="R43" t="n">
-        <v>9.834857729901746</v>
+        <v>9.834857729901744</v>
       </c>
       <c r="S43" t="n">
-        <v>3.811852460214647</v>
+        <v>3.811852460214646</v>
       </c>
       <c r="T43" t="n">
-        <v>0.9345699824209098</v>
+        <v>0.9345699824209097</v>
       </c>
       <c r="U43" t="n">
         <v>0.01193068062664993</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.487619107688874</v>
+        <v>0.4876191076888739</v>
       </c>
       <c r="H44" t="n">
-        <v>4.993829186618682</v>
+        <v>4.993829186618681</v>
       </c>
       <c r="I44" t="n">
         <v>18.79893564917533</v>
       </c>
       <c r="J44" t="n">
-        <v>41.38606224120861</v>
+        <v>41.3860622412086</v>
       </c>
       <c r="K44" t="n">
         <v>62.02697906967865</v>
@@ -34378,10 +34378,10 @@
         <v>85.62164864297405</v>
       </c>
       <c r="N44" t="n">
-        <v>87.00709643269508</v>
+        <v>87.00709643269506</v>
       </c>
       <c r="O44" t="n">
-        <v>82.15833393061384</v>
+        <v>82.15833393061382</v>
       </c>
       <c r="P44" t="n">
         <v>70.12023720954474</v>
@@ -34393,7 +34393,7 @@
         <v>30.63040377336126</v>
       </c>
       <c r="S44" t="n">
-        <v>11.11162041646023</v>
+        <v>11.11162041646022</v>
       </c>
       <c r="T44" t="n">
         <v>2.134552643908047</v>
@@ -34439,31 +34439,31 @@
         <v>0.2608992235148538</v>
       </c>
       <c r="H45" t="n">
-        <v>2.5197372376303</v>
+        <v>2.519737237630299</v>
       </c>
       <c r="I45" t="n">
-        <v>8.982714493822821</v>
+        <v>8.982714493822819</v>
       </c>
       <c r="J45" t="n">
-        <v>24.64925514795381</v>
+        <v>24.6492551479538</v>
       </c>
       <c r="K45" t="n">
         <v>42.12950312344901</v>
       </c>
       <c r="L45" t="n">
-        <v>56.64831605308264</v>
+        <v>56.64831605308263</v>
       </c>
       <c r="M45" t="n">
         <v>66.10591290549607</v>
       </c>
       <c r="N45" t="n">
-        <v>67.85553971582158</v>
+        <v>67.85553971582156</v>
       </c>
       <c r="O45" t="n">
-        <v>62.0745621842556</v>
+        <v>62.07456218425559</v>
       </c>
       <c r="P45" t="n">
-        <v>49.82030874293732</v>
+        <v>49.82030874293731</v>
       </c>
       <c r="Q45" t="n">
         <v>33.3035570227031</v>
@@ -34527,16 +34527,16 @@
         <v>15.4641505389094</v>
       </c>
       <c r="K46" t="n">
-        <v>25.41234973476432</v>
+        <v>25.41234973476431</v>
       </c>
       <c r="L46" t="n">
-        <v>32.51905849470546</v>
+        <v>32.51905849470545</v>
       </c>
       <c r="M46" t="n">
-        <v>34.28678767422075</v>
+        <v>34.28678767422074</v>
       </c>
       <c r="N46" t="n">
-        <v>33.47152449806637</v>
+        <v>33.47152449806636</v>
       </c>
       <c r="O46" t="n">
         <v>30.91637039719216</v>
@@ -34548,13 +34548,13 @@
         <v>18.31558320867873</v>
       </c>
       <c r="R46" t="n">
-        <v>9.834857729901746</v>
+        <v>9.834857729901744</v>
       </c>
       <c r="S46" t="n">
-        <v>3.811852460214647</v>
+        <v>3.811852460214646</v>
       </c>
       <c r="T46" t="n">
-        <v>0.9345699824209098</v>
+        <v>0.9345699824209097</v>
       </c>
       <c r="U46" t="n">
         <v>0.01193068062664993</v>
@@ -35173,16 +35173,16 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
+      <c r="N8" t="n">
         <v>34.85926832931631</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>135.7293992974318</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>114.1118645369719</v>
+        <v>114.111864536972</v>
       </c>
       <c r="K11" t="n">
-        <v>304.593011438146</v>
+        <v>304.5930114381462</v>
       </c>
       <c r="L11" t="n">
-        <v>428.349319089083</v>
+        <v>428.3493190890831</v>
       </c>
       <c r="M11" t="n">
-        <v>482.8329276864972</v>
+        <v>482.8329276864974</v>
       </c>
       <c r="N11" t="n">
-        <v>469.1599839960443</v>
+        <v>469.1599839960445</v>
       </c>
       <c r="O11" t="n">
-        <v>390.2437727920623</v>
+        <v>390.2437727920624</v>
       </c>
       <c r="P11" t="n">
-        <v>300.5817487813157</v>
+        <v>300.5817487813158</v>
       </c>
       <c r="Q11" t="n">
-        <v>148.0434927503228</v>
+        <v>148.0434927503229</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>85.5120294238186</v>
+        <v>85.51202942381865</v>
       </c>
       <c r="K12" t="n">
-        <v>273.9381420731345</v>
+        <v>273.9381420731346</v>
       </c>
       <c r="L12" t="n">
-        <v>426.1653313764318</v>
+        <v>426.1653313764319</v>
       </c>
       <c r="M12" t="n">
-        <v>133.7481820921309</v>
+        <v>556.0385932188562</v>
       </c>
       <c r="N12" t="n">
-        <v>584.2854852947328</v>
+        <v>161.9950741680073</v>
       </c>
       <c r="O12" t="n">
-        <v>458.2361286328928</v>
+        <v>458.236128632893</v>
       </c>
       <c r="P12" t="n">
-        <v>354.9677019507123</v>
+        <v>354.9677019507124</v>
       </c>
       <c r="Q12" t="n">
-        <v>192.6688396344144</v>
+        <v>192.6688396344145</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>39.19216003346905</v>
+        <v>39.19216003346899</v>
       </c>
       <c r="K13" t="n">
-        <v>142.5406494137813</v>
+        <v>142.5406494137812</v>
       </c>
       <c r="L13" t="n">
         <v>217.3270467147487</v>
@@ -35577,16 +35577,16 @@
         <v>236.6568230935996</v>
       </c>
       <c r="N13" t="n">
-        <v>236.2747272123934</v>
+        <v>236.2747272123933</v>
       </c>
       <c r="O13" t="n">
-        <v>213.5592748752458</v>
+        <v>213.5592748752457</v>
       </c>
       <c r="P13" t="n">
         <v>173.2435005556747</v>
       </c>
       <c r="Q13" t="n">
-        <v>63.34829097035953</v>
+        <v>63.34829097035948</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>114.1118645369719</v>
+        <v>114.111864536972</v>
       </c>
       <c r="K14" t="n">
-        <v>304.5930114381461</v>
+        <v>304.5930114381462</v>
       </c>
       <c r="L14" t="n">
-        <v>428.3493190890828</v>
+        <v>428.3493190890831</v>
       </c>
       <c r="M14" t="n">
-        <v>482.8329276864972</v>
+        <v>482.8329276864974</v>
       </c>
       <c r="N14" t="n">
-        <v>469.1599839960443</v>
+        <v>469.1599839960444</v>
       </c>
       <c r="O14" t="n">
-        <v>390.2437727920623</v>
+        <v>390.2437727920624</v>
       </c>
       <c r="P14" t="n">
-        <v>300.5817487813157</v>
+        <v>300.5817487813158</v>
       </c>
       <c r="Q14" t="n">
-        <v>148.0434927503228</v>
+        <v>148.0434927503229</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>85.5120294238186</v>
+        <v>85.51202942381865</v>
       </c>
       <c r="K15" t="n">
-        <v>273.9381420731345</v>
+        <v>273.9381420731346</v>
       </c>
       <c r="L15" t="n">
-        <v>426.1653313764318</v>
+        <v>426.1653313764319</v>
       </c>
       <c r="M15" t="n">
-        <v>556.0385932188561</v>
+        <v>556.0385932188562</v>
       </c>
       <c r="N15" t="n">
-        <v>161.9950741680076</v>
+        <v>584.2854852947329</v>
       </c>
       <c r="O15" t="n">
-        <v>458.2361286328928</v>
+        <v>35.94571750616735</v>
       </c>
       <c r="P15" t="n">
-        <v>354.9677019507123</v>
+        <v>354.9677019507124</v>
       </c>
       <c r="Q15" t="n">
-        <v>192.6688396344144</v>
+        <v>192.6688396344145</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>39.19216003346904</v>
+        <v>39.19216003346899</v>
       </c>
       <c r="K16" t="n">
         <v>142.5406494137812</v>
@@ -35823,7 +35823,7 @@
         <v>173.2435005556747</v>
       </c>
       <c r="Q16" t="n">
-        <v>63.34829097035951</v>
+        <v>63.34829097035948</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,28 +35881,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>114.1118645369719</v>
+        <v>114.111864536972</v>
       </c>
       <c r="K17" t="n">
-        <v>304.5930114381461</v>
+        <v>304.5930114381462</v>
       </c>
       <c r="L17" t="n">
-        <v>428.349319089083</v>
+        <v>428.3493190890832</v>
       </c>
       <c r="M17" t="n">
-        <v>482.8329276864972</v>
+        <v>482.8329276864974</v>
       </c>
       <c r="N17" t="n">
-        <v>469.1599839960443</v>
+        <v>469.1599839960444</v>
       </c>
       <c r="O17" t="n">
-        <v>390.2437727920623</v>
+        <v>390.2437727920624</v>
       </c>
       <c r="P17" t="n">
-        <v>300.5817487813157</v>
+        <v>300.5817487813158</v>
       </c>
       <c r="Q17" t="n">
-        <v>148.0434927503228</v>
+        <v>148.0434927503229</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>85.51202942381865</v>
       </c>
       <c r="K18" t="n">
-        <v>129.8286000046423</v>
+        <v>273.9381420731346</v>
       </c>
       <c r="L18" t="n">
-        <v>426.1653313764318</v>
+        <v>426.1653313764319</v>
       </c>
       <c r="M18" t="n">
-        <v>556.0385932188561</v>
+        <v>556.0385932188562</v>
       </c>
       <c r="N18" t="n">
-        <v>584.2854852947328</v>
+        <v>584.2854852947329</v>
       </c>
       <c r="O18" t="n">
-        <v>458.2361286328928</v>
+        <v>35.94571750616735</v>
       </c>
       <c r="P18" t="n">
-        <v>354.9677019507123</v>
+        <v>354.9677019507124</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>192.6688396344145</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,22 +36042,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>59.35597371925262</v>
+        <v>59.35597371925266</v>
       </c>
       <c r="L19" t="n">
-        <v>134.1423710202201</v>
+        <v>134.1423710202202</v>
       </c>
       <c r="M19" t="n">
         <v>153.472147399071</v>
       </c>
       <c r="N19" t="n">
-        <v>153.0900515178647</v>
+        <v>153.0900515178648</v>
       </c>
       <c r="O19" t="n">
-        <v>130.3745991807171</v>
+        <v>130.3745991807172</v>
       </c>
       <c r="P19" t="n">
-        <v>90.05882486114608</v>
+        <v>90.05882486114612</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>114.1118645369718</v>
+        <v>114.111864536972</v>
       </c>
       <c r="K20" t="n">
-        <v>304.5930114381461</v>
+        <v>304.5930114381462</v>
       </c>
       <c r="L20" t="n">
-        <v>428.349319089083</v>
+        <v>428.3493190890831</v>
       </c>
       <c r="M20" t="n">
-        <v>482.8329276864972</v>
+        <v>482.8329276864974</v>
       </c>
       <c r="N20" t="n">
-        <v>469.1599839960443</v>
+        <v>469.1599839960444</v>
       </c>
       <c r="O20" t="n">
-        <v>390.2437727920623</v>
+        <v>390.2437727920624</v>
       </c>
       <c r="P20" t="n">
-        <v>300.5817487813157</v>
+        <v>300.5817487813158</v>
       </c>
       <c r="Q20" t="n">
-        <v>148.0434927503228</v>
+        <v>148.0434927503229</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>85.51202942381865</v>
       </c>
       <c r="K21" t="n">
-        <v>129.8286000046423</v>
+        <v>273.9381420731346</v>
       </c>
       <c r="L21" t="n">
-        <v>426.1653313764318</v>
+        <v>426.1653313764319</v>
       </c>
       <c r="M21" t="n">
-        <v>556.0385932188561</v>
+        <v>556.0385932188562</v>
       </c>
       <c r="N21" t="n">
-        <v>584.2854852947328</v>
+        <v>161.9950741680073</v>
       </c>
       <c r="O21" t="n">
-        <v>458.2361286328928</v>
+        <v>458.236128632893</v>
       </c>
       <c r="P21" t="n">
-        <v>354.9677019507123</v>
+        <v>354.9677019507124</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>192.6688396344145</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,22 +36279,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>59.35597371925262</v>
+        <v>59.35597371925266</v>
       </c>
       <c r="L22" t="n">
-        <v>134.1423710202201</v>
+        <v>134.1423710202202</v>
       </c>
       <c r="M22" t="n">
         <v>153.472147399071</v>
       </c>
       <c r="N22" t="n">
-        <v>153.0900515178647</v>
+        <v>153.0900515178648</v>
       </c>
       <c r="O22" t="n">
-        <v>130.3745991807171</v>
+        <v>130.3745991807172</v>
       </c>
       <c r="P22" t="n">
-        <v>90.05882486114608</v>
+        <v>90.05882486114612</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36370,7 +36370,7 @@
         <v>469.1599839960443</v>
       </c>
       <c r="O23" t="n">
-        <v>390.243772792061</v>
+        <v>390.2437727920623</v>
       </c>
       <c r="P23" t="n">
         <v>300.5817487813157</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>85.5120294238186</v>
       </c>
       <c r="K24" t="n">
-        <v>273.9381420731345</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>426.1653313764318</v>
       </c>
       <c r="M24" t="n">
-        <v>556.0385932188561</v>
+        <v>407.6863241652655</v>
       </c>
       <c r="N24" t="n">
-        <v>440.1759432262406</v>
+        <v>584.2854852947328</v>
       </c>
       <c r="O24" t="n">
-        <v>458.2361286328928</v>
+        <v>458.2361286328929</v>
       </c>
       <c r="P24" t="n">
         <v>354.9677019507123</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>192.6688396344144</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,16 +36592,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>155.8407839450118</v>
+        <v>217.6489297778838</v>
       </c>
       <c r="K26" t="n">
         <v>408.130076679058</v>
       </c>
       <c r="L26" t="n">
-        <v>531.8863843299948</v>
+        <v>531.8863843299949</v>
       </c>
       <c r="M26" t="n">
-        <v>586.3699929274092</v>
+        <v>524.5618470945374</v>
       </c>
       <c r="N26" t="n">
         <v>572.6970492369562</v>
@@ -36610,13 +36610,13 @@
         <v>493.7808380329742</v>
       </c>
       <c r="P26" t="n">
-        <v>404.1188140222275</v>
+        <v>404.1188140222276</v>
       </c>
       <c r="Q26" t="n">
         <v>251.5805579912347</v>
       </c>
       <c r="R26" t="n">
-        <v>44.43556537516799</v>
+        <v>44.435565375168</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>85.5120294238186</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>273.9381420731345</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>426.1653313764318</v>
@@ -36683,7 +36683,7 @@
         <v>556.0385932188561</v>
       </c>
       <c r="N27" t="n">
-        <v>161.9950741680076</v>
+        <v>584.2854852947328</v>
       </c>
       <c r="O27" t="n">
         <v>458.2361286328928</v>
@@ -36692,7 +36692,7 @@
         <v>354.9677019507123</v>
       </c>
       <c r="Q27" t="n">
-        <v>192.6688396344144</v>
+        <v>129.8286000046422</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>59.54454957985232</v>
+        <v>59.54454957985233</v>
       </c>
       <c r="K28" t="n">
         <v>162.8930389601645</v>
@@ -36771,7 +36771,7 @@
         <v>193.595890102058</v>
       </c>
       <c r="Q28" t="n">
-        <v>83.70068051674279</v>
+        <v>83.70068051674281</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>217.6489297778838</v>
       </c>
       <c r="K29" t="n">
-        <v>346.3219308461863</v>
+        <v>408.130076679058</v>
       </c>
       <c r="L29" t="n">
         <v>531.8863843299949</v>
@@ -36841,7 +36841,7 @@
         <v>586.3699929274092</v>
       </c>
       <c r="N29" t="n">
-        <v>572.6970492369562</v>
+        <v>510.8889034040846</v>
       </c>
       <c r="O29" t="n">
         <v>493.7808380329742</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>85.5120294238186</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>273.9381420731345</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>426.1653313764318</v>
@@ -36920,7 +36920,7 @@
         <v>556.0385932188561</v>
       </c>
       <c r="N30" t="n">
-        <v>161.9950741680076</v>
+        <v>584.2854852947328</v>
       </c>
       <c r="O30" t="n">
         <v>458.2361286328928</v>
@@ -36929,7 +36929,7 @@
         <v>354.9677019507123</v>
       </c>
       <c r="Q30" t="n">
-        <v>192.6688396344144</v>
+        <v>129.8286000046422</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37069,28 +37069,28 @@
         <v>114.1118645369719</v>
       </c>
       <c r="K32" t="n">
-        <v>304.5930114381461</v>
+        <v>304.593011438146</v>
       </c>
       <c r="L32" t="n">
         <v>428.349319089083</v>
       </c>
       <c r="M32" t="n">
-        <v>621.4859031136406</v>
+        <v>482.8329276864972</v>
       </c>
       <c r="N32" t="n">
-        <v>603.997368981995</v>
+        <v>469.1599839960443</v>
       </c>
       <c r="O32" t="n">
         <v>390.2437727920623</v>
       </c>
       <c r="P32" t="n">
-        <v>300.5817487813157</v>
+        <v>355.8676582058671</v>
       </c>
       <c r="Q32" t="n">
-        <v>148.0434927503228</v>
+        <v>286.6964681774661</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>79.5514755613994</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37224,16 +37224,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>55.54268406839558</v>
       </c>
       <c r="K34" t="n">
-        <v>59.35597371925262</v>
+        <v>59.35597371925261</v>
       </c>
       <c r="L34" t="n">
         <v>134.1423710202201</v>
       </c>
       <c r="M34" t="n">
-        <v>153.472147399071</v>
+        <v>292.1251228262143</v>
       </c>
       <c r="N34" t="n">
         <v>153.0900515178647</v>
@@ -37242,10 +37242,10 @@
         <v>130.3745991807171</v>
       </c>
       <c r="P34" t="n">
-        <v>228.7118002882895</v>
+        <v>90.05882486114606</v>
       </c>
       <c r="Q34" t="n">
-        <v>55.54268406839424</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,7 +37306,7 @@
         <v>114.1118645369719</v>
       </c>
       <c r="K35" t="n">
-        <v>304.5930114381461</v>
+        <v>304.593011438146</v>
       </c>
       <c r="L35" t="n">
         <v>428.349319089083</v>
@@ -37385,7 +37385,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>273.9381420731345</v>
+        <v>129.8286000046423</v>
       </c>
       <c r="L36" t="n">
         <v>426.1653313764318</v>
@@ -37397,13 +37397,13 @@
         <v>584.2854852947328</v>
       </c>
       <c r="O36" t="n">
-        <v>121.4577469299863</v>
+        <v>458.2361286328928</v>
       </c>
       <c r="P36" t="n">
         <v>354.9677019507123</v>
       </c>
       <c r="Q36" t="n">
-        <v>192.6688396344144</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,7 +37464,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>59.35597371925262</v>
+        <v>59.35597371925261</v>
       </c>
       <c r="L37" t="n">
         <v>134.1423710202201</v>
@@ -37479,7 +37479,7 @@
         <v>130.3745991807171</v>
       </c>
       <c r="P37" t="n">
-        <v>90.05882486114608</v>
+        <v>90.05882486114606</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37543,13 +37543,13 @@
         <v>114.1118645369719</v>
       </c>
       <c r="K38" t="n">
-        <v>304.5930114381461</v>
+        <v>304.593011438146</v>
       </c>
       <c r="L38" t="n">
         <v>428.349319089083</v>
       </c>
       <c r="M38" t="n">
-        <v>482.8329276864967</v>
+        <v>482.8329276864972</v>
       </c>
       <c r="N38" t="n">
         <v>469.1599839960443</v>
@@ -37631,7 +37631,7 @@
         <v>556.0385932188561</v>
       </c>
       <c r="N39" t="n">
-        <v>247.5071035918263</v>
+        <v>440.1759432262406</v>
       </c>
       <c r="O39" t="n">
         <v>458.2361286328928</v>
@@ -37640,7 +37640,7 @@
         <v>354.9677019507123</v>
       </c>
       <c r="Q39" t="n">
-        <v>192.6688396344144</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>59.35597371925262</v>
+        <v>59.35597371925261</v>
       </c>
       <c r="L40" t="n">
         <v>134.1423710202201</v>
@@ -37716,7 +37716,7 @@
         <v>130.3745991807171</v>
       </c>
       <c r="P40" t="n">
-        <v>90.05882486114608</v>
+        <v>90.05882486114606</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>114.1118645369719</v>
       </c>
       <c r="K41" t="n">
-        <v>304.5930114381461</v>
+        <v>304.593011438146</v>
       </c>
       <c r="L41" t="n">
         <v>428.349319089083</v>
@@ -37868,13 +37868,13 @@
         <v>556.0385932188561</v>
       </c>
       <c r="N42" t="n">
-        <v>584.2854852947328</v>
+        <v>161.9950741680076</v>
       </c>
       <c r="O42" t="n">
-        <v>390.91341945688</v>
+        <v>458.2361286328928</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>354.9677019507123</v>
       </c>
       <c r="Q42" t="n">
         <v>192.6688396344144</v>
@@ -37938,7 +37938,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>59.35597371925262</v>
+        <v>59.35597371925261</v>
       </c>
       <c r="L43" t="n">
         <v>134.1423710202201</v>
@@ -37953,7 +37953,7 @@
         <v>130.3745991807171</v>
       </c>
       <c r="P43" t="n">
-        <v>90.05882486114608</v>
+        <v>90.05882486114606</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38014,10 +38014,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>114.1118645369709</v>
+        <v>114.1118645369719</v>
       </c>
       <c r="K44" t="n">
-        <v>304.5930114381461</v>
+        <v>304.593011438146</v>
       </c>
       <c r="L44" t="n">
         <v>428.349319089083</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>85.5120294238186</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>273.9381420731345</v>
@@ -38105,16 +38105,16 @@
         <v>556.0385932188561</v>
       </c>
       <c r="N45" t="n">
-        <v>161.9950741680076</v>
+        <v>584.2854852947328</v>
       </c>
       <c r="O45" t="n">
         <v>458.2361286328928</v>
       </c>
       <c r="P45" t="n">
-        <v>354.9677019507123</v>
+        <v>210.8581598822202</v>
       </c>
       <c r="Q45" t="n">
-        <v>192.6688396344144</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,7 +38175,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>59.35597371925262</v>
+        <v>59.35597371925261</v>
       </c>
       <c r="L46" t="n">
         <v>134.1423710202201</v>
@@ -38190,7 +38190,7 @@
         <v>130.3745991807171</v>
       </c>
       <c r="P46" t="n">
-        <v>90.05882486114608</v>
+        <v>90.05882486114606</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
